--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F21F00-62C2-4BC3-9931-1F516CDE153A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3A1E3-F996-42D9-ACFF-288F289E267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1040,14 +1040,16 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1058,14 +1060,16 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1075,15 +1079,17 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
+      <c r="A4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1094,16 +1100,18 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1112,14 +1120,16 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1130,13 +1140,13 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="4"/>
@@ -1148,14 +1158,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
+      <c r="D8" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1166,14 +1176,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1183,17 +1193,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1201,15 +1211,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16" t="s">
-        <v>8</v>
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1219,15 +1229,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
-        <v>88</v>
+      <c r="A12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1238,16 +1248,14 @@
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1258,14 +1266,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1276,16 +1284,14 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1296,14 +1302,14 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="18"/>
       <c r="D16" s="16" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1313,17 +1319,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
-      <c r="A17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1332,12 +1338,12 @@
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
@@ -1349,17 +1355,17 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="A19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1368,16 +1374,16 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1385,17 +1391,17 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="8" t="s">
-        <v>84</v>
+      <c r="A21" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1404,16 +1410,16 @@
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1422,10 +1428,10 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
@@ -1439,17 +1445,17 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="5" t="s">
-        <v>119</v>
+      <c r="A24" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1458,14 +1464,14 @@
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
       <c r="A25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1475,15 +1481,15 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="8" t="s">
-        <v>107</v>
+      <c r="A26" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1494,14 +1500,14 @@
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1512,14 +1518,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>133</v>
+        <v>69</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1530,16 +1536,16 @@
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
       <c r="A29" s="8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1548,14 +1554,14 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1566,16 +1572,14 @@
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
       <c r="A31" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1585,17 +1589,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="5" t="s">
-        <v>64</v>
+      <c r="A32" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1603,15 +1607,15 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="10"/>
+      <c r="A33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1622,16 +1626,14 @@
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
       <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1641,19 +1643,17 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="15" t="s">
-        <v>26</v>
+      <c r="A35" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1662,16 +1662,18 @@
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
       <c r="A36" s="15" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="17"/>
       <c r="D36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1680,16 +1682,16 @@
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
       <c r="A37" s="15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="C37" s="18"/>
       <c r="D37" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1697,15 +1699,15 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6" t="s">
-        <v>109</v>
+      <c r="A38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -1715,17 +1717,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
-      <c r="A39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="4"/>
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1734,16 +1736,14 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition ref="A1:A390"/>
+      <sortCondition descending="1" ref="C1:C390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3A1E3-F996-42D9-ACFF-288F289E267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA57A7E-F761-450E-94A2-4A2D550F9AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,16 +1040,14 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>50</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1060,16 +1058,14 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1080,16 +1076,14 @@
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
       <c r="A4" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1100,16 +1094,14 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1120,16 +1112,14 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1140,14 +1130,14 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
-        <v>77</v>
+      <c r="D7" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1158,14 +1148,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1176,14 +1166,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1193,17 +1183,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1211,15 +1201,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="A11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1230,14 +1220,14 @@
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
       <c r="A12" s="5" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1247,15 +1237,15 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="A13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
+      <c r="A13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1266,14 +1256,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1283,15 +1273,15 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="A15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16" t="s">
-        <v>9</v>
+      <c r="A15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1302,14 +1292,14 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="16" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1319,15 +1309,15 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
-      <c r="A17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16" t="s">
-        <v>88</v>
+      <c r="A17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1337,17 +1327,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
-      <c r="A18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="A18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1355,15 +1345,15 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
-        <v>68</v>
+      <c r="A19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1374,16 +1364,18 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1392,14 +1384,14 @@
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1409,15 +1401,15 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
-      <c r="A22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="4"/>
@@ -1427,17 +1419,17 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
-      <c r="A23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="A23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1445,17 +1437,17 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="A24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1463,17 +1455,19 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
-      <c r="A25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="A25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1482,14 +1476,16 @@
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
       <c r="A26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>99</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1499,15 +1495,15 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="A27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="A27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="10"/>
       <c r="D27" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1518,14 +1514,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1535,15 +1531,17 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="8" t="s">
-        <v>107</v>
+      <c r="A29" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>126</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1554,14 +1552,14 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1571,17 +1569,17 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
-      <c r="A31" s="5" t="s">
-        <v>132</v>
+      <c r="A31" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1589,17 +1587,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="8" t="s">
-        <v>94</v>
+      <c r="A32" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1608,14 +1606,14 @@
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
       <c r="A33" s="5" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1625,15 +1623,15 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
-      <c r="A34" s="5" t="s">
-        <v>64</v>
+      <c r="A34" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1643,15 +1641,15 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="8" t="s">
-        <v>76</v>
+      <c r="A35" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="6" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1661,19 +1659,17 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
-      <c r="A36" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="A36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1681,15 +1677,15 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
-      <c r="A37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="16" t="s">
-        <v>4</v>
+      <c r="A37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1699,17 +1695,17 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="A38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1718,14 +1714,14 @@
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
       <c r="A39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
@@ -1736,14 +1732,14 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1754,16 +1750,16 @@
     </row>
     <row r="41" spans="1:10" ht="17.399999999999999">
       <c r="A41" s="5" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1771,17 +1767,17 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999">
-      <c r="A42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="6"/>
+      <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1790,16 +1786,16 @@
     </row>
     <row r="43" spans="1:10" ht="17.399999999999999">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1808,12 +1804,12 @@
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999">
       <c r="A44" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C44" s="17"/>
       <c r="D44" s="16" t="s">
         <v>68</v>
       </c>
@@ -1825,15 +1821,17 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="17.399999999999999">
-      <c r="A45" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="6" t="s">
-        <v>44</v>
+      <c r="A45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1844,14 +1842,14 @@
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1861,15 +1859,17 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="17.399999999999999">
-      <c r="A47" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16" t="s">
-        <v>5</v>
+      <c r="A47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1879,15 +1879,15 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="17.399999999999999">
-      <c r="A48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6" t="s">
-        <v>67</v>
+      <c r="A48" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1897,15 +1897,15 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="17.399999999999999">
-      <c r="A49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6" t="s">
-        <v>143</v>
+      <c r="A49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1916,14 +1916,14 @@
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999">
       <c r="A50" s="15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1934,14 +1934,14 @@
     </row>
     <row r="51" spans="1:10" ht="17.399999999999999">
       <c r="A51" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1952,14 +1952,14 @@
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999">
       <c r="A52" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="6" t="s">
-        <v>44</v>
+      <c r="D52" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1970,14 +1970,14 @@
     </row>
     <row r="53" spans="1:10" ht="17.399999999999999">
       <c r="A53" s="5" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="6" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1988,14 +1988,14 @@
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
       <c r="A54" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="55" spans="1:10" ht="17.399999999999999">
       <c r="A55" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2023,15 +2023,15 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="16" t="s">
-        <v>9</v>
+      <c r="A56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2042,14 +2042,14 @@
     </row>
     <row r="57" spans="1:10" ht="17.399999999999999">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2060,14 +2060,14 @@
     </row>
     <row r="58" spans="1:10" ht="17.399999999999999">
       <c r="A58" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="6" t="s">
-        <v>80</v>
+        <v>139</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition descending="1" ref="C1:C390"/>
+      <sortCondition descending="1" ref="A1:A390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C47" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C45" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA57A7E-F761-450E-94A2-4A2D550F9AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D1A15B-500B-472F-9AAF-8DE95CE6567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,14 +1040,14 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>139</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1058,14 +1058,14 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1075,15 +1075,15 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16" t="s">
-        <v>9</v>
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1112,14 +1112,14 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1130,14 +1130,14 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1148,14 +1148,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1166,14 +1166,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1184,14 +1184,14 @@
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
       <c r="A10" s="15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1201,15 +1201,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
-        <v>143</v>
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1219,15 +1219,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1237,15 +1237,17 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="A13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
-        <v>5</v>
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1256,14 +1258,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1273,15 +1275,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="A15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
+      <c r="A15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1292,12 +1296,12 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="16" t="s">
         <v>68</v>
       </c>
@@ -1310,16 +1314,16 @@
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
       <c r="A17" s="5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1327,17 +1331,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
-      <c r="A18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1346,16 +1350,16 @@
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1364,16 +1368,14 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1383,17 +1385,17 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="5" t="s">
-        <v>81</v>
+      <c r="A21" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1401,17 +1403,17 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
-      <c r="A22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="7"/>
+      <c r="A22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1419,17 +1421,17 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
-      <c r="A23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="A23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1437,15 +1439,15 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16" t="s">
-        <v>4</v>
+      <c r="A24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1455,19 +1457,17 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
-      <c r="A25" s="15" t="s">
-        <v>26</v>
+      <c r="A25" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="18"/>
       <c r="D25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1475,17 +1475,15 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>9</v>
+      <c r="A26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1495,15 +1493,15 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="A27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="10"/>
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1514,14 +1512,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1531,19 +1529,17 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="5" t="s">
-        <v>125</v>
+      <c r="A29" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1569,17 +1565,19 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
-      <c r="A31" s="8" t="s">
-        <v>94</v>
+      <c r="A31" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1588,14 +1586,14 @@
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
       <c r="A32" s="5" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1605,15 +1603,15 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="4"/>
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1623,15 +1621,17 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
-      <c r="A34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="6" t="s">
-        <v>80</v>
+      <c r="A34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1641,17 +1641,19 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="5" t="s">
-        <v>69</v>
+      <c r="A35" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="17"/>
       <c r="D35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1659,15 +1661,15 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
-      <c r="A36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6" t="s">
-        <v>68</v>
+      <c r="A36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1677,17 +1679,17 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
-      <c r="A37" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="A37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1695,17 +1697,17 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="4"/>
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1713,17 +1715,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
-      <c r="A39" s="8" t="s">
-        <v>84</v>
+      <c r="A39" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1732,14 +1734,16 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1750,16 +1754,16 @@
     </row>
     <row r="41" spans="1:10" ht="17.399999999999999">
       <c r="A41" s="5" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1767,17 +1771,17 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999">
-      <c r="A42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="4"/>
+      <c r="A42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1786,16 +1790,16 @@
     </row>
     <row r="43" spans="1:10" ht="17.399999999999999">
       <c r="A43" s="5" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1804,12 +1808,12 @@
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999">
       <c r="A44" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="C44" s="18"/>
       <c r="D44" s="16" t="s">
         <v>68</v>
       </c>
@@ -1821,17 +1825,15 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="17.399999999999999">
-      <c r="A45" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>4</v>
+      <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1842,14 +1844,14 @@
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999">
       <c r="A46" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1859,17 +1861,15 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="17.399999999999999">
-      <c r="A47" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>44</v>
+      <c r="A47" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1879,15 +1879,15 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="17.399999999999999">
-      <c r="A48" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="16" t="s">
-        <v>88</v>
+      <c r="A48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1897,15 +1897,15 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="17.399999999999999">
-      <c r="A49" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="16" t="s">
-        <v>8</v>
+      <c r="A49" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1916,14 +1916,14 @@
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999">
       <c r="A50" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1934,14 +1934,14 @@
     </row>
     <row r="51" spans="1:10" ht="17.399999999999999">
       <c r="A51" s="5" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1952,14 +1952,14 @@
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999">
       <c r="A52" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="3" t="s">
-        <v>68</v>
+      <c r="D52" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1970,14 +1970,14 @@
     </row>
     <row r="53" spans="1:10" ht="17.399999999999999">
       <c r="A53" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1988,14 +1988,14 @@
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
       <c r="A54" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="55" spans="1:10" ht="17.399999999999999">
       <c r="A55" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2023,15 +2023,15 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="6" t="s">
-        <v>49</v>
+      <c r="A56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2042,14 +2042,14 @@
     </row>
     <row r="57" spans="1:10" ht="17.399999999999999">
       <c r="A57" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="6" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2060,14 +2060,14 @@
     </row>
     <row r="58" spans="1:10" ht="17.399999999999999">
       <c r="A58" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition descending="1" ref="A1:A390"/>
+      <sortCondition ref="A1:A390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C45" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D1A15B-500B-472F-9AAF-8DE95CE6567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3D0CCB-D148-4AD9-BD13-366C7204D9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,14 +1040,16 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1058,14 +1060,16 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1075,15 +1079,17 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
+      <c r="A4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1094,16 +1100,18 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1112,14 +1120,16 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1130,13 +1140,13 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="4"/>
@@ -1148,14 +1158,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
+      <c r="D8" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1166,14 +1176,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1183,17 +1193,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1201,15 +1211,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16" t="s">
-        <v>8</v>
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1219,15 +1229,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
-        <v>88</v>
+      <c r="A12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1238,16 +1248,14 @@
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1258,14 +1266,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1276,16 +1284,14 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1296,14 +1302,14 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="18"/>
       <c r="D16" s="16" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1313,17 +1319,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
-      <c r="A17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1332,12 +1338,12 @@
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
@@ -1349,17 +1355,17 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="A19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1368,16 +1374,16 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1385,17 +1391,17 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="8" t="s">
-        <v>84</v>
+      <c r="A21" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1404,16 +1410,16 @@
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1422,10 +1428,10 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
@@ -1439,17 +1445,17 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="5" t="s">
-        <v>119</v>
+      <c r="A24" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1458,14 +1464,14 @@
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
       <c r="A25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1475,15 +1481,15 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="8" t="s">
-        <v>107</v>
+      <c r="A26" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1494,14 +1500,14 @@
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1512,14 +1518,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>133</v>
+        <v>69</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1530,16 +1536,16 @@
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
       <c r="A29" s="8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1548,14 +1554,14 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1566,16 +1572,14 @@
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
       <c r="A31" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1585,17 +1589,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="5" t="s">
-        <v>64</v>
+      <c r="A32" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1603,15 +1607,15 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="10"/>
+      <c r="A33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1622,16 +1626,14 @@
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
       <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1641,19 +1643,17 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="15" t="s">
-        <v>26</v>
+      <c r="A35" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1662,16 +1662,18 @@
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
       <c r="A36" s="15" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="17"/>
       <c r="D36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1680,16 +1682,16 @@
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
       <c r="A37" s="15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="C37" s="18"/>
       <c r="D37" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1697,15 +1699,15 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6" t="s">
-        <v>109</v>
+      <c r="A38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -1715,17 +1717,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
-      <c r="A39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="4"/>
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1734,16 +1736,14 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition ref="A1:A390"/>
+      <sortCondition descending="1" ref="C1:C390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3D0CCB-D148-4AD9-BD13-366C7204D9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD51BC-BFF4-4C0D-AB69-755B64355BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,16 +1040,14 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>50</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1060,16 +1058,14 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1080,16 +1076,14 @@
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
       <c r="A4" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1100,16 +1094,14 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1120,16 +1112,14 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1140,14 +1130,14 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
-        <v>77</v>
+      <c r="D7" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1158,14 +1148,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1176,14 +1166,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1193,17 +1183,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1211,15 +1201,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="A11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1230,14 +1220,14 @@
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
       <c r="A12" s="5" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1247,15 +1237,15 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="A13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
+      <c r="A13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1266,14 +1256,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1283,15 +1273,15 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="A15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16" t="s">
-        <v>9</v>
+      <c r="A15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1302,14 +1292,14 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="16" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1319,15 +1309,15 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
-      <c r="A17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16" t="s">
-        <v>88</v>
+      <c r="A17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1337,17 +1327,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
-      <c r="A18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="A18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1355,15 +1345,15 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
-        <v>68</v>
+      <c r="A19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1374,16 +1364,18 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1392,14 +1384,14 @@
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1409,15 +1401,15 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
-      <c r="A22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="4"/>
@@ -1427,17 +1419,17 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
-      <c r="A23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="A23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1445,17 +1437,17 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="A24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1463,17 +1455,19 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
-      <c r="A25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="A25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1482,14 +1476,16 @@
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
       <c r="A26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>99</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1499,15 +1495,15 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="A27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="A27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="10"/>
       <c r="D27" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1518,14 +1514,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1535,15 +1531,17 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="8" t="s">
-        <v>107</v>
+      <c r="A29" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>126</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1554,14 +1552,14 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1571,17 +1569,17 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
-      <c r="A31" s="5" t="s">
-        <v>132</v>
+      <c r="A31" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1589,17 +1587,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="8" t="s">
-        <v>94</v>
+      <c r="A32" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1608,14 +1606,14 @@
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
       <c r="A33" s="5" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1625,15 +1623,15 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
-      <c r="A34" s="5" t="s">
-        <v>64</v>
+      <c r="A34" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1643,15 +1641,15 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="8" t="s">
-        <v>76</v>
+      <c r="A35" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="6" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1661,19 +1659,17 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
-      <c r="A36" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="A36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1681,15 +1677,15 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
-      <c r="A37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="16" t="s">
-        <v>4</v>
+      <c r="A37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1699,17 +1695,17 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="A38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1718,14 +1714,14 @@
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
       <c r="A39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="4"/>
@@ -1736,14 +1732,14 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1754,16 +1750,16 @@
     </row>
     <row r="41" spans="1:10" ht="17.399999999999999">
       <c r="A41" s="5" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1771,17 +1767,17 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999">
-      <c r="A42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="6"/>
+      <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1790,16 +1786,16 @@
     </row>
     <row r="43" spans="1:10" ht="17.399999999999999">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1808,12 +1804,12 @@
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999">
       <c r="A44" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C44" s="17"/>
       <c r="D44" s="16" t="s">
         <v>68</v>
       </c>
@@ -1825,15 +1821,17 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="17.399999999999999">
-      <c r="A45" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="6" t="s">
-        <v>44</v>
+      <c r="A45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1844,14 +1842,14 @@
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1861,15 +1859,17 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="17.399999999999999">
-      <c r="A47" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16" t="s">
-        <v>5</v>
+      <c r="A47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1879,15 +1879,15 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="17.399999999999999">
-      <c r="A48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6" t="s">
-        <v>67</v>
+      <c r="A48" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1897,15 +1897,15 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="17.399999999999999">
-      <c r="A49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6" t="s">
-        <v>143</v>
+      <c r="A49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1916,14 +1916,14 @@
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999">
       <c r="A50" s="15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1934,14 +1934,14 @@
     </row>
     <row r="51" spans="1:10" ht="17.399999999999999">
       <c r="A51" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1952,14 +1952,14 @@
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999">
       <c r="A52" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="6" t="s">
-        <v>44</v>
+      <c r="D52" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1970,14 +1970,14 @@
     </row>
     <row r="53" spans="1:10" ht="17.399999999999999">
       <c r="A53" s="5" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="6" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1988,14 +1988,14 @@
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
       <c r="A54" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="55" spans="1:10" ht="17.399999999999999">
       <c r="A55" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2023,15 +2023,15 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="16" t="s">
-        <v>9</v>
+      <c r="A56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2042,14 +2042,14 @@
     </row>
     <row r="57" spans="1:10" ht="17.399999999999999">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2060,14 +2060,14 @@
     </row>
     <row r="58" spans="1:10" ht="17.399999999999999">
       <c r="A58" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="6" t="s">
-        <v>80</v>
+        <v>139</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition descending="1" ref="C1:C390"/>
+      <sortCondition descending="1" ref="A1:A390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C47" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C45" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD51BC-BFF4-4C0D-AB69-755B64355BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EAAF88-25DD-42C1-919D-AFAF9DCBE672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,14 +1040,14 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>139</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1058,14 +1058,14 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1075,15 +1075,15 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16" t="s">
-        <v>9</v>
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1112,14 +1112,14 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1130,14 +1130,14 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1148,14 +1148,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1166,14 +1166,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1184,14 +1184,14 @@
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
       <c r="A10" s="15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1201,15 +1201,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
-        <v>143</v>
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1219,15 +1219,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1237,15 +1237,17 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="A13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
-        <v>5</v>
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1256,14 +1258,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1273,15 +1275,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="A15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
+      <c r="A15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1292,12 +1296,12 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="16" t="s">
         <v>68</v>
       </c>
@@ -1310,16 +1314,16 @@
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
       <c r="A17" s="5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1327,17 +1331,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
-      <c r="A18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1346,16 +1350,16 @@
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1364,16 +1368,14 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1383,17 +1385,17 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="5" t="s">
-        <v>81</v>
+      <c r="A21" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1401,17 +1403,17 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
-      <c r="A22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="7"/>
+      <c r="A22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1419,17 +1421,17 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
-      <c r="A23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="A23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1437,15 +1439,15 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16" t="s">
-        <v>4</v>
+      <c r="A24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1455,19 +1457,17 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
-      <c r="A25" s="15" t="s">
-        <v>26</v>
+      <c r="A25" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="18"/>
       <c r="D25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1475,17 +1475,15 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>9</v>
+      <c r="A26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1495,15 +1493,15 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="A27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="10"/>
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1514,14 +1512,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1531,19 +1529,17 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="5" t="s">
-        <v>125</v>
+      <c r="A29" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1569,17 +1565,19 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
-      <c r="A31" s="8" t="s">
-        <v>94</v>
+      <c r="A31" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1588,14 +1586,14 @@
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
       <c r="A32" s="5" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1605,15 +1603,15 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="4"/>
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1623,15 +1621,17 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
-      <c r="A34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="6" t="s">
-        <v>80</v>
+      <c r="A34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1641,17 +1641,19 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="5" t="s">
-        <v>69</v>
+      <c r="A35" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="17"/>
       <c r="D35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1659,15 +1661,15 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
-      <c r="A36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6" t="s">
-        <v>68</v>
+      <c r="A36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1677,17 +1679,17 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
-      <c r="A37" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="A37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1695,17 +1697,17 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="4"/>
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1713,17 +1715,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
-      <c r="A39" s="8" t="s">
-        <v>84</v>
+      <c r="A39" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1732,14 +1734,16 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1750,16 +1754,16 @@
     </row>
     <row r="41" spans="1:10" ht="17.399999999999999">
       <c r="A41" s="5" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1767,17 +1771,17 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999">
-      <c r="A42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="4"/>
+      <c r="A42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1786,16 +1790,16 @@
     </row>
     <row r="43" spans="1:10" ht="17.399999999999999">
       <c r="A43" s="5" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1804,12 +1808,12 @@
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999">
       <c r="A44" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="C44" s="18"/>
       <c r="D44" s="16" t="s">
         <v>68</v>
       </c>
@@ -1821,17 +1825,15 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="17.399999999999999">
-      <c r="A45" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>4</v>
+      <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1842,14 +1844,14 @@
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999">
       <c r="A46" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1859,17 +1861,15 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="17.399999999999999">
-      <c r="A47" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>44</v>
+      <c r="A47" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1879,15 +1879,15 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="17.399999999999999">
-      <c r="A48" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="16" t="s">
-        <v>88</v>
+      <c r="A48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1897,15 +1897,15 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="17.399999999999999">
-      <c r="A49" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="16" t="s">
-        <v>8</v>
+      <c r="A49" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1916,14 +1916,14 @@
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999">
       <c r="A50" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1934,14 +1934,14 @@
     </row>
     <row r="51" spans="1:10" ht="17.399999999999999">
       <c r="A51" s="5" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1952,14 +1952,14 @@
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999">
       <c r="A52" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="3" t="s">
-        <v>68</v>
+      <c r="D52" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1970,14 +1970,14 @@
     </row>
     <row r="53" spans="1:10" ht="17.399999999999999">
       <c r="A53" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1988,14 +1988,14 @@
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
       <c r="A54" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="55" spans="1:10" ht="17.399999999999999">
       <c r="A55" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2023,15 +2023,15 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="6" t="s">
-        <v>49</v>
+      <c r="A56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2042,14 +2042,14 @@
     </row>
     <row r="57" spans="1:10" ht="17.399999999999999">
       <c r="A57" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="6" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2060,14 +2060,14 @@
     </row>
     <row r="58" spans="1:10" ht="17.399999999999999">
       <c r="A58" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition descending="1" ref="A1:A390"/>
+      <sortCondition ref="A1:A390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C45" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EAAF88-25DD-42C1-919D-AFAF9DCBE672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DEB74A-F5F7-428B-A773-2D24AD38A916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,14 +1040,16 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1058,14 +1060,16 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1075,15 +1079,17 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
+      <c r="A4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1094,16 +1100,18 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1112,14 +1120,16 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1130,13 +1140,13 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="4"/>
@@ -1148,14 +1158,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
+      <c r="D8" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1166,14 +1176,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1183,17 +1193,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1201,15 +1211,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16" t="s">
-        <v>8</v>
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1219,15 +1229,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
-        <v>88</v>
+      <c r="A12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1238,16 +1248,14 @@
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1258,14 +1266,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1276,16 +1284,14 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1296,14 +1302,14 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="18"/>
       <c r="D16" s="16" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1313,17 +1319,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
-      <c r="A17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1332,12 +1338,12 @@
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
@@ -1349,17 +1355,17 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="A19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1368,16 +1374,16 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1385,17 +1391,17 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="8" t="s">
-        <v>84</v>
+      <c r="A21" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1404,16 +1410,16 @@
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1422,10 +1428,10 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
@@ -1439,17 +1445,17 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="5" t="s">
-        <v>119</v>
+      <c r="A24" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1458,14 +1464,14 @@
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
       <c r="A25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1475,15 +1481,15 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="8" t="s">
-        <v>107</v>
+      <c r="A26" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1494,14 +1500,14 @@
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1512,14 +1518,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>133</v>
+        <v>69</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1530,16 +1536,16 @@
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
       <c r="A29" s="8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1548,14 +1554,14 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1566,16 +1572,14 @@
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
       <c r="A31" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1585,17 +1589,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="5" t="s">
-        <v>64</v>
+      <c r="A32" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1603,15 +1607,15 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="10"/>
+      <c r="A33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1622,16 +1626,14 @@
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
       <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1641,19 +1643,17 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="15" t="s">
-        <v>26</v>
+      <c r="A35" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1662,16 +1662,18 @@
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
       <c r="A36" s="15" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="17"/>
       <c r="D36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1680,16 +1682,16 @@
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
       <c r="A37" s="15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="C37" s="18"/>
       <c r="D37" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1697,15 +1699,15 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6" t="s">
-        <v>109</v>
+      <c r="A38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -1715,17 +1717,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
-      <c r="A39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="4"/>
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1734,16 +1736,14 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition ref="A1:A390"/>
+      <sortCondition descending="1" ref="C1:C390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DEB74A-F5F7-428B-A773-2D24AD38A916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3D8C1-00F4-4A55-8744-CC3F09E3EF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,16 +1040,14 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>139</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1060,16 +1058,14 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1079,17 +1075,15 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>4</v>
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1100,18 +1094,16 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1120,16 +1112,14 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1140,13 +1130,13 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="4"/>
@@ -1158,14 +1148,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>59</v>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1176,14 +1166,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1193,17 +1183,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="A10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1211,15 +1201,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
-        <v>62</v>
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1229,15 +1219,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6" t="s">
-        <v>77</v>
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1248,14 +1238,16 @@
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1266,14 +1258,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1284,14 +1276,16 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="15" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="D15" s="16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1302,14 +1296,14 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="16" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1319,17 +1313,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
-      <c r="A17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1338,12 +1332,12 @@
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
@@ -1355,17 +1349,17 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1374,16 +1368,16 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1391,17 +1385,17 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
+      <c r="A21" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1410,16 +1404,16 @@
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1428,10 +1422,10 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
       <c r="A23" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
@@ -1445,17 +1439,17 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="8" t="s">
-        <v>84</v>
+      <c r="A24" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1464,14 +1458,14 @@
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
       <c r="A25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1481,15 +1475,15 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="5" t="s">
-        <v>95</v>
+      <c r="A26" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1500,14 +1494,14 @@
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
       <c r="A27" s="5" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1518,14 +1512,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16" t="s">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1536,16 +1530,16 @@
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
       <c r="A29" s="8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1554,14 +1548,14 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1572,14 +1566,16 @@
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
       <c r="A31" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1589,17 +1585,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="8" t="s">
-        <v>94</v>
+      <c r="A32" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1607,15 +1603,15 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="4"/>
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1626,14 +1622,16 @@
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
       <c r="A34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>99</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1643,17 +1641,19 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="8" t="s">
-        <v>76</v>
+      <c r="A35" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1662,18 +1662,16 @@
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
       <c r="A36" s="15" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="C36" s="18"/>
       <c r="D36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1682,16 +1680,16 @@
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
       <c r="A37" s="15" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1699,15 +1697,15 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16" t="s">
-        <v>68</v>
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -1717,17 +1715,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
-      <c r="A39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="7"/>
+      <c r="A39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1736,14 +1734,16 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition descending="1" ref="C1:C390"/>
+      <sortCondition ref="A1:A390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3D8C1-00F4-4A55-8744-CC3F09E3EF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A1D7BA-0191-41A7-AF35-E60B9F611F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,14 +1040,16 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1058,14 +1060,16 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1075,15 +1079,17 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
+      <c r="A4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1094,16 +1100,18 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1112,14 +1120,16 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1130,13 +1140,13 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="4"/>
@@ -1148,14 +1158,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
+      <c r="D8" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1166,14 +1176,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1183,17 +1193,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1201,15 +1211,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16" t="s">
-        <v>8</v>
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1219,15 +1229,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
-        <v>88</v>
+      <c r="A12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1238,16 +1248,14 @@
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1258,14 +1266,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1276,16 +1284,14 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1296,14 +1302,14 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="18"/>
       <c r="D16" s="16" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1313,17 +1319,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
-      <c r="A17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1332,12 +1338,12 @@
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
@@ -1349,17 +1355,17 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="A19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1368,16 +1374,16 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1385,17 +1391,17 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="8" t="s">
-        <v>84</v>
+      <c r="A21" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1404,16 +1410,16 @@
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1422,10 +1428,10 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
@@ -1439,17 +1445,17 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="5" t="s">
-        <v>119</v>
+      <c r="A24" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1458,14 +1464,14 @@
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
       <c r="A25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1475,15 +1481,15 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="8" t="s">
-        <v>107</v>
+      <c r="A26" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1494,14 +1500,14 @@
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1512,14 +1518,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>133</v>
+        <v>69</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1530,16 +1536,16 @@
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
       <c r="A29" s="8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1548,14 +1554,14 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1566,16 +1572,14 @@
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
       <c r="A31" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1585,17 +1589,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="5" t="s">
-        <v>64</v>
+      <c r="A32" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1603,15 +1607,15 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="10"/>
+      <c r="A33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1622,16 +1626,14 @@
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
       <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1641,19 +1643,17 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="15" t="s">
-        <v>26</v>
+      <c r="A35" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1662,16 +1662,18 @@
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
       <c r="A36" s="15" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="17"/>
       <c r="D36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1680,16 +1682,16 @@
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
       <c r="A37" s="15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="C37" s="18"/>
       <c r="D37" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1697,15 +1699,15 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6" t="s">
-        <v>109</v>
+      <c r="A38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -1715,17 +1717,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
-      <c r="A39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="4"/>
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1734,16 +1736,14 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition ref="A1:A390"/>
+      <sortCondition descending="1" ref="C1:C390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A1D7BA-0191-41A7-AF35-E60B9F611F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4365C2-EB55-42D4-8839-140154D429A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,16 +1040,14 @@
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>139</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1060,16 +1058,14 @@
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1079,17 +1075,15 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
-      <c r="A4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>4</v>
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1100,18 +1094,16 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1120,16 +1112,14 @@
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1140,13 +1130,13 @@
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="4"/>
@@ -1158,14 +1148,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>59</v>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1176,14 +1166,14 @@
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1193,17 +1183,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="A10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1211,15 +1201,15 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
-        <v>62</v>
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1229,15 +1219,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6" t="s">
-        <v>77</v>
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1248,14 +1238,16 @@
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1266,14 +1258,14 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1284,14 +1276,16 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="15" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="D15" s="16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1302,14 +1296,14 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="16" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1319,17 +1313,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999">
-      <c r="A17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1338,12 +1332,12 @@
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
@@ -1355,17 +1349,17 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1374,16 +1368,16 @@
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1391,17 +1385,17 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
+      <c r="A21" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1410,16 +1404,16 @@
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1428,10 +1422,10 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999">
       <c r="A23" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
@@ -1445,17 +1439,17 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999">
-      <c r="A24" s="8" t="s">
-        <v>84</v>
+      <c r="A24" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1464,14 +1458,14 @@
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999">
       <c r="A25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1481,15 +1475,15 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="5" t="s">
-        <v>95</v>
+      <c r="A26" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1500,14 +1494,14 @@
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
       <c r="A27" s="5" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1518,14 +1512,14 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16" t="s">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1536,16 +1530,16 @@
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
       <c r="A29" s="8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1554,14 +1548,14 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1572,14 +1566,16 @@
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
       <c r="A31" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1589,17 +1585,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
-      <c r="A32" s="8" t="s">
-        <v>94</v>
+      <c r="A32" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1607,15 +1603,15 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="4"/>
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1626,14 +1622,16 @@
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999">
       <c r="A34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>99</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1643,17 +1641,19 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="8" t="s">
-        <v>76</v>
+      <c r="A35" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1662,18 +1662,16 @@
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999">
       <c r="A36" s="15" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="C36" s="18"/>
       <c r="D36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1682,16 +1680,16 @@
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
       <c r="A37" s="15" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1699,15 +1697,15 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16" t="s">
-        <v>68</v>
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -1717,17 +1715,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
-      <c r="A39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="7"/>
+      <c r="A39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1736,14 +1734,16 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -6111,13 +6111,13 @@
   </sheetData>
   <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
-      <sortCondition descending="1" ref="C1:C390"/>
+      <sortCondition ref="A1:A390"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4365C2-EB55-42D4-8839-140154D429A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$390</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
   <si>
     <t>歌名</t>
   </si>
@@ -34,525 +31,522 @@
     <t>标签</t>
   </si>
   <si>
+    <t>备注（不显示,仅用作搜索）</t>
+  </si>
+  <si>
+    <t>Say So -Japanese Version</t>
+  </si>
+  <si>
+    <t>Rainych / tofubeats</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>Will save us</t>
+  </si>
+  <si>
+    <t>川津明日香</t>
+  </si>
+  <si>
+    <t>日语,特摄,《假面骑士》</t>
+  </si>
+  <si>
+    <t>ホーリーナイト（神圣夜晚）</t>
+  </si>
+  <si>
+    <t>釘宮理恵 / 喜多村英梨</t>
+  </si>
+  <si>
+    <t>日语,动画,《龙与虎》</t>
+  </si>
+  <si>
+    <t>阿拉斯加海湾</t>
+  </si>
+  <si>
+    <t>蓝心羽</t>
+  </si>
+  <si>
+    <t>国语，抒情</t>
+  </si>
+  <si>
+    <t>百变奶精</t>
+  </si>
+  <si>
+    <t>Hanser</t>
+  </si>
+  <si>
+    <t>国语，可爱</t>
+  </si>
+  <si>
+    <t>彼女は旅に出る</t>
+  </si>
+  <si>
+    <t>鎖那</t>
+  </si>
+  <si>
+    <t>不识月</t>
+  </si>
+  <si>
+    <t>赤羽</t>
+  </si>
+  <si>
+    <t>国语，术曲</t>
+  </si>
+  <si>
+    <t>处处傻</t>
+  </si>
+  <si>
+    <t>花玲</t>
+  </si>
+  <si>
+    <t>国语，游戏，崩坏3</t>
+  </si>
+  <si>
+    <t>错位时空</t>
+  </si>
+  <si>
+    <t>艾辰</t>
+  </si>
+  <si>
+    <t>国语,流行</t>
+  </si>
+  <si>
+    <t>大喜</t>
+  </si>
+  <si>
+    <t>泠鸢yousa</t>
+  </si>
+  <si>
+    <t>国语,古风</t>
+  </si>
+  <si>
+    <t>大鱼</t>
+  </si>
+  <si>
+    <t>周深</t>
+  </si>
+  <si>
+    <t>国语，动画，《大鱼海棠》</t>
+  </si>
+  <si>
+    <t>单向地铁</t>
+  </si>
+  <si>
+    <t>小野道ono</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1PY411u7sg</t>
+  </si>
+  <si>
     <t>国语</t>
   </si>
   <si>
+    <t>盗将行</t>
+  </si>
+  <si>
+    <t>花粥 / 马雨阳</t>
+  </si>
+  <si>
+    <t>国语，古风</t>
+  </si>
+  <si>
+    <t>告白</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1dL411p75E</t>
+  </si>
+  <si>
+    <t>勾指起誓</t>
+  </si>
+  <si>
+    <t>洛天依</t>
+  </si>
+  <si>
+    <t>好想爱这个世界啊</t>
+  </si>
+  <si>
+    <t>华晨宇</t>
+  </si>
+  <si>
+    <t>好字唯之</t>
+  </si>
+  <si>
+    <t>横竖撇点折</t>
+  </si>
+  <si>
+    <t>米白</t>
+  </si>
+  <si>
+    <t>焦糖星</t>
+  </si>
+  <si>
+    <t>warma</t>
+  </si>
+  <si>
+    <t>惊鹊</t>
+  </si>
+  <si>
+    <t>海伊 / 星尘Minus</t>
+  </si>
+  <si>
+    <t>可能否</t>
+  </si>
+  <si>
+    <t>木小雅</t>
+  </si>
+  <si>
+    <t>空山新雨后</t>
+  </si>
+  <si>
+    <t>音阙诗听 / 锦零</t>
+  </si>
+  <si>
+    <t>恋爱吧☆魔法少女</t>
+  </si>
+  <si>
+    <t>恋愛サーキュレーション（恋爱循环）</t>
+  </si>
+  <si>
+    <t>花泽香菜</t>
+  </si>
+  <si>
+    <t>日语,流行</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>陈雪凝</t>
+  </si>
+  <si>
+    <t>马步谣</t>
+  </si>
+  <si>
+    <t>祈Inory</t>
+  </si>
+  <si>
+    <t>梦的光点</t>
+  </si>
+  <si>
+    <t>王心凌</t>
+  </si>
+  <si>
+    <t>国语，动画，《神兵小将》</t>
+  </si>
+  <si>
+    <t>妙奇星球</t>
+  </si>
+  <si>
+    <t>你的酒馆对我打了烊</t>
+  </si>
+  <si>
+    <t>七里香</t>
+  </si>
+  <si>
+    <t>周杰伦</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV17r4y1u7KM</t>
+  </si>
+  <si>
+    <t>牵丝戏</t>
+  </si>
+  <si>
+    <t>银临 / Aki阿杰</t>
+  </si>
+  <si>
+    <t>前前前世</t>
+  </si>
+  <si>
+    <t>热爱105℃的你</t>
+  </si>
+  <si>
+    <t>阿肆</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV19B4y1N7Et</t>
+  </si>
+  <si>
+    <t>神的随波逐流</t>
+  </si>
+  <si>
+    <t>《神のまにまに》</t>
+  </si>
+  <si>
+    <t>时光盲盒</t>
+  </si>
+  <si>
+    <t>ChiliChill</t>
+  </si>
+  <si>
+    <t>世末歌者</t>
+  </si>
+  <si>
+    <t>乐正绫</t>
+  </si>
+  <si>
+    <t>霜雪千年</t>
+  </si>
+  <si>
+    <t>洛天依 / 乐正绫</t>
+  </si>
+  <si>
+    <t>国语，古风，术曲</t>
+  </si>
+  <si>
+    <t>她的梦</t>
+  </si>
+  <si>
+    <t>Sawako碎花</t>
+  </si>
+  <si>
+    <t>国语，游戏，战双帕弥什</t>
+  </si>
+  <si>
+    <t>庭園にて</t>
+  </si>
+  <si>
+    <t>acane_madder</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Kh411f7R7</t>
+  </si>
+  <si>
+    <t>兔子先生</t>
+  </si>
+  <si>
+    <t>国语，可爱，术曲</t>
+  </si>
+  <si>
+    <t>晚安喵</t>
+  </si>
+  <si>
+    <t>艾索</t>
+  </si>
+  <si>
+    <t>国语,可爱,喵喵喵,动画,《罗小黑战记》</t>
+  </si>
+  <si>
+    <t>温软宇宙</t>
+  </si>
+  <si>
+    <t>Crazy Bucket 陈楒潼 / 浮云心丶 / warma</t>
+  </si>
+  <si>
+    <t>我的悲伤是水做的</t>
+  </si>
+  <si>
+    <t>洛天依 / ChiliChill</t>
+  </si>
+  <si>
+    <t>我们的回忆还很长</t>
+  </si>
+  <si>
+    <t>Akie秋绘</t>
+  </si>
+  <si>
+    <t>下山</t>
+  </si>
+  <si>
+    <t>要不要买菜</t>
+  </si>
+  <si>
+    <t>下雨天</t>
+  </si>
+  <si>
+    <t>南拳妈妈</t>
+  </si>
+  <si>
     <t>国语,流行,抒情</t>
   </si>
   <si>
-    <t>ChiliChill</t>
-  </si>
-  <si>
-    <t>时光盲盒</t>
-  </si>
-  <si>
-    <t>国语,古风</t>
-  </si>
-  <si>
-    <t>国语,流行</t>
+    <t>想要你在身边</t>
+  </si>
+  <si>
+    <t>音阙诗听 / 王梓钰 / 锦零</t>
+  </si>
+  <si>
+    <t>国语，流行，抒情</t>
+  </si>
+  <si>
+    <t>心拍数♯0822</t>
+  </si>
+  <si>
+    <t>初音ミク</t>
+  </si>
+  <si>
+    <t>日语，温柔，术曲</t>
+  </si>
+  <si>
+    <t>心墙</t>
+  </si>
+  <si>
+    <t>郭静</t>
+  </si>
+  <si>
+    <t>夜の歌（夜之歌）</t>
+  </si>
+  <si>
+    <t>岩男潤子</t>
+  </si>
+  <si>
+    <t>日语,动画,《魔卡少女樱》</t>
+  </si>
+  <si>
+    <t>一个</t>
+  </si>
+  <si>
+    <t>陈壹千</t>
+  </si>
+  <si>
+    <t>阴天</t>
+  </si>
+  <si>
+    <t>莫文蔚</t>
+  </si>
+  <si>
+    <t>国语，流行</t>
+  </si>
+  <si>
+    <t>優しい彗星</t>
   </si>
   <si>
     <t>YOASOBI</t>
   </si>
   <si>
-    <t>错位时空</t>
-  </si>
-  <si>
-    <t>艾辰</t>
-  </si>
-  <si>
-    <t>晚安喵</t>
-  </si>
-  <si>
-    <t>艾索</t>
-  </si>
-  <si>
-    <t>初音ミク</t>
-  </si>
-  <si>
-    <t>阿肆</t>
+    <t>日语,动画,《BEASTARS》</t>
   </si>
   <si>
     <t>云烟成雨</t>
   </si>
   <si>
-    <t>郭静</t>
-  </si>
-  <si>
-    <t>心墙</t>
-  </si>
-  <si>
-    <t>花泽香菜</t>
-  </si>
-  <si>
-    <t>日语,流行</t>
-  </si>
-  <si>
-    <t>阿拉斯加海湾</t>
-  </si>
-  <si>
-    <t>蓝心羽</t>
-  </si>
-  <si>
-    <t>乐正绫</t>
-  </si>
-  <si>
-    <t>世末歌者</t>
-  </si>
-  <si>
-    <t>神的随波逐流</t>
-  </si>
-  <si>
-    <t>泠鸢yousa</t>
-  </si>
-  <si>
-    <t>《神のまにまに》</t>
-  </si>
-  <si>
-    <t>大喜</t>
-  </si>
-  <si>
-    <t>洛天依</t>
-  </si>
-  <si>
-    <t>勾指起誓</t>
-  </si>
-  <si>
-    <t>霜雪千年</t>
-  </si>
-  <si>
-    <t>我的悲伤是水做的</t>
-  </si>
-  <si>
-    <t>莫文蔚</t>
-  </si>
-  <si>
-    <t>下雨天</t>
-  </si>
-  <si>
-    <t>南拳妈妈</t>
-  </si>
-  <si>
-    <t>王心凌</t>
-  </si>
-  <si>
-    <t>告白</t>
+    <t>房东的猫</t>
+  </si>
+  <si>
+    <t>国语，动画，《我是江小白》</t>
   </si>
   <si>
     <t>枕边童话</t>
   </si>
   <si>
-    <t>大鱼</t>
-  </si>
-  <si>
-    <t>周深</t>
-  </si>
-  <si>
-    <t>单向地铁</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>小野道ono</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>国语</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>ホーリーナイト（神圣夜晚）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>泠鸢yousa</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>優しい彗星</t>
-  </si>
-  <si>
-    <t>日语,动画,《BEASTARS》</t>
-  </si>
-  <si>
-    <t>日语,动画,《龙与虎》</t>
-  </si>
-  <si>
-    <t>https://www.bilibili.com/video/BV1PY411u7sg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜の歌（夜之歌）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩男潤子</t>
-  </si>
-  <si>
-    <t>日语,动画,《魔卡少女樱》</t>
+    <t>小田音乐社 / 傲七爷</t>
   </si>
   <si>
     <t>纸短情长</t>
   </si>
   <si>
     <t>花粥</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will save us</t>
-  </si>
-  <si>
-    <t>川津明日香</t>
-  </si>
-  <si>
-    <t>备注（不显示,仅用作搜索）</t>
-  </si>
-  <si>
-    <t>日语,特摄,《假面骑士》</t>
-  </si>
-  <si>
-    <t>百变奶精</t>
-  </si>
-  <si>
-    <t>Hanser</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>国语，可爱</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>国语,可爱,喵喵喵,动画,《罗小黑战记》</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>牵丝戏</t>
-  </si>
-  <si>
-    <t>国语，古风</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>想要你在身边</t>
-  </si>
-  <si>
-    <t>国语，流行，抒情</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>国语，术曲</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋愛サーキュレーション（恋爱循环）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bilibili.com/video/BV1dL411p75E</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>好字唯之</t>
-  </si>
-  <si>
-    <t>横竖撇点折</t>
-  </si>
-  <si>
-    <t>米白</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>马步谣</t>
-  </si>
-  <si>
-    <t>祈Inory</t>
-  </si>
-  <si>
-    <t>前前前世</t>
-  </si>
-  <si>
-    <t>日语</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>追</t>
   </si>
   <si>
-    <t>陈壹千</t>
-  </si>
-  <si>
-    <t>国语，抒情</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>她的梦</t>
-  </si>
-  <si>
-    <t>Sawako碎花</t>
-  </si>
-  <si>
-    <t>国语，游戏，战双帕弥什</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊鹊</t>
-  </si>
-  <si>
-    <t>Say So -Japanese Version</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>好想爱这个世界啊</t>
-  </si>
-  <si>
-    <t>华晨宇</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>国语，动画，《大鱼海棠》</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>处处傻</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>花玲</t>
-  </si>
-  <si>
-    <t>国语，游戏，崩坏3</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能否</t>
-  </si>
-  <si>
-    <t>木小雅</t>
-  </si>
-  <si>
-    <t>妙奇星球</t>
-  </si>
-  <si>
-    <t>空山新雨后</t>
-  </si>
-  <si>
-    <t>音阙诗听 / 锦零</t>
-  </si>
-  <si>
-    <t>下山</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>要不要买菜</t>
-  </si>
-  <si>
-    <t>热爱105℃的你</t>
-  </si>
-  <si>
-    <t>https://www.bilibili.com/video/BV19B4y1N7Et</t>
-  </si>
-  <si>
-    <t>我们的回忆还很长</t>
-  </si>
-  <si>
-    <t>Akie秋绘</t>
-  </si>
-  <si>
-    <t>焦糖星</t>
-  </si>
-  <si>
-    <t>warma</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的酒馆对我打了烊</t>
-  </si>
-  <si>
-    <t>陈雪凝</t>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛天依 / 乐正绫</t>
-  </si>
-  <si>
-    <t>国语，古风，术曲</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴天</t>
-  </si>
-  <si>
-    <t>国语，流行</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗将行</t>
-  </si>
-  <si>
-    <t>花粥 / 马雨阳</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个</t>
-  </si>
-  <si>
-    <t>温软宇宙</t>
-  </si>
-  <si>
-    <t>Crazy Bucket 陈楒潼 / 浮云心丶 / warma</t>
-  </si>
-  <si>
-    <t>不识月</t>
-  </si>
-  <si>
-    <t>赤羽</t>
-  </si>
-  <si>
-    <t>恋爱吧☆魔法少女</t>
-  </si>
-  <si>
-    <t>国语，可爱，术曲</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>心拍数♯0822</t>
-  </si>
-  <si>
-    <t>庭園にて</t>
-  </si>
-  <si>
-    <t>acane_madder</t>
-  </si>
-  <si>
-    <t>https://www.bilibili.com/video/BV1Kh411f7R7</t>
-  </si>
-  <si>
-    <t>七里香</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>周杰伦</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bilibili.com/video/BV17r4y1u7KM</t>
-  </si>
-  <si>
-    <t>兔子先生</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛天依</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东的猫</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>国语，动画，《我是江小白》</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦的光点</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>国语，动画，《神兵小将》</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼女は旅に出る</t>
-  </si>
-  <si>
-    <t>鎖那</t>
-  </si>
-  <si>
-    <t>小田音乐社 / 傲七爷</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>海伊 / 星尘Minus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛天依 / ChiliChill</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rainych / tofubeats</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>音阙诗听 / 王梓钰 / 锦零</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>银临 / Aki阿杰</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>釘宮理恵 / 喜多村英梨</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>日语，温柔，术曲</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <t>非花</t>
+  </si>
+  <si>
+    <t>锦零</t>
+  </si>
+  <si>
+    <t>月无眠</t>
+  </si>
+  <si>
+    <t>酒禾</t>
+  </si>
+  <si>
+    <t>Upupu</t>
+  </si>
+  <si>
+    <t>皮皮爱习题</t>
+  </si>
+  <si>
+    <t>越权访问-崩坏：星穹铁道</t>
+  </si>
+  <si>
+    <t>国语，星穹铁道，游戏</t>
+  </si>
+  <si>
+    <t>Sentimental Crisis</t>
+  </si>
+  <si>
+    <t>凉城</t>
+  </si>
+  <si>
+    <t>任然</t>
+  </si>
+  <si>
+    <t>大吉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF494949"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF494949"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -560,49 +554,77 @@
       <sz val="12"/>
       <color rgb="FF175CEB"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF18191C"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF18191C"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
       <name val="-apple-system"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF18191C"/>
       <name val="-apple-system"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,26 +632,119 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF18191C"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,10 +752,193 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -648,89 +946,377 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -779,7 +1365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -814,7 +1400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -988,25 +1574,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
@@ -1016,21 +1598,21 @@
     <col min="6" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17.25" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1038,16 +1620,16 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999">
+    <row r="2" ht="17.25" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1056,16 +1638,16 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
+    <row r="3" ht="17.25" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1074,16 +1656,16 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="17.399999999999999">
+    <row r="4" ht="17.25" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1092,16 +1674,16 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="17.399999999999999">
+    <row r="5" ht="17.25" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
@@ -1110,16 +1692,16 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999">
+    <row r="6" ht="17.25" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1128,16 +1710,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="17.399999999999999">
+    <row r="7" ht="17.25" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1146,16 +1728,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="17.399999999999999">
+    <row r="8" ht="17.25" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1164,16 +1746,16 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="17.399999999999999">
+    <row r="9" ht="17.25" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1182,16 +1764,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16" t="s">
-        <v>9</v>
+    <row r="10" ht="17.25" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1200,16 +1782,16 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16" t="s">
-        <v>8</v>
+    <row r="11" ht="17.25" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1218,16 +1800,16 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
-        <v>88</v>
+    <row r="12" ht="17.25" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1236,18 +1818,18 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="17.399999999999999">
+    <row r="13" ht="17.25" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1256,16 +1838,16 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="17.399999999999999">
+    <row r="14" ht="17.25" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1274,18 +1856,18 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="A15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>46</v>
+    <row r="15" ht="17.25" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1294,16 +1876,16 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="17.399999999999999">
-      <c r="A16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16" t="s">
-        <v>68</v>
+    <row r="16" ht="17.25" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1312,16 +1894,16 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="17.399999999999999">
+    <row r="17" ht="17.25" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="4"/>
@@ -1330,16 +1912,16 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="17.399999999999999">
+    <row r="18" ht="17.25" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1348,16 +1930,16 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="17.399999999999999">
+    <row r="19" ht="17.25" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="4"/>
@@ -1366,16 +1948,16 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="17.399999999999999">
+    <row r="20" ht="17.25" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1384,16 +1966,16 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="8" t="s">
-        <v>84</v>
+    <row r="21" ht="17.25" spans="1:10">
+      <c r="A21" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
@@ -1402,16 +1984,16 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="17.399999999999999">
+    <row r="22" ht="17.25" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1420,16 +2002,16 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="17.399999999999999">
+    <row r="23" ht="17.25" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1438,16 +2020,16 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="17.399999999999999">
+    <row r="24" ht="17.25" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1456,16 +2038,16 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="17.399999999999999">
+    <row r="25" ht="17.25" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1474,16 +2056,16 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="8" t="s">
-        <v>107</v>
+    <row r="26" ht="17.25" spans="1:10">
+      <c r="A26" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="C26" s="14"/>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1492,16 +2074,16 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="17.399999999999999">
+    <row r="27" ht="17.25" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1510,16 +2092,16 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999">
+    <row r="28" ht="17.25" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1528,16 +2110,16 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="8" t="s">
-        <v>94</v>
+    <row r="29" ht="17.25" spans="1:10">
+      <c r="A29" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="4"/>
@@ -1546,16 +2128,16 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="17.399999999999999">
+    <row r="30" ht="17.25" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1564,18 +2146,18 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="17.399999999999999">
+    <row r="31" ht="17.25" spans="1:10">
       <c r="A31" s="5" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1584,16 +2166,16 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="17.399999999999999">
+    <row r="32" ht="17.25" spans="1:10">
       <c r="A32" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1602,16 +2184,16 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="10"/>
+    <row r="33" ht="17.25" spans="1:10">
+      <c r="A33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="14"/>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1620,18 +2202,18 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="17.399999999999999">
+    <row r="34" ht="17.25" spans="1:10">
       <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1640,19 +2222,19 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>28</v>
+    <row r="35" ht="17.25" spans="1:10">
+      <c r="A35" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1660,16 +2242,16 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="17.399999999999999">
-      <c r="A36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="16" t="s">
-        <v>4</v>
+    <row r="36" ht="17.25" spans="1:10">
+      <c r="A36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1678,16 +2260,16 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999">
-      <c r="A37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="16" t="s">
+    <row r="37" ht="17.25" spans="1:10">
+      <c r="A37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="4"/>
@@ -1696,16 +2278,16 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="17.399999999999999">
-      <c r="A38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>108</v>
+    <row r="38" ht="17.25" spans="1:10">
+      <c r="A38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="4"/>
@@ -1714,16 +2296,16 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="17.399999999999999">
+    <row r="39" ht="17.25" spans="1:10">
       <c r="A39" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1732,18 +2314,18 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="17.399999999999999">
+    <row r="40" ht="17.25" spans="1:10">
       <c r="A40" s="5" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1752,16 +2334,16 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="17.399999999999999">
+    <row r="41" ht="17.25" spans="1:10">
       <c r="A41" s="5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1770,16 +2352,16 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="17.399999999999999">
-      <c r="A42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="20" t="s">
-        <v>63</v>
+    <row r="42" ht="17.25" spans="1:10">
+      <c r="A42" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
@@ -1788,16 +2370,16 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" ht="17.399999999999999">
+    <row r="43" ht="17.25" spans="1:10">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1806,16 +2388,16 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" ht="17.399999999999999">
-      <c r="A44" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16" t="s">
-        <v>68</v>
+    <row r="44" ht="17.25" spans="1:10">
+      <c r="A44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1824,16 +2406,16 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="17.399999999999999">
+    <row r="45" ht="17.25" spans="1:10">
       <c r="A45" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1842,16 +2424,16 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999">
+    <row r="46" ht="17.25" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1860,16 +2442,16 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="17.399999999999999">
-      <c r="A47" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16" t="s">
-        <v>5</v>
+    <row r="47" ht="17.25" spans="1:10">
+      <c r="A47" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1878,16 +2460,16 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="17.399999999999999">
+    <row r="48" ht="17.25" spans="1:10">
       <c r="A48" s="5" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1896,16 +2478,16 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" ht="17.399999999999999">
-      <c r="A49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>15</v>
+    <row r="49" ht="17.25" spans="1:10">
+      <c r="A49" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1914,16 +2496,16 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" ht="17.399999999999999">
-      <c r="A50" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16" t="s">
-        <v>4</v>
+    <row r="50" ht="17.25" spans="1:10">
+      <c r="A50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1932,16 +2514,16 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" ht="17.399999999999999">
+    <row r="51" ht="17.25" spans="1:10">
       <c r="A51" s="5" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1950,16 +2532,16 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" ht="17.399999999999999">
+    <row r="52" ht="17.25" spans="1:10">
       <c r="A52" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1968,16 +2550,16 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="17.399999999999999">
+    <row r="53" ht="17.25" spans="1:10">
       <c r="A53" s="5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1986,16 +2568,16 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="17.399999999999999">
+    <row r="54" ht="17.25" spans="1:10">
       <c r="A54" s="5" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2004,16 +2586,16 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999">
+    <row r="55" ht="17.25" spans="1:10">
       <c r="A55" s="5" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2022,16 +2604,16 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="16" t="s">
+    <row r="56" ht="17.25" spans="1:10">
+      <c r="A56" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="16" t="s">
-        <v>9</v>
+      <c r="B56" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2040,16 +2622,16 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999">
+    <row r="57" ht="17.25" spans="1:10">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="6" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2058,16 +2640,16 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" ht="17.399999999999999">
+    <row r="58" ht="17.25" spans="1:10">
       <c r="A58" s="5" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="6" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2076,11 +2658,17 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" ht="17.399999999999999">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
+    <row r="59" ht="17.25" spans="1:10">
+      <c r="A59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -2088,11 +2676,17 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" ht="17.399999999999999">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
+    <row r="60" ht="17.25" spans="1:10">
+      <c r="A60" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -2100,11 +2694,17 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="17.399999999999999">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
+    <row r="61" ht="17.25" spans="1:10">
+      <c r="A61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2112,11 +2712,17 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" ht="17.399999999999999">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
+    <row r="62" ht="17.25" spans="1:10">
+      <c r="A62" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -2124,11 +2730,17 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="17.399999999999999">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
+    <row r="63" ht="17.25" spans="1:10">
+      <c r="A63" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2136,11 +2748,17 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" ht="17.399999999999999">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
+    <row r="64" ht="17.25" spans="1:10">
+      <c r="A64" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -2148,11 +2766,17 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" ht="17.399999999999999">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
+    <row r="65" ht="17.25" spans="1:10">
+      <c r="A65" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -2160,7 +2784,7 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" ht="17.399999999999999">
+    <row r="66" ht="17.25" spans="1:10">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
@@ -2172,7 +2796,7 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" ht="17.399999999999999">
+    <row r="67" ht="17.25" spans="1:10">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
@@ -2184,7 +2808,7 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" ht="17.399999999999999">
+    <row r="68" ht="17.25" spans="1:10">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
@@ -2196,7 +2820,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" ht="17.399999999999999">
+    <row r="69" ht="17.25" spans="1:10">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
@@ -2208,7 +2832,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" ht="17.399999999999999">
+    <row r="70" ht="17.25" spans="1:10">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
@@ -2220,7 +2844,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" ht="17.399999999999999">
+    <row r="71" ht="17.25" spans="1:10">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
@@ -2232,7 +2856,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" ht="17.399999999999999">
+    <row r="72" ht="17.25" spans="1:10">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
@@ -2244,7 +2868,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" ht="17.399999999999999">
+    <row r="73" ht="17.25" spans="1:10">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
@@ -2256,7 +2880,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" ht="17.399999999999999">
+    <row r="74" ht="17.25" spans="1:10">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
@@ -2268,7 +2892,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" ht="17.399999999999999">
+    <row r="75" ht="17.25" spans="1:10">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="4"/>
@@ -2280,9 +2904,9 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" ht="17.399999999999999">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
+    <row r="76" ht="17.25" spans="1:10">
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="7"/>
       <c r="D76" s="6"/>
       <c r="E76" s="4"/>
@@ -2292,7 +2916,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" ht="17.399999999999999">
+    <row r="77" ht="17.25" spans="1:10">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -2304,7 +2928,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" ht="17.399999999999999">
+    <row r="78" ht="17.25" spans="1:10">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
@@ -2316,7 +2940,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" ht="17.399999999999999">
+    <row r="79" ht="17.25" spans="1:10">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -2328,7 +2952,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" ht="17.399999999999999">
+    <row r="80" ht="17.25" spans="1:10">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -2340,7 +2964,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" ht="17.399999999999999">
+    <row r="81" ht="17.25" spans="1:10">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
@@ -2352,7 +2976,7 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" ht="17.399999999999999">
+    <row r="82" ht="17.25" spans="1:10">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
@@ -2364,9 +2988,9 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10" ht="17.399999999999999">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9"/>
+    <row r="83" ht="17.25" spans="1:10">
+      <c r="A83" s="13"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -2376,7 +3000,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" ht="17.399999999999999">
+    <row r="84" ht="17.25" spans="1:10">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
@@ -2388,7 +3012,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" ht="17.399999999999999">
+    <row r="85" ht="17.25" spans="1:10">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -2400,8 +3024,8 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" ht="17.399999999999999">
-      <c r="A86" s="8"/>
+    <row r="86" ht="17.25" spans="1:10">
+      <c r="A86" s="13"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2412,7 +3036,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" ht="17.399999999999999">
+    <row r="87" ht="17.25" spans="1:10">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
@@ -2424,11 +3048,11 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" ht="17.399999999999999">
+    <row r="88" ht="17.25" spans="1:10">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="11"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -2436,7 +3060,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="17.399999999999999">
+    <row r="89" ht="17.25" spans="1:10">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
@@ -2448,7 +3072,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" ht="17.399999999999999">
+    <row r="90" ht="17.25" spans="1:10">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
@@ -2460,7 +3084,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:10" ht="17.399999999999999">
+    <row r="91" ht="17.25" spans="1:10">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
@@ -2472,7 +3096,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:10" ht="17.399999999999999">
+    <row r="92" ht="17.25" spans="1:10">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
@@ -2484,7 +3108,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" ht="17.399999999999999">
+    <row r="93" ht="17.25" spans="1:10">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
@@ -2496,7 +3120,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:10" ht="17.399999999999999">
+    <row r="94" ht="17.25" spans="1:10">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -2508,9 +3132,9 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" ht="17.399999999999999">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9"/>
+    <row r="95" ht="17.25" spans="1:10">
+      <c r="A95" s="13"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="7"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -2520,7 +3144,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" ht="17.399999999999999">
+    <row r="96" ht="17.25" spans="1:10">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
@@ -2532,7 +3156,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" ht="17.399999999999999">
+    <row r="97" ht="17.25" spans="1:10">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
@@ -2544,7 +3168,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" ht="17.399999999999999">
+    <row r="98" ht="17.25" spans="1:10">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
@@ -2556,7 +3180,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" ht="17.399999999999999">
+    <row r="99" ht="17.25" spans="1:10">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
@@ -2568,7 +3192,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" ht="17.399999999999999">
+    <row r="100" ht="17.25" spans="1:10">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
@@ -2580,7 +3204,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="1:10" ht="17.399999999999999">
+    <row r="101" ht="17.25" spans="1:10">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
@@ -2592,7 +3216,7 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="1:10" ht="17.399999999999999">
+    <row r="102" ht="17.25" spans="1:10">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
@@ -2604,7 +3228,7 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" ht="17.399999999999999">
+    <row r="103" ht="17.25" spans="1:10">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
@@ -2616,7 +3240,7 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" ht="17.399999999999999">
+    <row r="104" ht="17.25" spans="1:10">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
@@ -2628,7 +3252,7 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" ht="17.399999999999999">
+    <row r="105" ht="17.25" spans="1:10">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
@@ -2640,7 +3264,7 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:10" ht="17.399999999999999">
+    <row r="106" ht="17.25" spans="1:10">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -2652,7 +3276,7 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" ht="17.399999999999999">
+    <row r="107" ht="17.25" spans="1:10">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
@@ -2664,7 +3288,7 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" ht="17.399999999999999">
+    <row r="108" ht="17.25" spans="1:10">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
@@ -2676,7 +3300,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="1:10" ht="17.399999999999999">
+    <row r="109" ht="17.25" spans="1:10">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
@@ -2688,7 +3312,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" ht="17.399999999999999">
+    <row r="110" ht="17.25" spans="1:10">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
@@ -2700,7 +3324,7 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" ht="17.399999999999999">
+    <row r="111" ht="17.25" spans="1:10">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4"/>
@@ -2712,7 +3336,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" ht="17.399999999999999">
+    <row r="112" ht="17.25" spans="1:10">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
@@ -2724,11 +3348,11 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" ht="17.399999999999999">
+    <row r="113" ht="17.25" spans="1:10">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="11"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -2736,10 +3360,10 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" ht="18.600000000000001">
+    <row r="114" ht="18.75" spans="1:10">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="12"/>
+      <c r="C114" s="21"/>
       <c r="D114" s="6"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -2748,7 +3372,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" ht="17.399999999999999">
+    <row r="115" ht="17.25" spans="1:10">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
@@ -2760,9 +3384,9 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" ht="17.399999999999999">
-      <c r="A116" s="8"/>
-      <c r="B116" s="9"/>
+    <row r="116" ht="17.25" spans="1:10">
+      <c r="A116" s="13"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="7"/>
       <c r="D116" s="6"/>
       <c r="E116" s="4"/>
@@ -2772,7 +3396,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" ht="17.399999999999999">
+    <row r="117" ht="17.25" spans="1:10">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -2784,7 +3408,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" ht="17.399999999999999">
+    <row r="118" ht="17.25" spans="1:10">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
@@ -2796,7 +3420,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" ht="17.399999999999999">
+    <row r="119" ht="17.25" spans="1:10">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
@@ -2808,7 +3432,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" ht="17.399999999999999">
+    <row r="120" ht="17.25" spans="1:10">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
@@ -2820,7 +3444,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" ht="17.399999999999999">
+    <row r="121" ht="17.25" spans="1:10">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
@@ -2832,7 +3456,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="1:10" ht="17.399999999999999">
+    <row r="122" ht="17.25" spans="1:10">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
@@ -2844,7 +3468,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" ht="17.399999999999999">
+    <row r="123" ht="17.25" spans="1:10">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
@@ -2856,7 +3480,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" ht="17.399999999999999">
+    <row r="124" ht="17.25" spans="1:10">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4"/>
@@ -2868,7 +3492,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" ht="17.399999999999999">
+    <row r="125" ht="17.25" spans="1:10">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4"/>
@@ -2880,7 +3504,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" ht="17.399999999999999">
+    <row r="126" ht="17.25" spans="1:10">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4"/>
@@ -2892,7 +3516,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="1:10" ht="17.399999999999999">
+    <row r="127" ht="17.25" spans="1:10">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="4"/>
@@ -2904,7 +3528,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" ht="17.399999999999999">
+    <row r="128" ht="17.25" spans="1:10">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="4"/>
@@ -2916,7 +3540,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="1:10" ht="17.399999999999999">
+    <row r="129" ht="17.25" spans="1:10">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -2928,7 +3552,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" ht="17.399999999999999">
+    <row r="130" ht="17.25" spans="1:10">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="4"/>
@@ -2940,7 +3564,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" ht="17.399999999999999">
+    <row r="131" ht="17.25" spans="1:10">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="4"/>
@@ -2952,7 +3576,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" ht="17.399999999999999">
+    <row r="132" ht="17.25" spans="1:10">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4"/>
@@ -2964,7 +3588,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" ht="17.399999999999999">
+    <row r="133" ht="17.25" spans="1:10">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4"/>
@@ -2976,7 +3600,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" ht="17.399999999999999">
+    <row r="134" ht="17.25" spans="1:10">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
@@ -2988,7 +3612,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" ht="17.399999999999999">
+    <row r="135" ht="17.25" spans="1:10">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -3000,9 +3624,9 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" ht="17.399999999999999">
-      <c r="A136" s="8"/>
-      <c r="B136" s="9"/>
+    <row r="136" ht="17.25" spans="1:10">
+      <c r="A136" s="13"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
       <c r="E136" s="4"/>
@@ -3012,8 +3636,8 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" ht="17.399999999999999">
-      <c r="A137" s="8"/>
+    <row r="137" ht="17.25" spans="1:10">
+      <c r="A137" s="13"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="6"/>
@@ -3024,7 +3648,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" ht="17.399999999999999">
+    <row r="138" ht="17.25" spans="1:10">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="4"/>
@@ -3036,7 +3660,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" ht="17.399999999999999">
+    <row r="139" ht="17.25" spans="1:10">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="4"/>
@@ -3048,7 +3672,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" ht="17.399999999999999">
+    <row r="140" ht="17.25" spans="1:10">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="4"/>
@@ -3060,10 +3684,10 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" ht="17.399999999999999">
-      <c r="A141" s="8"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="10"/>
+    <row r="141" ht="17.25" spans="1:10">
+      <c r="A141" s="13"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="14"/>
       <c r="D141" s="6"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -3072,8 +3696,8 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" ht="17.399999999999999">
-      <c r="A142" s="8"/>
+    <row r="142" ht="17.25" spans="1:10">
+      <c r="A142" s="13"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
@@ -3084,11 +3708,11 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" ht="17.399999999999999">
+    <row r="143" ht="17.25" spans="1:10">
       <c r="A143" s="5"/>
-      <c r="B143" s="3"/>
+      <c r="B143" s="2"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -3096,7 +3720,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" ht="17.399999999999999">
+    <row r="144" ht="17.25" spans="1:10">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="4"/>
@@ -3108,7 +3732,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="1:10" ht="17.399999999999999">
+    <row r="145" ht="17.25" spans="1:10">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4"/>
@@ -3120,7 +3744,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="1:10" ht="17.399999999999999">
+    <row r="146" ht="17.25" spans="1:10">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4"/>
@@ -3132,7 +3756,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10" ht="17.399999999999999">
+    <row r="147" ht="17.25" spans="1:10">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4"/>
@@ -3144,9 +3768,9 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10" ht="17.399999999999999">
+    <row r="148" ht="17.25" spans="1:10">
       <c r="A148" s="5"/>
-      <c r="B148" s="13"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="4"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -3156,7 +3780,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" ht="17.399999999999999">
+    <row r="149" ht="17.25" spans="1:10">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4"/>
@@ -3168,8 +3792,8 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="1:10" ht="17.399999999999999">
-      <c r="A150" s="8"/>
+    <row r="150" ht="17.25" spans="1:10">
+      <c r="A150" s="13"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
       <c r="D150" s="6"/>
@@ -3180,7 +3804,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="1:10" ht="17.399999999999999">
+    <row r="151" ht="17.25" spans="1:10">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
@@ -3192,7 +3816,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" ht="17.399999999999999">
+    <row r="152" ht="17.25" spans="1:10">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="4"/>
@@ -3204,7 +3828,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="1:10" ht="17.399999999999999">
+    <row r="153" ht="17.25" spans="1:10">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="4"/>
@@ -3216,7 +3840,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="1:10" ht="17.399999999999999">
+    <row r="154" ht="17.25" spans="1:10">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4"/>
@@ -3228,7 +3852,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10" ht="17.399999999999999">
+    <row r="155" ht="17.25" spans="1:10">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
@@ -3240,7 +3864,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="1:10" ht="17.399999999999999">
+    <row r="156" ht="17.25" spans="1:10">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
@@ -3252,7 +3876,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="1:10" ht="17.399999999999999">
+    <row r="157" ht="17.25" spans="1:10">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
@@ -3264,7 +3888,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="1:10" ht="17.399999999999999">
+    <row r="158" ht="17.25" spans="1:10">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
@@ -3276,7 +3900,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="1:10" ht="17.399999999999999">
+    <row r="159" ht="17.25" spans="1:10">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
@@ -3288,7 +3912,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" ht="17.399999999999999">
+    <row r="160" ht="17.25" spans="1:10">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
@@ -3300,7 +3924,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" ht="17.399999999999999">
+    <row r="161" ht="17.25" spans="1:10">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
@@ -3312,7 +3936,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" ht="17.399999999999999">
+    <row r="162" ht="17.25" spans="1:10">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
@@ -3324,7 +3948,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" ht="17.399999999999999">
+    <row r="163" ht="17.25" spans="1:10">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
@@ -3336,7 +3960,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" ht="17.399999999999999">
+    <row r="164" ht="17.25" spans="1:10">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
@@ -3348,7 +3972,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" ht="17.399999999999999">
+    <row r="165" ht="17.25" spans="1:10">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
@@ -3360,7 +3984,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" ht="17.399999999999999">
+    <row r="166" ht="17.25" spans="1:10">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
@@ -3372,7 +3996,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" ht="17.399999999999999">
+    <row r="167" ht="17.25" spans="1:10">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
@@ -3384,7 +4008,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" ht="17.399999999999999">
+    <row r="168" ht="17.25" spans="1:10">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
@@ -3396,7 +4020,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" ht="17.399999999999999">
+    <row r="169" ht="17.25" spans="1:10">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
@@ -3408,7 +4032,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" ht="17.399999999999999">
+    <row r="170" ht="17.25" spans="1:10">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
@@ -3420,7 +4044,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" ht="17.399999999999999">
+    <row r="171" ht="17.25" spans="1:10">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
@@ -3432,7 +4056,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" ht="17.399999999999999">
+    <row r="172" ht="17.25" spans="1:10">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
@@ -3444,7 +4068,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" ht="17.399999999999999">
+    <row r="173" ht="17.25" spans="1:10">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
@@ -3456,9 +4080,9 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" ht="17.399999999999999">
-      <c r="A174" s="8"/>
-      <c r="B174" s="9"/>
+    <row r="174" ht="17.25" spans="1:10">
+      <c r="A174" s="13"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="7"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
@@ -3468,7 +4092,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" ht="17.399999999999999">
+    <row r="175" ht="17.25" spans="1:10">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
@@ -3480,7 +4104,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" ht="17.399999999999999">
+    <row r="176" ht="17.25" spans="1:10">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -3492,7 +4116,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" ht="17.399999999999999">
+    <row r="177" ht="17.25" spans="1:10">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -3504,7 +4128,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="1:10" ht="17.399999999999999">
+    <row r="178" ht="17.25" spans="1:10">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
@@ -3516,7 +4140,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="1:10" ht="17.399999999999999">
+    <row r="179" ht="17.25" spans="1:10">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
@@ -3528,7 +4152,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="1:10" ht="17.399999999999999">
+    <row r="180" ht="17.25" spans="1:10">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -3540,7 +4164,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="1:10" ht="17.399999999999999">
+    <row r="181" ht="17.25" spans="1:10">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
@@ -3552,11 +4176,11 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="1:10" ht="17.399999999999999">
+    <row r="182" ht="17.25" spans="1:10">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="11"/>
+      <c r="D182" s="20"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
@@ -3564,7 +4188,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="1:10" ht="17.399999999999999">
+    <row r="183" ht="17.25" spans="1:10">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
@@ -3576,7 +4200,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="1:10" ht="17.399999999999999">
+    <row r="184" ht="17.25" spans="1:10">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -3588,7 +4212,7 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="1:10" ht="17.399999999999999">
+    <row r="185" ht="17.25" spans="1:10">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -3600,7 +4224,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" spans="1:10" ht="17.399999999999999">
+    <row r="186" ht="17.25" spans="1:10">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -3612,8 +4236,8 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" spans="1:10" ht="17.399999999999999">
-      <c r="A187" s="8"/>
+    <row r="187" ht="17.25" spans="1:10">
+      <c r="A187" s="13"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4"/>
       <c r="D187" s="6"/>
@@ -3624,7 +4248,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" spans="1:10" ht="17.399999999999999">
+    <row r="188" ht="17.25" spans="1:10">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4"/>
@@ -3636,7 +4260,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" spans="1:10" ht="17.399999999999999">
+    <row r="189" ht="17.25" spans="1:10">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4"/>
@@ -3648,7 +4272,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" spans="1:10" ht="17.399999999999999">
+    <row r="190" ht="17.25" spans="1:10">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="4"/>
@@ -3660,7 +4284,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" spans="1:10" ht="17.399999999999999">
+    <row r="191" ht="17.25" spans="1:10">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="4"/>
@@ -3672,7 +4296,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="1:10" ht="17.399999999999999">
+    <row r="192" ht="17.25" spans="1:10">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4"/>
@@ -3684,7 +4308,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="1:10" ht="17.399999999999999">
+    <row r="193" ht="17.25" spans="1:10">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4"/>
@@ -3696,7 +4320,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" spans="1:10" ht="17.399999999999999">
+    <row r="194" ht="17.25" spans="1:10">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4"/>
@@ -3708,7 +4332,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" spans="1:10" ht="17.399999999999999">
+    <row r="195" ht="17.25" spans="1:10">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4"/>
@@ -3720,7 +4344,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="1:10" ht="17.399999999999999">
+    <row r="196" ht="17.25" spans="1:10">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -3732,7 +4356,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="1:10" ht="17.399999999999999">
+    <row r="197" ht="17.25" spans="1:10">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4"/>
@@ -3744,7 +4368,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="1:10" ht="17.399999999999999">
+    <row r="198" ht="17.25" spans="1:10">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="4"/>
@@ -3756,7 +4380,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="1:10" ht="17.399999999999999">
+    <row r="199" ht="17.25" spans="1:10">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="4"/>
@@ -3768,9 +4392,9 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="1:10" ht="17.399999999999999">
-      <c r="A200" s="8"/>
-      <c r="B200" s="9"/>
+    <row r="200" ht="17.25" spans="1:10">
+      <c r="A200" s="13"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="7"/>
       <c r="D200" s="6"/>
       <c r="E200" s="4"/>
@@ -3780,7 +4404,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="1:10" ht="17.399999999999999">
+    <row r="201" ht="17.25" spans="1:10">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="4"/>
@@ -3792,9 +4416,9 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" spans="1:10" ht="17.399999999999999">
-      <c r="A202" s="8"/>
-      <c r="B202" s="9"/>
+    <row r="202" ht="17.25" spans="1:10">
+      <c r="A202" s="13"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="7"/>
       <c r="D202" s="6"/>
       <c r="E202" s="4"/>
@@ -3804,7 +4428,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" spans="1:10" ht="17.399999999999999">
+    <row r="203" ht="17.25" spans="1:10">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4"/>
@@ -3816,7 +4440,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="1:10" ht="17.399999999999999">
+    <row r="204" ht="17.25" spans="1:10">
       <c r="A204" s="5"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4"/>
@@ -3828,7 +4452,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="1:10" ht="17.399999999999999">
+    <row r="205" ht="17.25" spans="1:10">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4"/>
@@ -3840,7 +4464,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="1:10" ht="17.399999999999999">
+    <row r="206" ht="17.25" spans="1:10">
       <c r="A206" s="5"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
@@ -3852,19 +4476,19 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="1:10" ht="17.399999999999999">
+    <row r="207" ht="17.25" spans="1:10">
       <c r="A207" s="5"/>
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="7"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="1"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="3"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="1:10" ht="17.399999999999999">
+    <row r="208" ht="17.25" spans="1:10">
       <c r="A208" s="5"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4"/>
@@ -3876,7 +4500,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="1:10" ht="17.399999999999999">
+    <row r="209" ht="17.25" spans="1:10">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4"/>
@@ -3888,9 +4512,9 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" spans="1:10" ht="17.399999999999999">
+    <row r="210" ht="17.25" spans="1:10">
       <c r="A210" s="5"/>
-      <c r="B210" s="13"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="7"/>
       <c r="D210" s="6"/>
       <c r="E210" s="4"/>
@@ -3900,7 +4524,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" spans="1:10" ht="17.399999999999999">
+    <row r="211" ht="17.25" spans="1:10">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
       <c r="C211" s="4"/>
@@ -3912,7 +4536,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="1:10" ht="17.399999999999999">
+    <row r="212" ht="17.25" spans="1:10">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
       <c r="C212" s="4"/>
@@ -3924,9 +4548,9 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="1:10" ht="17.399999999999999">
-      <c r="A213" s="8"/>
-      <c r="B213" s="14"/>
+    <row r="213" ht="17.25" spans="1:10">
+      <c r="A213" s="13"/>
+      <c r="B213" s="23"/>
       <c r="C213" s="7"/>
       <c r="D213" s="6"/>
       <c r="E213" s="4"/>
@@ -3936,7 +4560,7 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="1:10" ht="17.399999999999999">
+    <row r="214" ht="17.25" spans="1:10">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="4"/>
@@ -3948,9 +4572,9 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="1:10" ht="17.399999999999999">
-      <c r="A215" s="8"/>
-      <c r="B215" s="9"/>
+    <row r="215" ht="17.25" spans="1:10">
+      <c r="A215" s="13"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="7"/>
       <c r="D215" s="6"/>
       <c r="E215" s="4"/>
@@ -3960,7 +4584,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="1:10" ht="17.399999999999999">
+    <row r="216" ht="17.25" spans="1:10">
       <c r="A216" s="5"/>
       <c r="B216" s="6"/>
       <c r="C216" s="4"/>
@@ -3972,7 +4596,7 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" spans="1:10" ht="17.399999999999999">
+    <row r="217" ht="17.25" spans="1:10">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
       <c r="C217" s="4"/>
@@ -3984,7 +4608,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" spans="1:10" ht="17.399999999999999">
+    <row r="218" ht="17.25" spans="1:10">
       <c r="A218" s="5"/>
       <c r="B218" s="6"/>
       <c r="C218" s="4"/>
@@ -3996,7 +4620,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" spans="1:10" ht="17.399999999999999">
+    <row r="219" ht="17.25" spans="1:10">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
@@ -4008,7 +4632,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="1:10" ht="17.399999999999999">
+    <row r="220" ht="17.25" spans="1:10">
       <c r="A220" s="5"/>
       <c r="B220" s="6"/>
       <c r="C220" s="4"/>
@@ -4020,7 +4644,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="1:10" ht="17.399999999999999">
+    <row r="221" ht="17.25" spans="1:10">
       <c r="A221" s="5"/>
       <c r="B221" s="6"/>
       <c r="C221" s="4"/>
@@ -4032,7 +4656,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="1:10" ht="17.399999999999999">
+    <row r="222" ht="17.25" spans="1:10">
       <c r="A222" s="5"/>
       <c r="B222" s="6"/>
       <c r="C222" s="4"/>
@@ -4044,7 +4668,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="1:10" ht="17.399999999999999">
+    <row r="223" ht="17.25" spans="1:10">
       <c r="A223" s="5"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
@@ -4056,7 +4680,7 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="1:10" ht="17.399999999999999">
+    <row r="224" ht="17.25" spans="1:10">
       <c r="A224" s="5"/>
       <c r="B224" s="6"/>
       <c r="C224" s="4"/>
@@ -4068,9 +4692,9 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" spans="1:10" ht="17.399999999999999">
-      <c r="A225" s="8"/>
-      <c r="B225" s="9"/>
+    <row r="225" ht="17.25" spans="1:10">
+      <c r="A225" s="13"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="7"/>
       <c r="D225" s="6"/>
       <c r="E225" s="4"/>
@@ -4080,7 +4704,7 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" spans="1:10" ht="17.399999999999999">
+    <row r="226" ht="17.25" spans="1:10">
       <c r="A226" s="5"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
@@ -4092,7 +4716,7 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" spans="1:10" ht="17.399999999999999">
+    <row r="227" ht="17.25" spans="1:10">
       <c r="A227" s="5"/>
       <c r="B227" s="6"/>
       <c r="C227" s="4"/>
@@ -4104,7 +4728,7 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" spans="1:10" ht="17.399999999999999">
+    <row r="228" ht="17.25" spans="1:10">
       <c r="A228" s="5"/>
       <c r="B228" s="6"/>
       <c r="C228" s="4"/>
@@ -4116,7 +4740,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" spans="1:10" ht="17.399999999999999">
+    <row r="229" ht="17.25" spans="1:10">
       <c r="A229" s="5"/>
       <c r="B229" s="6"/>
       <c r="C229" s="4"/>
@@ -4128,7 +4752,7 @@
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" spans="1:10" ht="17.399999999999999">
+    <row r="230" ht="17.25" spans="1:10">
       <c r="A230" s="5"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
@@ -4140,7 +4764,7 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" spans="1:10" ht="17.399999999999999">
+    <row r="231" ht="17.25" spans="1:10">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -4152,7 +4776,7 @@
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="1:10" ht="17.399999999999999">
+    <row r="232" ht="17.25" spans="1:10">
       <c r="A232" s="5"/>
       <c r="B232" s="6"/>
       <c r="C232" s="4"/>
@@ -4164,7 +4788,7 @@
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" spans="1:10" ht="17.399999999999999">
+    <row r="233" ht="17.25" spans="1:10">
       <c r="A233" s="5"/>
       <c r="B233" s="6"/>
       <c r="C233" s="4"/>
@@ -4176,7 +4800,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" spans="1:10" ht="17.399999999999999">
+    <row r="234" ht="17.25" spans="1:10">
       <c r="A234" s="5"/>
       <c r="B234" s="6"/>
       <c r="C234" s="4"/>
@@ -4188,7 +4812,7 @@
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" spans="1:10" ht="17.399999999999999">
+    <row r="235" ht="17.25" spans="1:10">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
@@ -4200,7 +4824,7 @@
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="1:10" ht="17.399999999999999">
+    <row r="236" ht="17.25" spans="1:10">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="4"/>
@@ -4212,7 +4836,7 @@
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="1:10" ht="17.399999999999999">
+    <row r="237" ht="17.25" spans="1:10">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="4"/>
@@ -4224,7 +4848,7 @@
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="1:10" ht="17.399999999999999">
+    <row r="238" ht="17.25" spans="1:10">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="4"/>
@@ -4236,7 +4860,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="1:10" ht="17.399999999999999">
+    <row r="239" ht="17.25" spans="1:10">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="4"/>
@@ -4248,7 +4872,7 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="1:10" ht="17.399999999999999">
+    <row r="240" ht="17.25" spans="1:10">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="4"/>
@@ -4260,7 +4884,7 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" spans="1:10" ht="17.399999999999999">
+    <row r="241" ht="17.25" spans="1:10">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="4"/>
@@ -4272,7 +4896,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" spans="1:10" ht="17.399999999999999">
+    <row r="242" ht="17.25" spans="1:10">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="4"/>
@@ -4284,7 +4908,7 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" spans="1:10" ht="17.399999999999999">
+    <row r="243" ht="17.25" spans="1:10">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="4"/>
@@ -4296,9 +4920,9 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" spans="1:10" ht="17.399999999999999">
-      <c r="A244" s="8"/>
-      <c r="B244" s="9"/>
+    <row r="244" ht="17.25" spans="1:10">
+      <c r="A244" s="13"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="7"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
@@ -4308,7 +4932,7 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" spans="1:10" ht="17.399999999999999">
+    <row r="245" ht="17.25" spans="1:10">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="4"/>
@@ -4320,19 +4944,19 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" spans="1:10" ht="17.399999999999999">
-      <c r="A246" s="2"/>
-      <c r="B246" s="1"/>
+    <row r="246" ht="17.25" spans="1:10">
+      <c r="A246" s="1"/>
+      <c r="B246" s="3"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" spans="1:10" ht="17.399999999999999">
+    <row r="247" ht="17.25" spans="1:10">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="4"/>
@@ -4344,7 +4968,7 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" spans="1:10" ht="17.399999999999999">
+    <row r="248" ht="17.25" spans="1:10">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="4"/>
@@ -4356,7 +4980,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" spans="1:10" ht="17.399999999999999">
+    <row r="249" ht="17.25" spans="1:10">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="4"/>
@@ -4368,7 +4992,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" spans="1:10" ht="17.399999999999999">
+    <row r="250" ht="17.25" spans="1:10">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="4"/>
@@ -4380,7 +5004,7 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" spans="1:10" ht="17.399999999999999">
+    <row r="251" ht="17.25" spans="1:10">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="4"/>
@@ -4392,7 +5016,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" spans="1:10" ht="17.399999999999999">
+    <row r="252" ht="17.25" spans="1:10">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="4"/>
@@ -4404,7 +5028,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" spans="1:10" ht="17.399999999999999">
+    <row r="253" ht="17.25" spans="1:10">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
@@ -4416,7 +5040,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" spans="1:10" ht="17.399999999999999">
+    <row r="254" ht="17.25" spans="1:10">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="4"/>
@@ -4428,7 +5052,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" spans="1:10" ht="17.399999999999999">
+    <row r="255" ht="17.25" spans="1:10">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="4"/>
@@ -4440,7 +5064,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" spans="1:10" ht="17.399999999999999">
+    <row r="256" ht="17.25" spans="1:10">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="4"/>
@@ -4452,7 +5076,7 @@
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" spans="1:10" ht="17.399999999999999">
+    <row r="257" ht="17.25" spans="1:10">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
@@ -4464,7 +5088,7 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" spans="1:10" ht="17.399999999999999">
+    <row r="258" ht="17.25" spans="1:10">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="4"/>
@@ -4476,7 +5100,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" spans="1:10" ht="17.399999999999999">
+    <row r="259" ht="17.25" spans="1:10">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="4"/>
@@ -4488,7 +5112,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" spans="1:10" ht="17.399999999999999">
+    <row r="260" ht="17.25" spans="1:10">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="4"/>
@@ -4500,7 +5124,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" spans="1:10" ht="17.399999999999999">
+    <row r="261" ht="17.25" spans="1:10">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="4"/>
@@ -4512,7 +5136,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" spans="1:10" ht="17.399999999999999">
+    <row r="262" ht="17.25" spans="1:10">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="4"/>
@@ -4524,7 +5148,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" spans="1:10" ht="17.399999999999999">
+    <row r="263" ht="17.25" spans="1:10">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="4"/>
@@ -4536,7 +5160,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" spans="1:10" ht="17.399999999999999">
+    <row r="264" ht="17.25" spans="1:10">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="4"/>
@@ -4548,7 +5172,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" spans="1:10" ht="17.399999999999999">
+    <row r="265" ht="17.25" spans="1:10">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="4"/>
@@ -4560,7 +5184,7 @@
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266" spans="1:10" ht="17.399999999999999">
+    <row r="266" ht="17.25" spans="1:10">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
@@ -4572,7 +5196,7 @@
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267" spans="1:10" ht="17.399999999999999">
+    <row r="267" ht="17.25" spans="1:10">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="4"/>
@@ -4584,7 +5208,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268" spans="1:10" ht="17.399999999999999">
+    <row r="268" ht="17.25" spans="1:10">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="4"/>
@@ -4596,7 +5220,7 @@
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269" spans="1:10" ht="17.399999999999999">
+    <row r="269" ht="17.25" spans="1:10">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="4"/>
@@ -4608,7 +5232,7 @@
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270" spans="1:10" ht="17.399999999999999">
+    <row r="270" ht="17.25" spans="1:10">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="4"/>
@@ -4620,11 +5244,11 @@
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271" spans="1:10" ht="17.399999999999999">
+    <row r="271" ht="17.25" spans="1:10">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="11"/>
+      <c r="D271" s="20"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -4632,8 +5256,8 @@
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272" spans="1:10" ht="17.399999999999999">
-      <c r="A272" s="8"/>
+    <row r="272" ht="17.25" spans="1:10">
+      <c r="A272" s="13"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
       <c r="D272" s="4"/>
@@ -4644,7 +5268,7 @@
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273" spans="1:10" ht="17.399999999999999">
+    <row r="273" ht="17.25" spans="1:10">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="4"/>
@@ -4656,7 +5280,7 @@
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274" spans="1:10" ht="17.399999999999999">
+    <row r="274" ht="17.25" spans="1:10">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="4"/>
@@ -4668,7 +5292,7 @@
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275" spans="1:10" ht="17.399999999999999">
+    <row r="275" ht="17.25" spans="1:10">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="4"/>
@@ -4680,7 +5304,7 @@
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
     </row>
-    <row r="276" spans="1:10" ht="17.399999999999999">
+    <row r="276" ht="17.25" spans="1:10">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="4"/>
@@ -4692,7 +5316,7 @@
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" spans="1:10" ht="17.399999999999999">
+    <row r="277" ht="17.25" spans="1:10">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="4"/>
@@ -4704,7 +5328,7 @@
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278" spans="1:10" ht="17.399999999999999">
+    <row r="278" ht="17.25" spans="1:10">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="4"/>
@@ -4716,7 +5340,7 @@
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" spans="1:10" ht="17.399999999999999">
+    <row r="279" ht="17.25" spans="1:10">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="4"/>
@@ -4728,7 +5352,7 @@
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280" spans="1:10" ht="17.399999999999999">
+    <row r="280" ht="17.25" spans="1:10">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="4"/>
@@ -4740,7 +5364,7 @@
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281" spans="1:10" ht="17.399999999999999">
+    <row r="281" ht="17.25" spans="1:10">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="4"/>
@@ -4752,7 +5376,7 @@
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282" spans="1:10" ht="17.399999999999999">
+    <row r="282" ht="17.25" spans="1:10">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="4"/>
@@ -4764,7 +5388,7 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283" spans="1:10" ht="17.399999999999999">
+    <row r="283" ht="17.25" spans="1:10">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="4"/>
@@ -4776,7 +5400,7 @@
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" spans="1:10" ht="17.399999999999999">
+    <row r="284" ht="17.25" spans="1:10">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="4"/>
@@ -4788,8 +5412,8 @@
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" spans="1:10" ht="17.399999999999999">
-      <c r="A285" s="8"/>
+    <row r="285" ht="17.25" spans="1:10">
+      <c r="A285" s="13"/>
       <c r="B285" s="6"/>
       <c r="C285" s="4"/>
       <c r="D285" s="6"/>
@@ -4800,7 +5424,7 @@
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" spans="1:10" ht="17.399999999999999">
+    <row r="286" ht="17.25" spans="1:10">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="4"/>
@@ -4812,7 +5436,7 @@
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" spans="1:10" ht="17.399999999999999">
+    <row r="287" ht="17.25" spans="1:10">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="4"/>
@@ -4824,7 +5448,7 @@
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" spans="1:10" ht="17.399999999999999">
+    <row r="288" ht="17.25" spans="1:10">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="4"/>
@@ -4836,7 +5460,7 @@
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" spans="1:10" ht="17.399999999999999">
+    <row r="289" ht="17.25" spans="1:10">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="4"/>
@@ -4848,7 +5472,7 @@
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" spans="1:10" ht="17.399999999999999">
+    <row r="290" ht="17.25" spans="1:10">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="4"/>
@@ -4860,7 +5484,7 @@
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291" spans="1:10" ht="17.399999999999999">
+    <row r="291" ht="17.25" spans="1:10">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="4"/>
@@ -4872,7 +5496,7 @@
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" spans="1:10" ht="17.399999999999999">
+    <row r="292" ht="17.25" spans="1:10">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="4"/>
@@ -4884,7 +5508,7 @@
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" spans="1:10" ht="17.399999999999999">
+    <row r="293" ht="17.25" spans="1:10">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="4"/>
@@ -4896,8 +5520,8 @@
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" ht="17.399999999999999">
-      <c r="A294" s="8"/>
+    <row r="294" ht="17.25" spans="1:10">
+      <c r="A294" s="13"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
       <c r="D294" s="6"/>
@@ -4908,7 +5532,7 @@
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" ht="17.399999999999999">
+    <row r="295" ht="17.25" spans="1:10">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="4"/>
@@ -4920,7 +5544,7 @@
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" ht="17.399999999999999">
+    <row r="296" ht="17.25" spans="1:10">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="4"/>
@@ -4932,7 +5556,7 @@
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" ht="17.399999999999999">
+    <row r="297" ht="17.25" spans="1:10">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="4"/>
@@ -4944,7 +5568,7 @@
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" ht="17.399999999999999">
+    <row r="298" ht="17.25" spans="1:10">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="4"/>
@@ -4956,7 +5580,7 @@
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
     </row>
-    <row r="299" spans="1:10" ht="17.399999999999999">
+    <row r="299" ht="17.25" spans="1:10">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="4"/>
@@ -4968,7 +5592,7 @@
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" ht="17.399999999999999">
+    <row r="300" ht="17.25" spans="1:10">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="4"/>
@@ -4980,7 +5604,7 @@
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="1:10" ht="17.399999999999999">
+    <row r="301" ht="17.25" spans="1:10">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="4"/>
@@ -4992,7 +5616,7 @@
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" ht="17.399999999999999">
+    <row r="302" ht="17.25" spans="1:10">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="4"/>
@@ -5004,7 +5628,7 @@
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" ht="17.399999999999999">
+    <row r="303" ht="17.25" spans="1:10">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="4"/>
@@ -5016,7 +5640,7 @@
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" ht="17.399999999999999">
+    <row r="304" ht="17.25" spans="1:10">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="4"/>
@@ -5028,7 +5652,7 @@
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" ht="17.399999999999999">
+    <row r="305" ht="17.25" spans="1:10">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="4"/>
@@ -5040,10 +5664,10 @@
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" ht="17.399999999999999">
-      <c r="A306" s="8"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="10"/>
+    <row r="306" ht="17.25" spans="1:10">
+      <c r="A306" s="13"/>
+      <c r="B306" s="15"/>
+      <c r="C306" s="14"/>
       <c r="D306" s="6"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
@@ -5052,8 +5676,8 @@
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" ht="17.399999999999999">
-      <c r="A307" s="8"/>
+    <row r="307" ht="17.25" spans="1:10">
+      <c r="A307" s="13"/>
       <c r="B307" s="6"/>
       <c r="C307" s="4"/>
       <c r="D307" s="6"/>
@@ -5064,7 +5688,7 @@
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
     </row>
-    <row r="308" spans="1:10" ht="17.399999999999999">
+    <row r="308" ht="17.25" spans="1:10">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="4"/>
@@ -5076,7 +5700,7 @@
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="1:10" ht="17.399999999999999">
+    <row r="309" ht="17.25" spans="1:10">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
@@ -5088,7 +5712,7 @@
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" ht="17.399999999999999">
+    <row r="310" ht="17.25" spans="1:10">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="4"/>
@@ -5100,7 +5724,7 @@
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" ht="17.399999999999999">
+    <row r="311" ht="17.25" spans="1:10">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="4"/>
@@ -5112,7 +5736,7 @@
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
     </row>
-    <row r="312" spans="1:10" ht="17.399999999999999">
+    <row r="312" ht="17.25" spans="1:10">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="4"/>
@@ -5124,7 +5748,7 @@
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="1:10" ht="17.399999999999999">
+    <row r="313" ht="17.25" spans="1:10">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="4"/>
@@ -5136,7 +5760,7 @@
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="1:10" ht="17.399999999999999">
+    <row r="314" ht="17.25" spans="1:10">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="4"/>
@@ -5148,7 +5772,7 @@
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="1:10" ht="17.399999999999999">
+    <row r="315" ht="17.25" spans="1:10">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="4"/>
@@ -5160,7 +5784,7 @@
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" ht="17.399999999999999">
+    <row r="316" ht="17.25" spans="1:10">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="4"/>
@@ -5172,7 +5796,7 @@
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="1:10" ht="17.399999999999999">
+    <row r="317" ht="17.25" spans="1:10">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="4"/>
@@ -5184,7 +5808,7 @@
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="1:10" ht="17.399999999999999">
+    <row r="318" ht="17.25" spans="1:10">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="4"/>
@@ -5196,7 +5820,7 @@
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="1:10" ht="17.399999999999999">
+    <row r="319" ht="17.25" spans="1:10">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="4"/>
@@ -5208,7 +5832,7 @@
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="1:10" ht="17.399999999999999">
+    <row r="320" ht="17.25" spans="1:10">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="4"/>
@@ -5220,7 +5844,7 @@
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="1:10" ht="17.399999999999999">
+    <row r="321" ht="17.25" spans="1:10">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="4"/>
@@ -5232,7 +5856,7 @@
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="1:10" ht="17.399999999999999">
+    <row r="322" ht="17.25" spans="1:10">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="4"/>
@@ -5244,7 +5868,7 @@
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" ht="17.399999999999999">
+    <row r="323" ht="17.25" spans="1:10">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="4"/>
@@ -5256,7 +5880,7 @@
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" ht="17.399999999999999">
+    <row r="324" ht="17.25" spans="1:10">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="4"/>
@@ -5268,7 +5892,7 @@
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" ht="17.399999999999999">
+    <row r="325" ht="17.25" spans="1:10">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="4"/>
@@ -5280,7 +5904,7 @@
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" ht="17.399999999999999">
+    <row r="326" ht="17.25" spans="1:10">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="4"/>
@@ -5292,7 +5916,7 @@
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327" spans="1:10" ht="17.399999999999999">
+    <row r="327" ht="17.25" spans="1:10">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="4"/>
@@ -5304,7 +5928,7 @@
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" ht="17.399999999999999">
+    <row r="328" ht="17.25" spans="1:10">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="4"/>
@@ -5316,7 +5940,7 @@
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" ht="17.399999999999999">
+    <row r="329" ht="17.25" spans="1:10">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="4"/>
@@ -5328,7 +5952,7 @@
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" ht="17.399999999999999">
+    <row r="330" ht="17.25" spans="1:10">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="4"/>
@@ -5340,7 +5964,7 @@
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="1:10" ht="17.399999999999999">
+    <row r="331" ht="17.25" spans="1:10">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="4"/>
@@ -5352,8 +5976,8 @@
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="1:10" ht="17.399999999999999">
-      <c r="A332" s="8"/>
+    <row r="332" ht="17.25" spans="1:10">
+      <c r="A332" s="13"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
       <c r="D332" s="6"/>
@@ -5364,7 +5988,7 @@
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" ht="17.399999999999999">
+    <row r="333" ht="17.25" spans="1:10">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="4"/>
@@ -5376,8 +6000,8 @@
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" ht="17.399999999999999">
-      <c r="A334" s="8"/>
+    <row r="334" ht="17.25" spans="1:10">
+      <c r="A334" s="13"/>
       <c r="B334" s="6"/>
       <c r="C334" s="4"/>
       <c r="D334" s="6"/>
@@ -5388,9 +6012,9 @@
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" ht="17.399999999999999">
-      <c r="A335" s="8"/>
-      <c r="B335" s="14"/>
+    <row r="335" ht="17.25" spans="1:10">
+      <c r="A335" s="13"/>
+      <c r="B335" s="23"/>
       <c r="C335" s="7"/>
       <c r="D335" s="6"/>
       <c r="E335" s="4"/>
@@ -5400,8 +6024,8 @@
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" ht="17.399999999999999">
-      <c r="A336" s="8"/>
+    <row r="336" ht="17.25" spans="1:10">
+      <c r="A336" s="13"/>
       <c r="B336" s="6"/>
       <c r="C336" s="4"/>
       <c r="D336" s="6"/>
@@ -5412,7 +6036,7 @@
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" ht="17.399999999999999">
+    <row r="337" ht="17.25" spans="1:10">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="4"/>
@@ -5424,7 +6048,7 @@
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" ht="17.399999999999999">
+    <row r="338" ht="17.25" spans="1:10">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="4"/>
@@ -5436,7 +6060,7 @@
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" ht="17.399999999999999">
+    <row r="339" ht="17.25" spans="1:10">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="4"/>
@@ -5448,7 +6072,7 @@
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" ht="17.399999999999999">
+    <row r="340" ht="17.25" spans="1:10">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="4"/>
@@ -5460,7 +6084,7 @@
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" ht="17.399999999999999">
+    <row r="341" ht="17.25" spans="1:10">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="4"/>
@@ -5472,7 +6096,7 @@
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342" spans="1:10" ht="17.399999999999999">
+    <row r="342" ht="17.25" spans="1:10">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="4"/>
@@ -5484,10 +6108,10 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343" spans="1:10" ht="17.399999999999999">
-      <c r="A343" s="8"/>
-      <c r="B343" s="9"/>
-      <c r="C343" s="10"/>
+    <row r="343" ht="17.25" spans="1:10">
+      <c r="A343" s="13"/>
+      <c r="B343" s="15"/>
+      <c r="C343" s="14"/>
       <c r="D343" s="6"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
@@ -5496,7 +6120,7 @@
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344" spans="1:10" ht="17.399999999999999">
+    <row r="344" ht="17.25" spans="1:10">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="4"/>
@@ -5508,7 +6132,7 @@
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345" spans="1:10" ht="17.399999999999999">
+    <row r="345" ht="17.25" spans="1:10">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="4"/>
@@ -5520,7 +6144,7 @@
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346" spans="1:10" ht="17.399999999999999">
+    <row r="346" ht="17.25" spans="1:10">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="4"/>
@@ -5532,7 +6156,7 @@
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347" spans="1:10" ht="17.399999999999999">
+    <row r="347" ht="17.25" spans="1:10">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="4"/>
@@ -5544,7 +6168,7 @@
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348" spans="1:10" ht="17.399999999999999">
+    <row r="348" ht="17.25" spans="1:10">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="4"/>
@@ -5556,7 +6180,7 @@
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349" spans="1:10" ht="17.399999999999999">
+    <row r="349" ht="17.25" spans="1:10">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="4"/>
@@ -5568,7 +6192,7 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350" spans="1:10" ht="17.399999999999999">
+    <row r="350" ht="17.25" spans="1:10">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="4"/>
@@ -5580,7 +6204,7 @@
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351" spans="1:10" ht="17.399999999999999">
+    <row r="351" ht="17.25" spans="1:10">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="4"/>
@@ -5592,11 +6216,11 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352" spans="1:10" ht="17.399999999999999">
+    <row r="352" ht="17.25" spans="1:10">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="11"/>
+      <c r="D352" s="20"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
@@ -5604,7 +6228,7 @@
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353" spans="1:10" ht="17.399999999999999">
+    <row r="353" ht="17.25" spans="1:10">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="4"/>
@@ -5616,7 +6240,7 @@
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354" spans="1:10" ht="17.399999999999999">
+    <row r="354" ht="17.25" spans="1:10">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="4"/>
@@ -5628,7 +6252,7 @@
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355" spans="1:10" ht="17.399999999999999">
+    <row r="355" ht="17.25" spans="1:10">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="4"/>
@@ -5640,7 +6264,7 @@
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" spans="1:10" ht="17.399999999999999">
+    <row r="356" ht="17.25" spans="1:10">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="4"/>
@@ -5652,7 +6276,7 @@
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357" spans="1:10" ht="17.399999999999999">
+    <row r="357" ht="17.25" spans="1:10">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="4"/>
@@ -5664,7 +6288,7 @@
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358" spans="1:10" ht="17.399999999999999">
+    <row r="358" ht="17.25" spans="1:10">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="4"/>
@@ -5676,7 +6300,7 @@
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359" spans="1:10" ht="17.399999999999999">
+    <row r="359" ht="17.25" spans="1:10">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="4"/>
@@ -5688,7 +6312,7 @@
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" spans="1:10" ht="17.399999999999999">
+    <row r="360" ht="17.25" spans="1:10">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="4"/>
@@ -5700,7 +6324,7 @@
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361" spans="1:10" ht="17.399999999999999">
+    <row r="361" ht="17.25" spans="1:10">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="4"/>
@@ -5712,7 +6336,7 @@
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362" spans="1:10" ht="17.399999999999999">
+    <row r="362" ht="17.25" spans="1:10">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="4"/>
@@ -5724,8 +6348,8 @@
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363" spans="1:10" ht="17.399999999999999">
-      <c r="A363" s="2"/>
+    <row r="363" ht="17.25" spans="1:10">
+      <c r="A363" s="1"/>
       <c r="B363" s="6"/>
       <c r="C363" s="4"/>
       <c r="D363" s="6"/>
@@ -5736,7 +6360,7 @@
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364" spans="1:10" ht="17.399999999999999">
+    <row r="364" ht="17.25" spans="1:10">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="4"/>
@@ -5748,7 +6372,7 @@
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365" spans="1:10" ht="17.399999999999999">
+    <row r="365" ht="17.25" spans="1:10">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="4"/>
@@ -5760,7 +6384,7 @@
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366" spans="1:10" ht="17.399999999999999">
+    <row r="366" ht="17.25" spans="1:10">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="4"/>
@@ -5772,7 +6396,7 @@
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367" spans="1:10" ht="17.399999999999999">
+    <row r="367" ht="17.25" spans="1:10">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="4"/>
@@ -5784,7 +6408,7 @@
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368" spans="1:10" ht="17.399999999999999">
+    <row r="368" ht="17.25" spans="1:10">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="4"/>
@@ -5796,7 +6420,7 @@
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369" spans="1:10" ht="17.399999999999999">
+    <row r="369" ht="17.25" spans="1:10">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="4"/>
@@ -5808,7 +6432,7 @@
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370" spans="1:10" ht="17.399999999999999">
+    <row r="370" ht="17.25" spans="1:10">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="4"/>
@@ -5820,7 +6444,7 @@
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371" spans="1:10" ht="17.399999999999999">
+    <row r="371" ht="17.25" spans="1:10">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="4"/>
@@ -5832,7 +6456,7 @@
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372" spans="1:10" ht="17.399999999999999">
+    <row r="372" ht="17.25" spans="1:10">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="4"/>
@@ -5844,7 +6468,7 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373" spans="1:10" ht="17.399999999999999">
+    <row r="373" ht="17.25" spans="1:10">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="4"/>
@@ -5856,7 +6480,7 @@
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374" spans="1:10" ht="17.399999999999999">
+    <row r="374" ht="17.25" spans="1:10">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="4"/>
@@ -5868,7 +6492,7 @@
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
     </row>
-    <row r="375" spans="1:10" ht="17.399999999999999">
+    <row r="375" ht="17.25" spans="1:10">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="4"/>
@@ -5880,7 +6504,7 @@
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
     </row>
-    <row r="376" spans="1:10" ht="17.399999999999999">
+    <row r="376" ht="17.25" spans="1:10">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="4"/>
@@ -5892,7 +6516,7 @@
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
     </row>
-    <row r="377" spans="1:10" ht="17.399999999999999">
+    <row r="377" ht="17.25" spans="1:10">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="4"/>
@@ -5904,7 +6528,7 @@
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
     </row>
-    <row r="378" spans="1:10" ht="17.399999999999999">
+    <row r="378" ht="17.25" spans="1:10">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="4"/>
@@ -5916,7 +6540,7 @@
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
     </row>
-    <row r="379" spans="1:10" ht="17.399999999999999">
+    <row r="379" ht="17.25" spans="1:10">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
@@ -5928,7 +6552,7 @@
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
     </row>
-    <row r="380" spans="1:10" ht="17.399999999999999">
+    <row r="380" ht="17.25" spans="1:10">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="4"/>
@@ -5940,7 +6564,7 @@
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
     </row>
-    <row r="381" spans="1:10" ht="17.399999999999999">
+    <row r="381" ht="17.25" spans="1:10">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="4"/>
@@ -5952,7 +6576,7 @@
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
     </row>
-    <row r="382" spans="1:10" ht="17.399999999999999">
+    <row r="382" ht="17.25" spans="1:10">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="4"/>
@@ -5964,7 +6588,7 @@
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
     </row>
-    <row r="383" spans="1:10" ht="17.399999999999999">
+    <row r="383" ht="17.25" spans="1:10">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="4"/>
@@ -5976,7 +6600,7 @@
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
     </row>
-    <row r="384" spans="1:10" ht="17.399999999999999">
+    <row r="384" ht="17.25" spans="1:10">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="4"/>
@@ -5988,7 +6612,7 @@
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
     </row>
-    <row r="385" spans="1:10" ht="17.399999999999999">
+    <row r="385" ht="17.25" spans="1:10">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="4"/>
@@ -6000,7 +6624,7 @@
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
     </row>
-    <row r="386" spans="1:10" ht="17.399999999999999">
+    <row r="386" ht="17.25" spans="1:10">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="4"/>
@@ -6012,7 +6636,7 @@
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
     </row>
-    <row r="387" spans="1:10" ht="17.399999999999999">
+    <row r="387" ht="17.25" spans="1:10">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="4"/>
@@ -6024,7 +6648,7 @@
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
     </row>
-    <row r="388" spans="1:10" ht="17.399999999999999">
+    <row r="388" ht="17.25" spans="1:10">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
@@ -6036,7 +6660,7 @@
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
     </row>
-    <row r="389" spans="1:10" ht="17.399999999999999">
+    <row r="389" ht="17.25" spans="1:10">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="4"/>
@@ -6048,10 +6672,10 @@
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
     </row>
-    <row r="390" spans="1:10" ht="17.399999999999999">
-      <c r="A390" s="8"/>
-      <c r="B390" s="9"/>
-      <c r="C390" s="10"/>
+    <row r="390" ht="17.25" spans="1:10">
+      <c r="A390" s="13"/>
+      <c r="B390" s="15"/>
+      <c r="C390" s="14"/>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="4"/>
@@ -6060,10 +6684,10 @@
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
     </row>
-    <row r="391" spans="1:10" ht="17.399999999999999">
-      <c r="A391" s="8"/>
-      <c r="B391" s="14"/>
-      <c r="C391" s="10"/>
+    <row r="391" ht="17.25" spans="1:10">
+      <c r="A391" s="13"/>
+      <c r="B391" s="23"/>
+      <c r="C391" s="14"/>
       <c r="D391" s="6"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
@@ -6072,10 +6696,10 @@
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
     </row>
-    <row r="392" spans="1:10" ht="17.399999999999999">
-      <c r="A392" s="8"/>
-      <c r="B392" s="14"/>
-      <c r="C392" s="10"/>
+    <row r="392" ht="17.25" spans="1:10">
+      <c r="A392" s="13"/>
+      <c r="B392" s="23"/>
+      <c r="C392" s="14"/>
       <c r="D392" s="6"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
@@ -6084,10 +6708,10 @@
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
     </row>
-    <row r="393" spans="1:10" ht="17.399999999999999">
-      <c r="A393" s="8"/>
-      <c r="B393" s="14"/>
-      <c r="C393" s="10"/>
+    <row r="393" ht="17.25" spans="1:10">
+      <c r="A393" s="13"/>
+      <c r="B393" s="23"/>
+      <c r="C393" s="14"/>
       <c r="D393" s="6"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
@@ -6096,10 +6720,10 @@
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
     </row>
-    <row r="394" spans="1:10" ht="17.399999999999999">
-      <c r="A394" s="8"/>
-      <c r="B394" s="14"/>
-      <c r="C394" s="10"/>
+    <row r="394" ht="17.25" spans="1:10">
+      <c r="A394" s="13"/>
+      <c r="B394" s="23"/>
+      <c r="C394" s="14"/>
       <c r="D394" s="6"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
@@ -6109,17 +6733,18 @@
       <c r="J394" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E390">
+  <autoFilter ref="A1:E390">
+    <sortState ref="A1:E390">
       <sortCondition ref="A1:A390"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{327F8F12-042C-4A2B-AE11-09EB77DDBA71}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{F729F087-AC69-4D85-94FD-B7FC0D412501}"/>
+    <hyperlink ref="C13" r:id="rId1" display="https://www.bilibili.com/video/BV1PY411u7sg"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://www.bilibili.com/video/BV1dL411p75E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C84FB-06B6-4EC8-BF41-D4F0B3742F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$390</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
   <si>
     <t>歌名</t>
   </si>
@@ -476,19 +482,17 @@
   </si>
   <si>
     <t>大吉</t>
+  </si>
+  <si>
+    <t>是否新歌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -578,367 +582,46 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
       <name val="-apple-system"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF18191C"/>
       <name val="-apple-system"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -946,251 +629,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,7 +671,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1262,61 +706,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1574,31 +975,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="63" customWidth="1"/>
-    <col min="6" max="10" width="11" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:10">
+    <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,13 +1015,15 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" ht="17.25" spans="1:10">
+    <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1638,70 +1041,74 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" ht="17.25" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
+    <row r="3" spans="1:10" ht="17.399999999999999">
+      <c r="A3" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" ht="17.25" spans="1:10">
+    <row r="4" spans="1:10" ht="17.399999999999999">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" ht="17.25" spans="1:10">
+    <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" ht="17.25" spans="1:10">
+    <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1710,34 +1117,34 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" ht="17.25" spans="1:10">
+    <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" ht="17.25" spans="1:10">
+    <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1746,16 +1153,16 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" ht="17.25" spans="1:10">
+    <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1764,16 +1171,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" ht="17.25" spans="1:10">
-      <c r="A10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>30</v>
+    <row r="10" spans="1:10" ht="17.399999999999999">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1782,16 +1189,16 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" ht="17.25" spans="1:10">
-      <c r="A11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
+    <row r="11" spans="1:10" ht="17.399999999999999">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1800,16 +1207,16 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" ht="17.25" spans="1:10">
+    <row r="12" spans="1:10" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1818,36 +1225,36 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" ht="17.25" spans="1:10">
+    <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" ht="17.25" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6" t="s">
-        <v>43</v>
+    <row r="14" spans="1:10" ht="17.399999999999999">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1856,18 +1263,16 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" ht="17.25" spans="1:10">
+    <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1876,16 +1281,18 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" ht="17.25" spans="1:10">
-      <c r="A16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9" t="s">
-        <v>24</v>
+    <row r="16" spans="1:10" ht="17.399999999999999">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1894,70 +1301,74 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" ht="17.25" spans="1:10">
+    <row r="17" spans="1:10" ht="17.399999999999999">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" ht="17.25" spans="1:10">
+    <row r="18" spans="1:10" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" ht="17.25" spans="1:10">
-      <c r="A19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+    <row r="19" spans="1:10" ht="17.399999999999999">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" ht="17.25" spans="1:10">
-      <c r="A20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
+    <row r="20" spans="1:10" ht="17.399999999999999">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1966,16 +1377,16 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" ht="17.25" spans="1:10">
-      <c r="A21" s="13" t="s">
-        <v>55</v>
+    <row r="21" spans="1:10" ht="17.399999999999999">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
@@ -1984,16 +1395,16 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" ht="17.25" spans="1:10">
+    <row r="22" spans="1:10" ht="17.399999999999999">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2002,34 +1413,34 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" ht="17.25" spans="1:10">
+    <row r="23" spans="1:10" ht="17.399999999999999">
       <c r="A23" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" ht="17.25" spans="1:10">
+    <row r="24" spans="1:10" ht="17.399999999999999">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2038,32 +1449,32 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" ht="17.25" spans="1:10">
-      <c r="A25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="4"/>
+    <row r="25" spans="1:10" ht="17.399999999999999">
+      <c r="A25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" ht="17.25" spans="1:10">
-      <c r="A26" s="13" t="s">
-        <v>65</v>
+    <row r="26" spans="1:10" ht="17.399999999999999">
+      <c r="A26" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
         <v>16</v>
       </c>
@@ -2074,12 +1485,12 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" ht="17.25" spans="1:10">
+    <row r="27" spans="1:10" ht="17.399999999999999">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
@@ -2092,16 +1503,16 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" ht="17.25" spans="1:10">
+    <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2110,54 +1521,54 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" ht="17.25" spans="1:10">
-      <c r="A29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="6"/>
+    <row r="29" spans="1:10" ht="17.399999999999999">
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" ht="17.25" spans="1:10">
+    <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" ht="17.25" spans="1:10">
-      <c r="A31" s="5" t="s">
-        <v>74</v>
+    <row r="31" spans="1:10" ht="17.399999999999999">
+      <c r="A31" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C31" s="14"/>
       <c r="D31" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2166,16 +1577,16 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" ht="17.25" spans="1:10">
+    <row r="32" spans="1:10" ht="17.399999999999999">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2184,16 +1595,16 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" ht="17.25" spans="1:10">
-      <c r="A33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="14"/>
+    <row r="33" spans="1:10" ht="17.399999999999999">
+      <c r="A33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2202,55 +1613,53 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" ht="17.25" spans="1:10">
-      <c r="A34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="4"/>
+    <row r="34" spans="1:10" ht="17.399999999999999">
+      <c r="A34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" ht="17.25" spans="1:10">
-      <c r="A35" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>84</v>
-      </c>
+    <row r="35" spans="1:10" ht="17.399999999999999">
+      <c r="A35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" ht="17.25" spans="1:10">
-      <c r="A36" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="9" t="s">
+    <row r="36" spans="1:10" ht="17.399999999999999">
+      <c r="A36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="4"/>
@@ -2260,52 +1669,54 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" ht="17.25" spans="1:10">
-      <c r="A37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="6"/>
+    <row r="37" spans="1:10" ht="17.399999999999999">
+      <c r="A37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" ht="17.25" spans="1:10">
+    <row r="38" spans="1:10" ht="17.399999999999999">
       <c r="A38" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="14"/>
       <c r="D38" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" ht="17.25" spans="1:10">
+    <row r="39" spans="1:10" ht="17.399999999999999">
       <c r="A39" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2314,36 +1725,36 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" ht="17.25" spans="1:10">
-      <c r="A40" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="4"/>
+    <row r="40" spans="1:10" ht="17.399999999999999">
+      <c r="A40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" ht="17.25" spans="1:10">
-      <c r="A41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="6" t="s">
-        <v>99</v>
+    <row r="41" spans="1:10" ht="17.399999999999999">
+      <c r="A41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2352,16 +1763,16 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" ht="17.25" spans="1:10">
+    <row r="42" spans="1:10" ht="17.399999999999999">
       <c r="A42" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="16" t="s">
-        <v>102</v>
+      <c r="D42" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
@@ -2370,34 +1781,34 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" ht="17.25" spans="1:10">
-      <c r="A43" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>104</v>
+    <row r="43" spans="1:10" ht="17.399999999999999">
+      <c r="A43" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" ht="17.25" spans="1:10">
-      <c r="A44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="9" t="s">
-        <v>24</v>
+    <row r="44" spans="1:10" ht="17.399999999999999">
+      <c r="A44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2406,16 +1817,18 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" ht="17.25" spans="1:10">
+    <row r="45" spans="1:10" ht="17.399999999999999">
       <c r="A45" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D45" s="6" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2424,16 +1837,16 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" ht="17.25" spans="1:10">
+    <row r="46" spans="1:10" ht="17.399999999999999">
       <c r="A46" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2442,34 +1855,34 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" ht="17.25" spans="1:10">
+    <row r="47" spans="1:10" ht="17.399999999999999">
       <c r="A47" s="8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="4"/>
+      <c r="D47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" ht="17.25" spans="1:10">
+    <row r="48" spans="1:10" ht="17.399999999999999">
       <c r="A48" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2478,16 +1891,16 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" ht="17.25" spans="1:10">
-      <c r="A49" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6" t="s">
-        <v>119</v>
+    <row r="49" spans="1:10" ht="17.399999999999999">
+      <c r="A49" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2496,15 +1909,15 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" ht="17.25" spans="1:10">
-      <c r="A50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9" t="s">
+    <row r="50" spans="1:10" ht="17.399999999999999">
+      <c r="A50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="4"/>
@@ -2514,16 +1927,16 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" ht="17.25" spans="1:10">
+    <row r="51" spans="1:10" ht="17.399999999999999">
       <c r="A51" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2532,16 +1945,16 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" ht="17.25" spans="1:10">
-      <c r="A52" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="6" t="s">
-        <v>40</v>
+    <row r="52" spans="1:10" ht="17.399999999999999">
+      <c r="A52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2550,16 +1963,16 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" ht="17.25" spans="1:10">
+    <row r="53" spans="1:10" ht="17.399999999999999">
       <c r="A53" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2568,16 +1981,16 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" ht="17.25" spans="1:10">
-      <c r="A54" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>131</v>
+    <row r="54" spans="1:10" ht="17.399999999999999">
+      <c r="A54" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2586,16 +1999,16 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" ht="17.25" spans="1:10">
-      <c r="A55" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="6" t="s">
-        <v>135</v>
+    <row r="55" spans="1:10" ht="17.399999999999999">
+      <c r="A55" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2604,16 +2017,16 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" ht="17.25" spans="1:10">
-      <c r="A56" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9" t="s">
-        <v>30</v>
+    <row r="56" spans="1:10" ht="17.399999999999999">
+      <c r="A56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2622,16 +2035,16 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" ht="17.25" spans="1:10">
+    <row r="57" spans="1:10" ht="17.399999999999999">
       <c r="A57" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="6" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2640,16 +2053,16 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" ht="17.25" spans="1:10">
+    <row r="58" spans="1:10" ht="17.399999999999999">
       <c r="A58" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2658,16 +2071,16 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" ht="17.25" spans="1:10">
+    <row r="59" spans="1:10" ht="17.399999999999999">
       <c r="A59" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2676,7 +2089,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" ht="17.25" spans="1:10">
+    <row r="60" spans="1:10" ht="17.399999999999999">
       <c r="A60" s="5" t="s">
         <v>143</v>
       </c>
@@ -2688,58 +2101,62 @@
         <v>43</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" ht="17.25" spans="1:10">
-      <c r="A61" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="4"/>
+    <row r="61" spans="1:10" ht="17.399999999999999">
+      <c r="A61" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" ht="17.25" spans="1:10">
-      <c r="A62" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="7"/>
+    <row r="62" spans="1:10" ht="17.399999999999999">
+      <c r="A62" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" ht="17.25" spans="1:10">
-      <c r="A63" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="6" t="s">
-        <v>40</v>
+    <row r="63" spans="1:10" ht="17.399999999999999">
+      <c r="A63" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2748,16 +2165,16 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" ht="17.25" spans="1:10">
+    <row r="64" spans="1:10" ht="17.399999999999999">
       <c r="A64" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="6" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2766,16 +2183,16 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" ht="17.25" spans="1:10">
+    <row r="65" spans="1:10" ht="17.399999999999999">
       <c r="A65" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2784,7 +2201,7 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" ht="17.25" spans="1:10">
+    <row r="66" spans="1:10" ht="17.399999999999999">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
@@ -2796,7 +2213,7 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" ht="17.25" spans="1:10">
+    <row r="67" spans="1:10" ht="17.399999999999999">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
@@ -2808,7 +2225,7 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" ht="17.25" spans="1:10">
+    <row r="68" spans="1:10" ht="17.399999999999999">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
@@ -2820,7 +2237,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" ht="17.25" spans="1:10">
+    <row r="69" spans="1:10" ht="17.399999999999999">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
@@ -2832,7 +2249,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" ht="17.25" spans="1:10">
+    <row r="70" spans="1:10" ht="17.399999999999999">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
@@ -2844,7 +2261,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" ht="17.25" spans="1:10">
+    <row r="71" spans="1:10" ht="17.399999999999999">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
@@ -2856,7 +2273,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" ht="17.25" spans="1:10">
+    <row r="72" spans="1:10" ht="17.399999999999999">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
@@ -2868,7 +2285,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" ht="17.25" spans="1:10">
+    <row r="73" spans="1:10" ht="17.399999999999999">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
@@ -2880,7 +2297,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" ht="17.25" spans="1:10">
+    <row r="74" spans="1:10" ht="17.399999999999999">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
@@ -2892,7 +2309,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" ht="17.25" spans="1:10">
+    <row r="75" spans="1:10" ht="17.399999999999999">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="4"/>
@@ -2904,7 +2321,7 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" ht="17.25" spans="1:10">
+    <row r="76" spans="1:10" ht="17.399999999999999">
       <c r="A76" s="13"/>
       <c r="B76" s="15"/>
       <c r="C76" s="7"/>
@@ -2916,7 +2333,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" ht="17.25" spans="1:10">
+    <row r="77" spans="1:10" ht="17.399999999999999">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -2928,7 +2345,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" ht="17.25" spans="1:10">
+    <row r="78" spans="1:10" ht="17.399999999999999">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
@@ -2940,7 +2357,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" ht="17.25" spans="1:10">
+    <row r="79" spans="1:10" ht="17.399999999999999">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -2952,7 +2369,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" ht="17.25" spans="1:10">
+    <row r="80" spans="1:10" ht="17.399999999999999">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -2964,7 +2381,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" ht="17.25" spans="1:10">
+    <row r="81" spans="1:10" ht="17.399999999999999">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
@@ -2976,7 +2393,7 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" ht="17.25" spans="1:10">
+    <row r="82" spans="1:10" ht="17.399999999999999">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
@@ -2988,7 +2405,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" ht="17.25" spans="1:10">
+    <row r="83" spans="1:10" ht="17.399999999999999">
       <c r="A83" s="13"/>
       <c r="B83" s="15"/>
       <c r="C83" s="7"/>
@@ -3000,7 +2417,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" ht="17.25" spans="1:10">
+    <row r="84" spans="1:10" ht="17.399999999999999">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
@@ -3012,7 +2429,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" ht="17.25" spans="1:10">
+    <row r="85" spans="1:10" ht="17.399999999999999">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -3024,7 +2441,7 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" ht="17.25" spans="1:10">
+    <row r="86" spans="1:10" ht="17.399999999999999">
       <c r="A86" s="13"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
@@ -3036,7 +2453,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" ht="17.25" spans="1:10">
+    <row r="87" spans="1:10" ht="17.399999999999999">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
@@ -3048,7 +2465,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" ht="17.25" spans="1:10">
+    <row r="88" spans="1:10" ht="17.399999999999999">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
@@ -3060,7 +2477,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" ht="17.25" spans="1:10">
+    <row r="89" spans="1:10" ht="17.399999999999999">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
@@ -3072,7 +2489,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" ht="17.25" spans="1:10">
+    <row r="90" spans="1:10" ht="17.399999999999999">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
@@ -3084,7 +2501,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" ht="17.25" spans="1:10">
+    <row r="91" spans="1:10" ht="17.399999999999999">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
@@ -3096,7 +2513,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" ht="17.25" spans="1:10">
+    <row r="92" spans="1:10" ht="17.399999999999999">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
@@ -3108,7 +2525,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" ht="17.25" spans="1:10">
+    <row r="93" spans="1:10" ht="17.399999999999999">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
@@ -3120,7 +2537,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" ht="17.25" spans="1:10">
+    <row r="94" spans="1:10" ht="17.399999999999999">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -3132,7 +2549,7 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" ht="17.25" spans="1:10">
+    <row r="95" spans="1:10" ht="17.399999999999999">
       <c r="A95" s="13"/>
       <c r="B95" s="15"/>
       <c r="C95" s="7"/>
@@ -3144,7 +2561,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" ht="17.25" spans="1:10">
+    <row r="96" spans="1:10" ht="17.399999999999999">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
@@ -3156,7 +2573,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" ht="17.25" spans="1:10">
+    <row r="97" spans="1:10" ht="17.399999999999999">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
@@ -3168,7 +2585,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" ht="17.25" spans="1:10">
+    <row r="98" spans="1:10" ht="17.399999999999999">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
@@ -3180,7 +2597,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" ht="17.25" spans="1:10">
+    <row r="99" spans="1:10" ht="17.399999999999999">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
@@ -3192,7 +2609,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" ht="17.25" spans="1:10">
+    <row r="100" spans="1:10" ht="17.399999999999999">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
@@ -3204,7 +2621,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" ht="17.25" spans="1:10">
+    <row r="101" spans="1:10" ht="17.399999999999999">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
@@ -3216,7 +2633,7 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" ht="17.25" spans="1:10">
+    <row r="102" spans="1:10" ht="17.399999999999999">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
@@ -3228,7 +2645,7 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" ht="17.25" spans="1:10">
+    <row r="103" spans="1:10" ht="17.399999999999999">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
@@ -3240,7 +2657,7 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" ht="17.25" spans="1:10">
+    <row r="104" spans="1:10" ht="17.399999999999999">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
@@ -3252,7 +2669,7 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" ht="17.25" spans="1:10">
+    <row r="105" spans="1:10" ht="17.399999999999999">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
@@ -3264,7 +2681,7 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" ht="17.25" spans="1:10">
+    <row r="106" spans="1:10" ht="17.399999999999999">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -3276,7 +2693,7 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" ht="17.25" spans="1:10">
+    <row r="107" spans="1:10" ht="17.399999999999999">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
@@ -3288,7 +2705,7 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" ht="17.25" spans="1:10">
+    <row r="108" spans="1:10" ht="17.399999999999999">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
@@ -3300,7 +2717,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" ht="17.25" spans="1:10">
+    <row r="109" spans="1:10" ht="17.399999999999999">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
@@ -3312,7 +2729,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" ht="17.25" spans="1:10">
+    <row r="110" spans="1:10" ht="17.399999999999999">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
@@ -3324,7 +2741,7 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" ht="17.25" spans="1:10">
+    <row r="111" spans="1:10" ht="17.399999999999999">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4"/>
@@ -3336,7 +2753,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" ht="17.25" spans="1:10">
+    <row r="112" spans="1:10" ht="17.399999999999999">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
@@ -3348,7 +2765,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" ht="17.25" spans="1:10">
+    <row r="113" spans="1:10" ht="17.399999999999999">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
@@ -3360,7 +2777,7 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" ht="18.75" spans="1:10">
+    <row r="114" spans="1:10" ht="19.2">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="21"/>
@@ -3372,7 +2789,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" ht="17.25" spans="1:10">
+    <row r="115" spans="1:10" ht="17.399999999999999">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
@@ -3384,7 +2801,7 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" ht="17.25" spans="1:10">
+    <row r="116" spans="1:10" ht="17.399999999999999">
       <c r="A116" s="13"/>
       <c r="B116" s="15"/>
       <c r="C116" s="7"/>
@@ -3396,7 +2813,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" ht="17.25" spans="1:10">
+    <row r="117" spans="1:10" ht="17.399999999999999">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -3408,7 +2825,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" ht="17.25" spans="1:10">
+    <row r="118" spans="1:10" ht="17.399999999999999">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
@@ -3420,7 +2837,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" ht="17.25" spans="1:10">
+    <row r="119" spans="1:10" ht="17.399999999999999">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
@@ -3432,7 +2849,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" ht="17.25" spans="1:10">
+    <row r="120" spans="1:10" ht="17.399999999999999">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
@@ -3444,7 +2861,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" ht="17.25" spans="1:10">
+    <row r="121" spans="1:10" ht="17.399999999999999">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
@@ -3456,7 +2873,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" ht="17.25" spans="1:10">
+    <row r="122" spans="1:10" ht="17.399999999999999">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
@@ -3468,7 +2885,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" ht="17.25" spans="1:10">
+    <row r="123" spans="1:10" ht="17.399999999999999">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
@@ -3480,7 +2897,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" ht="17.25" spans="1:10">
+    <row r="124" spans="1:10" ht="17.399999999999999">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4"/>
@@ -3492,7 +2909,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" ht="17.25" spans="1:10">
+    <row r="125" spans="1:10" ht="17.399999999999999">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4"/>
@@ -3504,7 +2921,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" ht="17.25" spans="1:10">
+    <row r="126" spans="1:10" ht="17.399999999999999">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4"/>
@@ -3516,7 +2933,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" ht="17.25" spans="1:10">
+    <row r="127" spans="1:10" ht="17.399999999999999">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="4"/>
@@ -3528,7 +2945,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" ht="17.25" spans="1:10">
+    <row r="128" spans="1:10" ht="17.399999999999999">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="4"/>
@@ -3540,7 +2957,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" ht="17.25" spans="1:10">
+    <row r="129" spans="1:10" ht="17.399999999999999">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -3552,7 +2969,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" ht="17.25" spans="1:10">
+    <row r="130" spans="1:10" ht="17.399999999999999">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="4"/>
@@ -3564,7 +2981,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" ht="17.25" spans="1:10">
+    <row r="131" spans="1:10" ht="17.399999999999999">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="4"/>
@@ -3576,7 +2993,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" ht="17.25" spans="1:10">
+    <row r="132" spans="1:10" ht="17.399999999999999">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4"/>
@@ -3588,7 +3005,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" ht="17.25" spans="1:10">
+    <row r="133" spans="1:10" ht="17.399999999999999">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4"/>
@@ -3600,7 +3017,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" ht="17.25" spans="1:10">
+    <row r="134" spans="1:10" ht="17.399999999999999">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
@@ -3612,7 +3029,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" ht="17.25" spans="1:10">
+    <row r="135" spans="1:10" ht="17.399999999999999">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -3624,7 +3041,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" ht="17.25" spans="1:10">
+    <row r="136" spans="1:10" ht="17.399999999999999">
       <c r="A136" s="13"/>
       <c r="B136" s="15"/>
       <c r="C136" s="7"/>
@@ -3636,7 +3053,7 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" ht="17.25" spans="1:10">
+    <row r="137" spans="1:10" ht="17.399999999999999">
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -3648,7 +3065,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" ht="17.25" spans="1:10">
+    <row r="138" spans="1:10" ht="17.399999999999999">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="4"/>
@@ -3660,7 +3077,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" ht="17.25" spans="1:10">
+    <row r="139" spans="1:10" ht="17.399999999999999">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="4"/>
@@ -3672,7 +3089,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" ht="17.25" spans="1:10">
+    <row r="140" spans="1:10" ht="17.399999999999999">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="4"/>
@@ -3684,7 +3101,7 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" ht="17.25" spans="1:10">
+    <row r="141" spans="1:10" ht="17.399999999999999">
       <c r="A141" s="13"/>
       <c r="B141" s="15"/>
       <c r="C141" s="14"/>
@@ -3696,7 +3113,7 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" ht="17.25" spans="1:10">
+    <row r="142" spans="1:10" ht="17.399999999999999">
       <c r="A142" s="13"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -3708,7 +3125,7 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" ht="17.25" spans="1:10">
+    <row r="143" spans="1:10" ht="17.399999999999999">
       <c r="A143" s="5"/>
       <c r="B143" s="2"/>
       <c r="C143" s="4"/>
@@ -3720,7 +3137,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" ht="17.25" spans="1:10">
+    <row r="144" spans="1:10" ht="17.399999999999999">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="4"/>
@@ -3732,7 +3149,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" ht="17.25" spans="1:10">
+    <row r="145" spans="1:10" ht="17.399999999999999">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4"/>
@@ -3744,7 +3161,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" ht="17.25" spans="1:10">
+    <row r="146" spans="1:10" ht="17.399999999999999">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4"/>
@@ -3756,7 +3173,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" ht="17.25" spans="1:10">
+    <row r="147" spans="1:10" ht="17.399999999999999">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4"/>
@@ -3768,7 +3185,7 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" ht="17.25" spans="1:10">
+    <row r="148" spans="1:10" ht="17.399999999999999">
       <c r="A148" s="5"/>
       <c r="B148" s="22"/>
       <c r="C148" s="4"/>
@@ -3780,7 +3197,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" ht="17.25" spans="1:10">
+    <row r="149" spans="1:10" ht="17.399999999999999">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4"/>
@@ -3792,7 +3209,7 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" ht="17.25" spans="1:10">
+    <row r="150" spans="1:10" ht="17.399999999999999">
       <c r="A150" s="13"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
@@ -3804,7 +3221,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" ht="17.25" spans="1:10">
+    <row r="151" spans="1:10" ht="17.399999999999999">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
@@ -3816,7 +3233,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" ht="17.25" spans="1:10">
+    <row r="152" spans="1:10" ht="17.399999999999999">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="4"/>
@@ -3828,7 +3245,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" ht="17.25" spans="1:10">
+    <row r="153" spans="1:10" ht="17.399999999999999">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="4"/>
@@ -3840,7 +3257,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" ht="17.25" spans="1:10">
+    <row r="154" spans="1:10" ht="17.399999999999999">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4"/>
@@ -3852,7 +3269,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" ht="17.25" spans="1:10">
+    <row r="155" spans="1:10" ht="17.399999999999999">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
@@ -3864,7 +3281,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" ht="17.25" spans="1:10">
+    <row r="156" spans="1:10" ht="17.399999999999999">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
@@ -3876,7 +3293,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" ht="17.25" spans="1:10">
+    <row r="157" spans="1:10" ht="17.399999999999999">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
@@ -3888,7 +3305,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" ht="17.25" spans="1:10">
+    <row r="158" spans="1:10" ht="17.399999999999999">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
@@ -3900,7 +3317,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" ht="17.25" spans="1:10">
+    <row r="159" spans="1:10" ht="17.399999999999999">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
@@ -3912,7 +3329,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" ht="17.25" spans="1:10">
+    <row r="160" spans="1:10" ht="17.399999999999999">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
@@ -3924,7 +3341,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" ht="17.25" spans="1:10">
+    <row r="161" spans="1:10" ht="17.399999999999999">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
@@ -3936,7 +3353,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" ht="17.25" spans="1:10">
+    <row r="162" spans="1:10" ht="17.399999999999999">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
@@ -3948,7 +3365,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" ht="17.25" spans="1:10">
+    <row r="163" spans="1:10" ht="17.399999999999999">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
@@ -3960,7 +3377,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" ht="17.25" spans="1:10">
+    <row r="164" spans="1:10" ht="17.399999999999999">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
@@ -3972,7 +3389,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" ht="17.25" spans="1:10">
+    <row r="165" spans="1:10" ht="17.399999999999999">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
@@ -3984,7 +3401,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" ht="17.25" spans="1:10">
+    <row r="166" spans="1:10" ht="17.399999999999999">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
@@ -3996,7 +3413,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" ht="17.25" spans="1:10">
+    <row r="167" spans="1:10" ht="17.399999999999999">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
@@ -4008,7 +3425,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" ht="17.25" spans="1:10">
+    <row r="168" spans="1:10" ht="17.399999999999999">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
@@ -4020,7 +3437,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" ht="17.25" spans="1:10">
+    <row r="169" spans="1:10" ht="17.399999999999999">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
@@ -4032,7 +3449,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" ht="17.25" spans="1:10">
+    <row r="170" spans="1:10" ht="17.399999999999999">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
@@ -4044,7 +3461,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" ht="17.25" spans="1:10">
+    <row r="171" spans="1:10" ht="17.399999999999999">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
@@ -4056,7 +3473,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" ht="17.25" spans="1:10">
+    <row r="172" spans="1:10" ht="17.399999999999999">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
@@ -4068,7 +3485,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" ht="17.25" spans="1:10">
+    <row r="173" spans="1:10" ht="17.399999999999999">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
@@ -4080,7 +3497,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" ht="17.25" spans="1:10">
+    <row r="174" spans="1:10" ht="17.399999999999999">
       <c r="A174" s="13"/>
       <c r="B174" s="15"/>
       <c r="C174" s="7"/>
@@ -4092,7 +3509,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" ht="17.25" spans="1:10">
+    <row r="175" spans="1:10" ht="17.399999999999999">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
@@ -4104,7 +3521,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" ht="17.25" spans="1:10">
+    <row r="176" spans="1:10" ht="17.399999999999999">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -4116,7 +3533,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" ht="17.25" spans="1:10">
+    <row r="177" spans="1:10" ht="17.399999999999999">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -4128,7 +3545,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" ht="17.25" spans="1:10">
+    <row r="178" spans="1:10" ht="17.399999999999999">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
@@ -4140,7 +3557,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" ht="17.25" spans="1:10">
+    <row r="179" spans="1:10" ht="17.399999999999999">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
@@ -4152,7 +3569,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" ht="17.25" spans="1:10">
+    <row r="180" spans="1:10" ht="17.399999999999999">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -4164,7 +3581,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" ht="17.25" spans="1:10">
+    <row r="181" spans="1:10" ht="17.399999999999999">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
@@ -4176,7 +3593,7 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" ht="17.25" spans="1:10">
+    <row r="182" spans="1:10" ht="17.399999999999999">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
@@ -4188,7 +3605,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" ht="17.25" spans="1:10">
+    <row r="183" spans="1:10" ht="17.399999999999999">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
@@ -4200,7 +3617,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" ht="17.25" spans="1:10">
+    <row r="184" spans="1:10" ht="17.399999999999999">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -4212,7 +3629,7 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" ht="17.25" spans="1:10">
+    <row r="185" spans="1:10" ht="17.399999999999999">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -4224,7 +3641,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" ht="17.25" spans="1:10">
+    <row r="186" spans="1:10" ht="17.399999999999999">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -4236,7 +3653,7 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" ht="17.25" spans="1:10">
+    <row r="187" spans="1:10" ht="17.399999999999999">
       <c r="A187" s="13"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4"/>
@@ -4248,7 +3665,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" ht="17.25" spans="1:10">
+    <row r="188" spans="1:10" ht="17.399999999999999">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4"/>
@@ -4260,7 +3677,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" ht="17.25" spans="1:10">
+    <row r="189" spans="1:10" ht="17.399999999999999">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4"/>
@@ -4272,7 +3689,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" ht="17.25" spans="1:10">
+    <row r="190" spans="1:10" ht="17.399999999999999">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="4"/>
@@ -4284,7 +3701,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" ht="17.25" spans="1:10">
+    <row r="191" spans="1:10" ht="17.399999999999999">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="4"/>
@@ -4296,7 +3713,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" ht="17.25" spans="1:10">
+    <row r="192" spans="1:10" ht="17.399999999999999">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4"/>
@@ -4308,7 +3725,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" ht="17.25" spans="1:10">
+    <row r="193" spans="1:10" ht="17.399999999999999">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4"/>
@@ -4320,7 +3737,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" ht="17.25" spans="1:10">
+    <row r="194" spans="1:10" ht="17.399999999999999">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4"/>
@@ -4332,7 +3749,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" ht="17.25" spans="1:10">
+    <row r="195" spans="1:10" ht="17.399999999999999">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4"/>
@@ -4344,7 +3761,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" ht="17.25" spans="1:10">
+    <row r="196" spans="1:10" ht="17.399999999999999">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -4356,7 +3773,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" ht="17.25" spans="1:10">
+    <row r="197" spans="1:10" ht="17.399999999999999">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4"/>
@@ -4368,7 +3785,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" ht="17.25" spans="1:10">
+    <row r="198" spans="1:10" ht="17.399999999999999">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="4"/>
@@ -4380,7 +3797,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" ht="17.25" spans="1:10">
+    <row r="199" spans="1:10" ht="17.399999999999999">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="4"/>
@@ -4392,7 +3809,7 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" ht="17.25" spans="1:10">
+    <row r="200" spans="1:10" ht="17.399999999999999">
       <c r="A200" s="13"/>
       <c r="B200" s="15"/>
       <c r="C200" s="7"/>
@@ -4404,7 +3821,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" ht="17.25" spans="1:10">
+    <row r="201" spans="1:10" ht="17.399999999999999">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="4"/>
@@ -4416,7 +3833,7 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" ht="17.25" spans="1:10">
+    <row r="202" spans="1:10" ht="17.399999999999999">
       <c r="A202" s="13"/>
       <c r="B202" s="15"/>
       <c r="C202" s="7"/>
@@ -4428,7 +3845,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" ht="17.25" spans="1:10">
+    <row r="203" spans="1:10" ht="17.399999999999999">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4"/>
@@ -4440,7 +3857,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" ht="17.25" spans="1:10">
+    <row r="204" spans="1:10" ht="17.399999999999999">
       <c r="A204" s="5"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4"/>
@@ -4452,7 +3869,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" ht="17.25" spans="1:10">
+    <row r="205" spans="1:10" ht="17.399999999999999">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4"/>
@@ -4464,7 +3881,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" ht="17.25" spans="1:10">
+    <row r="206" spans="1:10" ht="17.399999999999999">
       <c r="A206" s="5"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
@@ -4476,7 +3893,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" ht="17.25" spans="1:10">
+    <row r="207" spans="1:10" ht="17.399999999999999">
       <c r="A207" s="5"/>
       <c r="B207" s="2"/>
       <c r="C207" s="7"/>
@@ -4488,7 +3905,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" ht="17.25" spans="1:10">
+    <row r="208" spans="1:10" ht="17.399999999999999">
       <c r="A208" s="5"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4"/>
@@ -4500,7 +3917,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" ht="17.25" spans="1:10">
+    <row r="209" spans="1:10" ht="17.399999999999999">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4"/>
@@ -4512,7 +3929,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" ht="17.25" spans="1:10">
+    <row r="210" spans="1:10" ht="17.399999999999999">
       <c r="A210" s="5"/>
       <c r="B210" s="22"/>
       <c r="C210" s="7"/>
@@ -4524,7 +3941,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" ht="17.25" spans="1:10">
+    <row r="211" spans="1:10" ht="17.399999999999999">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
       <c r="C211" s="4"/>
@@ -4536,7 +3953,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" ht="17.25" spans="1:10">
+    <row r="212" spans="1:10" ht="17.399999999999999">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
       <c r="C212" s="4"/>
@@ -4548,7 +3965,7 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" ht="17.25" spans="1:10">
+    <row r="213" spans="1:10" ht="17.399999999999999">
       <c r="A213" s="13"/>
       <c r="B213" s="23"/>
       <c r="C213" s="7"/>
@@ -4560,7 +3977,7 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" ht="17.25" spans="1:10">
+    <row r="214" spans="1:10" ht="17.399999999999999">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="4"/>
@@ -4572,7 +3989,7 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" ht="17.25" spans="1:10">
+    <row r="215" spans="1:10" ht="17.399999999999999">
       <c r="A215" s="13"/>
       <c r="B215" s="15"/>
       <c r="C215" s="7"/>
@@ -4584,7 +4001,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" ht="17.25" spans="1:10">
+    <row r="216" spans="1:10" ht="17.399999999999999">
       <c r="A216" s="5"/>
       <c r="B216" s="6"/>
       <c r="C216" s="4"/>
@@ -4596,7 +4013,7 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" ht="17.25" spans="1:10">
+    <row r="217" spans="1:10" ht="17.399999999999999">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
       <c r="C217" s="4"/>
@@ -4608,7 +4025,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" ht="17.25" spans="1:10">
+    <row r="218" spans="1:10" ht="17.399999999999999">
       <c r="A218" s="5"/>
       <c r="B218" s="6"/>
       <c r="C218" s="4"/>
@@ -4620,7 +4037,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" ht="17.25" spans="1:10">
+    <row r="219" spans="1:10" ht="17.399999999999999">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
@@ -4632,7 +4049,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" ht="17.25" spans="1:10">
+    <row r="220" spans="1:10" ht="17.399999999999999">
       <c r="A220" s="5"/>
       <c r="B220" s="6"/>
       <c r="C220" s="4"/>
@@ -4644,7 +4061,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" ht="17.25" spans="1:10">
+    <row r="221" spans="1:10" ht="17.399999999999999">
       <c r="A221" s="5"/>
       <c r="B221" s="6"/>
       <c r="C221" s="4"/>
@@ -4656,7 +4073,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" ht="17.25" spans="1:10">
+    <row r="222" spans="1:10" ht="17.399999999999999">
       <c r="A222" s="5"/>
       <c r="B222" s="6"/>
       <c r="C222" s="4"/>
@@ -4668,7 +4085,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" ht="17.25" spans="1:10">
+    <row r="223" spans="1:10" ht="17.399999999999999">
       <c r="A223" s="5"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
@@ -4680,7 +4097,7 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" ht="17.25" spans="1:10">
+    <row r="224" spans="1:10" ht="17.399999999999999">
       <c r="A224" s="5"/>
       <c r="B224" s="6"/>
       <c r="C224" s="4"/>
@@ -4692,7 +4109,7 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" ht="17.25" spans="1:10">
+    <row r="225" spans="1:10" ht="17.399999999999999">
       <c r="A225" s="13"/>
       <c r="B225" s="15"/>
       <c r="C225" s="7"/>
@@ -4704,7 +4121,7 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" ht="17.25" spans="1:10">
+    <row r="226" spans="1:10" ht="17.399999999999999">
       <c r="A226" s="5"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
@@ -4716,7 +4133,7 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" ht="17.25" spans="1:10">
+    <row r="227" spans="1:10" ht="17.399999999999999">
       <c r="A227" s="5"/>
       <c r="B227" s="6"/>
       <c r="C227" s="4"/>
@@ -4728,7 +4145,7 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" ht="17.25" spans="1:10">
+    <row r="228" spans="1:10" ht="17.399999999999999">
       <c r="A228" s="5"/>
       <c r="B228" s="6"/>
       <c r="C228" s="4"/>
@@ -4740,7 +4157,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" ht="17.25" spans="1:10">
+    <row r="229" spans="1:10" ht="17.399999999999999">
       <c r="A229" s="5"/>
       <c r="B229" s="6"/>
       <c r="C229" s="4"/>
@@ -4752,7 +4169,7 @@
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" ht="17.25" spans="1:10">
+    <row r="230" spans="1:10" ht="17.399999999999999">
       <c r="A230" s="5"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
@@ -4764,7 +4181,7 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" ht="17.25" spans="1:10">
+    <row r="231" spans="1:10" ht="17.399999999999999">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -4776,7 +4193,7 @@
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" ht="17.25" spans="1:10">
+    <row r="232" spans="1:10" ht="17.399999999999999">
       <c r="A232" s="5"/>
       <c r="B232" s="6"/>
       <c r="C232" s="4"/>
@@ -4788,7 +4205,7 @@
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" ht="17.25" spans="1:10">
+    <row r="233" spans="1:10" ht="17.399999999999999">
       <c r="A233" s="5"/>
       <c r="B233" s="6"/>
       <c r="C233" s="4"/>
@@ -4800,7 +4217,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" ht="17.25" spans="1:10">
+    <row r="234" spans="1:10" ht="17.399999999999999">
       <c r="A234" s="5"/>
       <c r="B234" s="6"/>
       <c r="C234" s="4"/>
@@ -4812,7 +4229,7 @@
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" ht="17.25" spans="1:10">
+    <row r="235" spans="1:10" ht="17.399999999999999">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
@@ -4824,7 +4241,7 @@
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" ht="17.25" spans="1:10">
+    <row r="236" spans="1:10" ht="17.399999999999999">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="4"/>
@@ -4836,7 +4253,7 @@
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" ht="17.25" spans="1:10">
+    <row r="237" spans="1:10" ht="17.399999999999999">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="4"/>
@@ -4848,7 +4265,7 @@
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" ht="17.25" spans="1:10">
+    <row r="238" spans="1:10" ht="17.399999999999999">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="4"/>
@@ -4860,7 +4277,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" ht="17.25" spans="1:10">
+    <row r="239" spans="1:10" ht="17.399999999999999">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="4"/>
@@ -4872,7 +4289,7 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" ht="17.25" spans="1:10">
+    <row r="240" spans="1:10" ht="17.399999999999999">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="4"/>
@@ -4884,7 +4301,7 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" ht="17.25" spans="1:10">
+    <row r="241" spans="1:10" ht="17.399999999999999">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="4"/>
@@ -4896,7 +4313,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" ht="17.25" spans="1:10">
+    <row r="242" spans="1:10" ht="17.399999999999999">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="4"/>
@@ -4908,7 +4325,7 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" ht="17.25" spans="1:10">
+    <row r="243" spans="1:10" ht="17.399999999999999">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="4"/>
@@ -4920,7 +4337,7 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" ht="17.25" spans="1:10">
+    <row r="244" spans="1:10" ht="17.399999999999999">
       <c r="A244" s="13"/>
       <c r="B244" s="15"/>
       <c r="C244" s="7"/>
@@ -4932,7 +4349,7 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" ht="17.25" spans="1:10">
+    <row r="245" spans="1:10" ht="17.399999999999999">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="4"/>
@@ -4944,7 +4361,7 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" ht="17.25" spans="1:10">
+    <row r="246" spans="1:10" ht="17.399999999999999">
       <c r="A246" s="1"/>
       <c r="B246" s="3"/>
       <c r="C246" s="4"/>
@@ -4956,7 +4373,7 @@
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" ht="17.25" spans="1:10">
+    <row r="247" spans="1:10" ht="17.399999999999999">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="4"/>
@@ -4968,7 +4385,7 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" ht="17.25" spans="1:10">
+    <row r="248" spans="1:10" ht="17.399999999999999">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="4"/>
@@ -4980,7 +4397,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" ht="17.25" spans="1:10">
+    <row r="249" spans="1:10" ht="17.399999999999999">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="4"/>
@@ -4992,7 +4409,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" ht="17.25" spans="1:10">
+    <row r="250" spans="1:10" ht="17.399999999999999">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="4"/>
@@ -5004,7 +4421,7 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" ht="17.25" spans="1:10">
+    <row r="251" spans="1:10" ht="17.399999999999999">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="4"/>
@@ -5016,7 +4433,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" ht="17.25" spans="1:10">
+    <row r="252" spans="1:10" ht="17.399999999999999">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="4"/>
@@ -5028,7 +4445,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" ht="17.25" spans="1:10">
+    <row r="253" spans="1:10" ht="17.399999999999999">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
@@ -5040,7 +4457,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" ht="17.25" spans="1:10">
+    <row r="254" spans="1:10" ht="17.399999999999999">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="4"/>
@@ -5052,7 +4469,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" ht="17.25" spans="1:10">
+    <row r="255" spans="1:10" ht="17.399999999999999">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="4"/>
@@ -5064,7 +4481,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" ht="17.25" spans="1:10">
+    <row r="256" spans="1:10" ht="17.399999999999999">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="4"/>
@@ -5076,7 +4493,7 @@
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" ht="17.25" spans="1:10">
+    <row r="257" spans="1:10" ht="17.399999999999999">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
@@ -5088,7 +4505,7 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" ht="17.25" spans="1:10">
+    <row r="258" spans="1:10" ht="17.399999999999999">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="4"/>
@@ -5100,7 +4517,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" ht="17.25" spans="1:10">
+    <row r="259" spans="1:10" ht="17.399999999999999">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="4"/>
@@ -5112,7 +4529,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" ht="17.25" spans="1:10">
+    <row r="260" spans="1:10" ht="17.399999999999999">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="4"/>
@@ -5124,7 +4541,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" ht="17.25" spans="1:10">
+    <row r="261" spans="1:10" ht="17.399999999999999">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="4"/>
@@ -5136,7 +4553,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" ht="17.25" spans="1:10">
+    <row r="262" spans="1:10" ht="17.399999999999999">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="4"/>
@@ -5148,7 +4565,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" ht="17.25" spans="1:10">
+    <row r="263" spans="1:10" ht="17.399999999999999">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="4"/>
@@ -5160,7 +4577,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" ht="17.25" spans="1:10">
+    <row r="264" spans="1:10" ht="17.399999999999999">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="4"/>
@@ -5172,7 +4589,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" ht="17.25" spans="1:10">
+    <row r="265" spans="1:10" ht="17.399999999999999">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="4"/>
@@ -5184,7 +4601,7 @@
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266" ht="17.25" spans="1:10">
+    <row r="266" spans="1:10" ht="17.399999999999999">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
@@ -5196,7 +4613,7 @@
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267" ht="17.25" spans="1:10">
+    <row r="267" spans="1:10" ht="17.399999999999999">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="4"/>
@@ -5208,7 +4625,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268" ht="17.25" spans="1:10">
+    <row r="268" spans="1:10" ht="17.399999999999999">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="4"/>
@@ -5220,7 +4637,7 @@
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269" ht="17.25" spans="1:10">
+    <row r="269" spans="1:10" ht="17.399999999999999">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="4"/>
@@ -5232,7 +4649,7 @@
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270" ht="17.25" spans="1:10">
+    <row r="270" spans="1:10" ht="17.399999999999999">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="4"/>
@@ -5244,7 +4661,7 @@
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271" ht="17.25" spans="1:10">
+    <row r="271" spans="1:10" ht="17.399999999999999">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="4"/>
@@ -5256,7 +4673,7 @@
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272" ht="17.25" spans="1:10">
+    <row r="272" spans="1:10" ht="17.399999999999999">
       <c r="A272" s="13"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
@@ -5268,7 +4685,7 @@
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273" ht="17.25" spans="1:10">
+    <row r="273" spans="1:10" ht="17.399999999999999">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="4"/>
@@ -5280,7 +4697,7 @@
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274" ht="17.25" spans="1:10">
+    <row r="274" spans="1:10" ht="17.399999999999999">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="4"/>
@@ -5292,7 +4709,7 @@
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275" ht="17.25" spans="1:10">
+    <row r="275" spans="1:10" ht="17.399999999999999">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="4"/>
@@ -5304,7 +4721,7 @@
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
     </row>
-    <row r="276" ht="17.25" spans="1:10">
+    <row r="276" spans="1:10" ht="17.399999999999999">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="4"/>
@@ -5316,7 +4733,7 @@
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" ht="17.25" spans="1:10">
+    <row r="277" spans="1:10" ht="17.399999999999999">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="4"/>
@@ -5328,7 +4745,7 @@
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278" ht="17.25" spans="1:10">
+    <row r="278" spans="1:10" ht="17.399999999999999">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="4"/>
@@ -5340,7 +4757,7 @@
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" ht="17.25" spans="1:10">
+    <row r="279" spans="1:10" ht="17.399999999999999">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="4"/>
@@ -5352,7 +4769,7 @@
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280" ht="17.25" spans="1:10">
+    <row r="280" spans="1:10" ht="17.399999999999999">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="4"/>
@@ -5364,7 +4781,7 @@
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281" ht="17.25" spans="1:10">
+    <row r="281" spans="1:10" ht="17.399999999999999">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="4"/>
@@ -5376,7 +4793,7 @@
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282" ht="17.25" spans="1:10">
+    <row r="282" spans="1:10" ht="17.399999999999999">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="4"/>
@@ -5388,7 +4805,7 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283" ht="17.25" spans="1:10">
+    <row r="283" spans="1:10" ht="17.399999999999999">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="4"/>
@@ -5400,7 +4817,7 @@
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" ht="17.25" spans="1:10">
+    <row r="284" spans="1:10" ht="17.399999999999999">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="4"/>
@@ -5412,7 +4829,7 @@
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" ht="17.25" spans="1:10">
+    <row r="285" spans="1:10" ht="17.399999999999999">
       <c r="A285" s="13"/>
       <c r="B285" s="6"/>
       <c r="C285" s="4"/>
@@ -5424,7 +4841,7 @@
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" ht="17.25" spans="1:10">
+    <row r="286" spans="1:10" ht="17.399999999999999">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="4"/>
@@ -5436,7 +4853,7 @@
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" ht="17.25" spans="1:10">
+    <row r="287" spans="1:10" ht="17.399999999999999">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="4"/>
@@ -5448,7 +4865,7 @@
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" ht="17.25" spans="1:10">
+    <row r="288" spans="1:10" ht="17.399999999999999">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="4"/>
@@ -5460,7 +4877,7 @@
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" ht="17.25" spans="1:10">
+    <row r="289" spans="1:10" ht="17.399999999999999">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="4"/>
@@ -5472,7 +4889,7 @@
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" ht="17.25" spans="1:10">
+    <row r="290" spans="1:10" ht="17.399999999999999">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="4"/>
@@ -5484,7 +4901,7 @@
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291" ht="17.25" spans="1:10">
+    <row r="291" spans="1:10" ht="17.399999999999999">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="4"/>
@@ -5496,7 +4913,7 @@
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" ht="17.25" spans="1:10">
+    <row r="292" spans="1:10" ht="17.399999999999999">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="4"/>
@@ -5508,7 +4925,7 @@
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" ht="17.25" spans="1:10">
+    <row r="293" spans="1:10" ht="17.399999999999999">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="4"/>
@@ -5520,7 +4937,7 @@
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" ht="17.25" spans="1:10">
+    <row r="294" spans="1:10" ht="17.399999999999999">
       <c r="A294" s="13"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
@@ -5532,7 +4949,7 @@
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" ht="17.25" spans="1:10">
+    <row r="295" spans="1:10" ht="17.399999999999999">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="4"/>
@@ -5544,7 +4961,7 @@
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" ht="17.25" spans="1:10">
+    <row r="296" spans="1:10" ht="17.399999999999999">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="4"/>
@@ -5556,7 +4973,7 @@
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" ht="17.25" spans="1:10">
+    <row r="297" spans="1:10" ht="17.399999999999999">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="4"/>
@@ -5568,7 +4985,7 @@
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" ht="17.25" spans="1:10">
+    <row r="298" spans="1:10" ht="17.399999999999999">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="4"/>
@@ -5580,7 +4997,7 @@
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
     </row>
-    <row r="299" ht="17.25" spans="1:10">
+    <row r="299" spans="1:10" ht="17.399999999999999">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="4"/>
@@ -5592,7 +5009,7 @@
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" ht="17.25" spans="1:10">
+    <row r="300" spans="1:10" ht="17.399999999999999">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="4"/>
@@ -5604,7 +5021,7 @@
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" ht="17.25" spans="1:10">
+    <row r="301" spans="1:10" ht="17.399999999999999">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="4"/>
@@ -5616,7 +5033,7 @@
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" ht="17.25" spans="1:10">
+    <row r="302" spans="1:10" ht="17.399999999999999">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="4"/>
@@ -5628,7 +5045,7 @@
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" ht="17.25" spans="1:10">
+    <row r="303" spans="1:10" ht="17.399999999999999">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="4"/>
@@ -5640,7 +5057,7 @@
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" ht="17.25" spans="1:10">
+    <row r="304" spans="1:10" ht="17.399999999999999">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="4"/>
@@ -5652,7 +5069,7 @@
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" ht="17.25" spans="1:10">
+    <row r="305" spans="1:10" ht="17.399999999999999">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="4"/>
@@ -5664,7 +5081,7 @@
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" ht="17.25" spans="1:10">
+    <row r="306" spans="1:10" ht="17.399999999999999">
       <c r="A306" s="13"/>
       <c r="B306" s="15"/>
       <c r="C306" s="14"/>
@@ -5676,7 +5093,7 @@
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" ht="17.25" spans="1:10">
+    <row r="307" spans="1:10" ht="17.399999999999999">
       <c r="A307" s="13"/>
       <c r="B307" s="6"/>
       <c r="C307" s="4"/>
@@ -5688,7 +5105,7 @@
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
     </row>
-    <row r="308" ht="17.25" spans="1:10">
+    <row r="308" spans="1:10" ht="17.399999999999999">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="4"/>
@@ -5700,7 +5117,7 @@
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" ht="17.25" spans="1:10">
+    <row r="309" spans="1:10" ht="17.399999999999999">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
@@ -5712,7 +5129,7 @@
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" ht="17.25" spans="1:10">
+    <row r="310" spans="1:10" ht="17.399999999999999">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="4"/>
@@ -5724,7 +5141,7 @@
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" ht="17.25" spans="1:10">
+    <row r="311" spans="1:10" ht="17.399999999999999">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="4"/>
@@ -5736,7 +5153,7 @@
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
     </row>
-    <row r="312" ht="17.25" spans="1:10">
+    <row r="312" spans="1:10" ht="17.399999999999999">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="4"/>
@@ -5748,7 +5165,7 @@
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" ht="17.25" spans="1:10">
+    <row r="313" spans="1:10" ht="17.399999999999999">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="4"/>
@@ -5760,7 +5177,7 @@
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" ht="17.25" spans="1:10">
+    <row r="314" spans="1:10" ht="17.399999999999999">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="4"/>
@@ -5772,7 +5189,7 @@
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" ht="17.25" spans="1:10">
+    <row r="315" spans="1:10" ht="17.399999999999999">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="4"/>
@@ -5784,7 +5201,7 @@
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" ht="17.25" spans="1:10">
+    <row r="316" spans="1:10" ht="17.399999999999999">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="4"/>
@@ -5796,7 +5213,7 @@
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" ht="17.25" spans="1:10">
+    <row r="317" spans="1:10" ht="17.399999999999999">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="4"/>
@@ -5808,7 +5225,7 @@
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" ht="17.25" spans="1:10">
+    <row r="318" spans="1:10" ht="17.399999999999999">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="4"/>
@@ -5820,7 +5237,7 @@
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" ht="17.25" spans="1:10">
+    <row r="319" spans="1:10" ht="17.399999999999999">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="4"/>
@@ -5832,7 +5249,7 @@
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" ht="17.25" spans="1:10">
+    <row r="320" spans="1:10" ht="17.399999999999999">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="4"/>
@@ -5844,7 +5261,7 @@
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" ht="17.25" spans="1:10">
+    <row r="321" spans="1:10" ht="17.399999999999999">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="4"/>
@@ -5856,7 +5273,7 @@
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" ht="17.25" spans="1:10">
+    <row r="322" spans="1:10" ht="17.399999999999999">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="4"/>
@@ -5868,7 +5285,7 @@
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" ht="17.25" spans="1:10">
+    <row r="323" spans="1:10" ht="17.399999999999999">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="4"/>
@@ -5880,7 +5297,7 @@
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" ht="17.25" spans="1:10">
+    <row r="324" spans="1:10" ht="17.399999999999999">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="4"/>
@@ -5892,7 +5309,7 @@
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" ht="17.25" spans="1:10">
+    <row r="325" spans="1:10" ht="17.399999999999999">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="4"/>
@@ -5904,7 +5321,7 @@
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" ht="17.25" spans="1:10">
+    <row r="326" spans="1:10" ht="17.399999999999999">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="4"/>
@@ -5916,7 +5333,7 @@
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327" ht="17.25" spans="1:10">
+    <row r="327" spans="1:10" ht="17.399999999999999">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="4"/>
@@ -5928,7 +5345,7 @@
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" ht="17.25" spans="1:10">
+    <row r="328" spans="1:10" ht="17.399999999999999">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="4"/>
@@ -5940,7 +5357,7 @@
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" ht="17.25" spans="1:10">
+    <row r="329" spans="1:10" ht="17.399999999999999">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="4"/>
@@ -5952,7 +5369,7 @@
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" ht="17.25" spans="1:10">
+    <row r="330" spans="1:10" ht="17.399999999999999">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="4"/>
@@ -5964,7 +5381,7 @@
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" ht="17.25" spans="1:10">
+    <row r="331" spans="1:10" ht="17.399999999999999">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="4"/>
@@ -5976,7 +5393,7 @@
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" ht="17.25" spans="1:10">
+    <row r="332" spans="1:10" ht="17.399999999999999">
       <c r="A332" s="13"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
@@ -5988,7 +5405,7 @@
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" ht="17.25" spans="1:10">
+    <row r="333" spans="1:10" ht="17.399999999999999">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="4"/>
@@ -6000,7 +5417,7 @@
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" ht="17.25" spans="1:10">
+    <row r="334" spans="1:10" ht="17.399999999999999">
       <c r="A334" s="13"/>
       <c r="B334" s="6"/>
       <c r="C334" s="4"/>
@@ -6012,7 +5429,7 @@
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" ht="17.25" spans="1:10">
+    <row r="335" spans="1:10" ht="17.399999999999999">
       <c r="A335" s="13"/>
       <c r="B335" s="23"/>
       <c r="C335" s="7"/>
@@ -6024,7 +5441,7 @@
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" ht="17.25" spans="1:10">
+    <row r="336" spans="1:10" ht="17.399999999999999">
       <c r="A336" s="13"/>
       <c r="B336" s="6"/>
       <c r="C336" s="4"/>
@@ -6036,7 +5453,7 @@
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" ht="17.25" spans="1:10">
+    <row r="337" spans="1:10" ht="17.399999999999999">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="4"/>
@@ -6048,7 +5465,7 @@
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" ht="17.25" spans="1:10">
+    <row r="338" spans="1:10" ht="17.399999999999999">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="4"/>
@@ -6060,7 +5477,7 @@
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" ht="17.25" spans="1:10">
+    <row r="339" spans="1:10" ht="17.399999999999999">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="4"/>
@@ -6072,7 +5489,7 @@
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" ht="17.25" spans="1:10">
+    <row r="340" spans="1:10" ht="17.399999999999999">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="4"/>
@@ -6084,7 +5501,7 @@
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" ht="17.25" spans="1:10">
+    <row r="341" spans="1:10" ht="17.399999999999999">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="4"/>
@@ -6096,7 +5513,7 @@
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342" ht="17.25" spans="1:10">
+    <row r="342" spans="1:10" ht="17.399999999999999">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="4"/>
@@ -6108,7 +5525,7 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343" ht="17.25" spans="1:10">
+    <row r="343" spans="1:10" ht="17.399999999999999">
       <c r="A343" s="13"/>
       <c r="B343" s="15"/>
       <c r="C343" s="14"/>
@@ -6120,7 +5537,7 @@
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344" ht="17.25" spans="1:10">
+    <row r="344" spans="1:10" ht="17.399999999999999">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="4"/>
@@ -6132,7 +5549,7 @@
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345" ht="17.25" spans="1:10">
+    <row r="345" spans="1:10" ht="17.399999999999999">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="4"/>
@@ -6144,7 +5561,7 @@
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346" ht="17.25" spans="1:10">
+    <row r="346" spans="1:10" ht="17.399999999999999">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="4"/>
@@ -6156,7 +5573,7 @@
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347" ht="17.25" spans="1:10">
+    <row r="347" spans="1:10" ht="17.399999999999999">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="4"/>
@@ -6168,7 +5585,7 @@
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348" ht="17.25" spans="1:10">
+    <row r="348" spans="1:10" ht="17.399999999999999">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="4"/>
@@ -6180,7 +5597,7 @@
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349" ht="17.25" spans="1:10">
+    <row r="349" spans="1:10" ht="17.399999999999999">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="4"/>
@@ -6192,7 +5609,7 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350" ht="17.25" spans="1:10">
+    <row r="350" spans="1:10" ht="17.399999999999999">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="4"/>
@@ -6204,7 +5621,7 @@
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351" ht="17.25" spans="1:10">
+    <row r="351" spans="1:10" ht="17.399999999999999">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="4"/>
@@ -6216,7 +5633,7 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352" ht="17.25" spans="1:10">
+    <row r="352" spans="1:10" ht="17.399999999999999">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="4"/>
@@ -6228,7 +5645,7 @@
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353" ht="17.25" spans="1:10">
+    <row r="353" spans="1:10" ht="17.399999999999999">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="4"/>
@@ -6240,7 +5657,7 @@
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354" ht="17.25" spans="1:10">
+    <row r="354" spans="1:10" ht="17.399999999999999">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="4"/>
@@ -6252,7 +5669,7 @@
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355" ht="17.25" spans="1:10">
+    <row r="355" spans="1:10" ht="17.399999999999999">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="4"/>
@@ -6264,7 +5681,7 @@
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" ht="17.25" spans="1:10">
+    <row r="356" spans="1:10" ht="17.399999999999999">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="4"/>
@@ -6276,7 +5693,7 @@
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357" ht="17.25" spans="1:10">
+    <row r="357" spans="1:10" ht="17.399999999999999">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="4"/>
@@ -6288,7 +5705,7 @@
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358" ht="17.25" spans="1:10">
+    <row r="358" spans="1:10" ht="17.399999999999999">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="4"/>
@@ -6300,7 +5717,7 @@
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359" ht="17.25" spans="1:10">
+    <row r="359" spans="1:10" ht="17.399999999999999">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="4"/>
@@ -6312,7 +5729,7 @@
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" ht="17.25" spans="1:10">
+    <row r="360" spans="1:10" ht="17.399999999999999">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="4"/>
@@ -6324,7 +5741,7 @@
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361" ht="17.25" spans="1:10">
+    <row r="361" spans="1:10" ht="17.399999999999999">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="4"/>
@@ -6336,7 +5753,7 @@
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362" ht="17.25" spans="1:10">
+    <row r="362" spans="1:10" ht="17.399999999999999">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="4"/>
@@ -6348,7 +5765,7 @@
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363" ht="17.25" spans="1:10">
+    <row r="363" spans="1:10" ht="17.399999999999999">
       <c r="A363" s="1"/>
       <c r="B363" s="6"/>
       <c r="C363" s="4"/>
@@ -6360,7 +5777,7 @@
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364" ht="17.25" spans="1:10">
+    <row r="364" spans="1:10" ht="17.399999999999999">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="4"/>
@@ -6372,7 +5789,7 @@
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365" ht="17.25" spans="1:10">
+    <row r="365" spans="1:10" ht="17.399999999999999">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="4"/>
@@ -6384,7 +5801,7 @@
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366" ht="17.25" spans="1:10">
+    <row r="366" spans="1:10" ht="17.399999999999999">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="4"/>
@@ -6396,7 +5813,7 @@
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367" ht="17.25" spans="1:10">
+    <row r="367" spans="1:10" ht="17.399999999999999">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="4"/>
@@ -6408,7 +5825,7 @@
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368" ht="17.25" spans="1:10">
+    <row r="368" spans="1:10" ht="17.399999999999999">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="4"/>
@@ -6420,7 +5837,7 @@
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369" ht="17.25" spans="1:10">
+    <row r="369" spans="1:10" ht="17.399999999999999">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="4"/>
@@ -6432,7 +5849,7 @@
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370" ht="17.25" spans="1:10">
+    <row r="370" spans="1:10" ht="17.399999999999999">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="4"/>
@@ -6444,7 +5861,7 @@
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371" ht="17.25" spans="1:10">
+    <row r="371" spans="1:10" ht="17.399999999999999">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="4"/>
@@ -6456,7 +5873,7 @@
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372" ht="17.25" spans="1:10">
+    <row r="372" spans="1:10" ht="17.399999999999999">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="4"/>
@@ -6468,7 +5885,7 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373" ht="17.25" spans="1:10">
+    <row r="373" spans="1:10" ht="17.399999999999999">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="4"/>
@@ -6480,7 +5897,7 @@
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374" ht="17.25" spans="1:10">
+    <row r="374" spans="1:10" ht="17.399999999999999">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="4"/>
@@ -6492,7 +5909,7 @@
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
     </row>
-    <row r="375" ht="17.25" spans="1:10">
+    <row r="375" spans="1:10" ht="17.399999999999999">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="4"/>
@@ -6504,7 +5921,7 @@
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
     </row>
-    <row r="376" ht="17.25" spans="1:10">
+    <row r="376" spans="1:10" ht="17.399999999999999">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="4"/>
@@ -6516,7 +5933,7 @@
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
     </row>
-    <row r="377" ht="17.25" spans="1:10">
+    <row r="377" spans="1:10" ht="17.399999999999999">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="4"/>
@@ -6528,7 +5945,7 @@
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
     </row>
-    <row r="378" ht="17.25" spans="1:10">
+    <row r="378" spans="1:10" ht="17.399999999999999">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="4"/>
@@ -6540,7 +5957,7 @@
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
     </row>
-    <row r="379" ht="17.25" spans="1:10">
+    <row r="379" spans="1:10" ht="17.399999999999999">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
@@ -6552,7 +5969,7 @@
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
     </row>
-    <row r="380" ht="17.25" spans="1:10">
+    <row r="380" spans="1:10" ht="17.399999999999999">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="4"/>
@@ -6564,7 +5981,7 @@
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
     </row>
-    <row r="381" ht="17.25" spans="1:10">
+    <row r="381" spans="1:10" ht="17.399999999999999">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="4"/>
@@ -6576,7 +5993,7 @@
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
     </row>
-    <row r="382" ht="17.25" spans="1:10">
+    <row r="382" spans="1:10" ht="17.399999999999999">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="4"/>
@@ -6588,7 +6005,7 @@
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
     </row>
-    <row r="383" ht="17.25" spans="1:10">
+    <row r="383" spans="1:10" ht="17.399999999999999">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="4"/>
@@ -6600,7 +6017,7 @@
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
     </row>
-    <row r="384" ht="17.25" spans="1:10">
+    <row r="384" spans="1:10" ht="17.399999999999999">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="4"/>
@@ -6612,7 +6029,7 @@
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
     </row>
-    <row r="385" ht="17.25" spans="1:10">
+    <row r="385" spans="1:10" ht="17.399999999999999">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="4"/>
@@ -6624,7 +6041,7 @@
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
     </row>
-    <row r="386" ht="17.25" spans="1:10">
+    <row r="386" spans="1:10" ht="17.399999999999999">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="4"/>
@@ -6636,7 +6053,7 @@
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
     </row>
-    <row r="387" ht="17.25" spans="1:10">
+    <row r="387" spans="1:10" ht="17.399999999999999">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="4"/>
@@ -6648,7 +6065,7 @@
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
     </row>
-    <row r="388" ht="17.25" spans="1:10">
+    <row r="388" spans="1:10" ht="17.399999999999999">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
@@ -6660,7 +6077,7 @@
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
     </row>
-    <row r="389" ht="17.25" spans="1:10">
+    <row r="389" spans="1:10" ht="17.399999999999999">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="4"/>
@@ -6672,7 +6089,7 @@
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
     </row>
-    <row r="390" ht="17.25" spans="1:10">
+    <row r="390" spans="1:10" ht="17.399999999999999">
       <c r="A390" s="13"/>
       <c r="B390" s="15"/>
       <c r="C390" s="14"/>
@@ -6684,7 +6101,7 @@
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
     </row>
-    <row r="391" ht="17.25" spans="1:10">
+    <row r="391" spans="1:10" ht="17.399999999999999">
       <c r="A391" s="13"/>
       <c r="B391" s="23"/>
       <c r="C391" s="14"/>
@@ -6696,7 +6113,7 @@
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
     </row>
-    <row r="392" ht="17.25" spans="1:10">
+    <row r="392" spans="1:10" ht="17.399999999999999">
       <c r="A392" s="13"/>
       <c r="B392" s="23"/>
       <c r="C392" s="14"/>
@@ -6708,7 +6125,7 @@
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
     </row>
-    <row r="393" ht="17.25" spans="1:10">
+    <row r="393" spans="1:10" ht="17.399999999999999">
       <c r="A393" s="13"/>
       <c r="B393" s="23"/>
       <c r="C393" s="14"/>
@@ -6720,7 +6137,7 @@
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
     </row>
-    <row r="394" ht="17.25" spans="1:10">
+    <row r="394" spans="1:10" ht="17.399999999999999">
       <c r="A394" s="13"/>
       <c r="B394" s="23"/>
       <c r="C394" s="14"/>
@@ -6733,18 +6150,20 @@
       <c r="J394" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E390">
-    <sortState ref="A1:E390">
-      <sortCondition ref="A1:A390"/>
+  <autoFilter ref="A1:F65" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+      <sortCondition ref="A1:A65"/>
     </sortState>
-    <extLst/>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+    <sortCondition descending="1" ref="F2:F65"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="https://www.bilibili.com/video/BV1PY411u7sg"/>
-    <hyperlink ref="C15" r:id="rId2" display="https://www.bilibili.com/video/BV1dL411p75E"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C84FB-06B6-4EC8-BF41-D4F0B3742F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$390</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
   <si>
     <t>歌名</t>
   </si>
@@ -271,9 +265,6 @@
     <t>阿肆</t>
   </si>
   <si>
-    <t>https://www.bilibili.com/video/BV19B4y1N7Et</t>
-  </si>
-  <si>
     <t>神的随波逐流</t>
   </si>
   <si>
@@ -316,9 +307,6 @@
     <t>acane_madder</t>
   </si>
   <si>
-    <t>https://www.bilibili.com/video/BV1Kh411f7R7</t>
-  </si>
-  <si>
     <t>兔子先生</t>
   </si>
   <si>
@@ -484,15 +472,29 @@
     <t>大吉</t>
   </si>
   <si>
-    <t>是否新歌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>玛德琳娜电塔</t>
+  </si>
+  <si>
+    <t>Soda纯白 / warma</t>
+  </si>
+  <si>
+    <t>银河与星斗</t>
+  </si>
+  <si>
+    <t>yihuik苡慧</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -582,46 +584,367 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
       <name val="-apple-system"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF18191C"/>
       <name val="-apple-system"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -629,12 +952,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -671,7 +1233,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -706,18 +1268,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -975,31 +1580,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="63" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="10" width="11" customWidth="1"/>
+    <col min="6" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
+    <row r="1" ht="17.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,15 +1620,13 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999">
+    <row r="2" ht="17.25" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1041,74 +1644,70 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
-      <c r="A3" s="19" t="s">
-        <v>149</v>
+    <row r="3" ht="17.25" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="17.399999999999999">
+    <row r="4" ht="17.25" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="17.399999999999999">
+    <row r="5" ht="17.25" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999">
+    <row r="6" ht="17.25" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1117,34 +1716,34 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="17.399999999999999">
+    <row r="7" ht="17.25" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="17.399999999999999">
+    <row r="8" ht="17.25" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1153,16 +1752,16 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="17.399999999999999">
+    <row r="9" ht="17.25" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1171,16 +1770,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
+    <row r="10" ht="17.25" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1189,16 +1788,16 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
+    <row r="11" ht="17.25" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1207,16 +1806,16 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="17.399999999999999">
+    <row r="12" ht="17.25" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1225,36 +1824,36 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="17.399999999999999">
+    <row r="13" ht="17.25" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9" t="s">
-        <v>33</v>
+    <row r="14" ht="17.25" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1263,16 +1862,18 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="17.399999999999999">
+    <row r="15" ht="17.25" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1281,18 +1882,16 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="17.399999999999999">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
+    <row r="16" ht="17.25" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1301,74 +1900,70 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="17.399999999999999">
+    <row r="17" ht="17.25" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="17.399999999999999">
+    <row r="18" ht="17.25" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="17.399999999999999">
-      <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="9" t="s">
+    <row r="19" ht="17.25" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="17.399999999999999">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
-        <v>24</v>
+    <row r="20" ht="17.25" spans="1:10">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1377,16 +1972,16 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="17.399999999999999">
-      <c r="A21" s="5" t="s">
-        <v>48</v>
+    <row r="21" ht="17.25" spans="1:10">
+      <c r="A21" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
@@ -1395,16 +1990,16 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="17.399999999999999">
+    <row r="22" ht="17.25" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1413,34 +2008,34 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="17.399999999999999">
+    <row r="23" ht="17.25" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="17.399999999999999">
+    <row r="24" ht="17.25" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1449,32 +2044,32 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="17.399999999999999">
-      <c r="A25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="6"/>
+    <row r="25" ht="17.25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="17.399999999999999">
-      <c r="A26" s="5" t="s">
-        <v>57</v>
+    <row r="26" ht="17.25" spans="1:10">
+      <c r="A26" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C26" s="14"/>
       <c r="D26" s="6" t="s">
         <v>16</v>
       </c>
@@ -1485,12 +2080,12 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="17.399999999999999">
+    <row r="27" ht="17.25" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
@@ -1503,16 +2098,16 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999">
+    <row r="28" ht="17.25" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1521,54 +2116,54 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="4"/>
+    <row r="29" ht="17.25" spans="1:10">
+      <c r="A29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="17.399999999999999">
+    <row r="30" ht="17.25" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="17.399999999999999">
-      <c r="A31" s="13" t="s">
-        <v>65</v>
+    <row r="31" ht="17.25" spans="1:10">
+      <c r="A31" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1577,16 +2172,16 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="17.399999999999999">
+    <row r="32" ht="17.25" spans="1:10">
       <c r="A32" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1595,16 +2190,16 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="17.399999999999999">
-      <c r="A33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="4"/>
+    <row r="33" ht="17.25" spans="1:10">
+      <c r="A33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="14"/>
       <c r="D33" s="6" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1613,53 +2208,53 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="17.399999999999999">
-      <c r="A34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="6"/>
+    <row r="34" ht="17.25" spans="1:10">
+      <c r="A34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="17.399999999999999">
-      <c r="A35" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="4"/>
+    <row r="35" ht="17.25" spans="1:10">
+      <c r="A35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="17.399999999999999">
-      <c r="A36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="6" t="s">
+    <row r="36" ht="17.25" spans="1:10">
+      <c r="A36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="4"/>
@@ -1669,54 +2264,52 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999">
-      <c r="A37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="4"/>
+    <row r="37" ht="17.25" spans="1:10">
+      <c r="A37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="17.399999999999999">
+    <row r="38" ht="17.25" spans="1:10">
       <c r="A38" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="17.399999999999999">
+    <row r="39" ht="17.25" spans="1:10">
       <c r="A39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1725,36 +2318,34 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="17.399999999999999">
-      <c r="A40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>84</v>
-      </c>
+    <row r="40" ht="17.25" spans="1:10">
+      <c r="A40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="17.399999999999999">
-      <c r="A41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="9" t="s">
-        <v>40</v>
+    <row r="41" ht="17.25" spans="1:10">
+      <c r="A41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1763,16 +2354,16 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="17.399999999999999">
+    <row r="42" ht="17.25" spans="1:10">
       <c r="A42" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="9" t="s">
-        <v>24</v>
+      <c r="D42" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
@@ -1781,34 +2372,34 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" ht="17.399999999999999">
-      <c r="A43" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>90</v>
+    <row r="43" ht="17.25" spans="1:10">
+      <c r="A43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" ht="17.399999999999999">
-      <c r="A44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="6" t="s">
-        <v>94</v>
+    <row r="44" ht="17.25" spans="1:10">
+      <c r="A44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1817,18 +2408,16 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="17.399999999999999">
+    <row r="45" ht="17.25" spans="1:10">
       <c r="A45" s="5" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="6" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1837,16 +2426,16 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999">
+    <row r="46" ht="17.25" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1855,34 +2444,34 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="17.399999999999999">
+    <row r="47" ht="17.25" spans="1:10">
       <c r="A47" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="6"/>
+      <c r="D47" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="17.399999999999999">
+    <row r="48" ht="17.25" spans="1:10">
       <c r="A48" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1891,16 +2480,16 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" ht="17.399999999999999">
-      <c r="A49" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="9" t="s">
-        <v>24</v>
+    <row r="49" ht="17.25" spans="1:10">
+      <c r="A49" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1909,15 +2498,15 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" ht="17.399999999999999">
-      <c r="A50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="6" t="s">
+    <row r="50" ht="17.25" spans="1:10">
+      <c r="A50" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="4"/>
@@ -1927,16 +2516,16 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" ht="17.399999999999999">
+    <row r="51" ht="17.25" spans="1:10">
       <c r="A51" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1945,16 +2534,16 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" ht="17.399999999999999">
-      <c r="A52" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9" t="s">
-        <v>113</v>
+    <row r="52" ht="17.25" spans="1:10">
+      <c r="A52" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1963,16 +2552,16 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="17.399999999999999">
+    <row r="53" ht="17.25" spans="1:10">
       <c r="A53" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1981,16 +2570,16 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="17.399999999999999">
-      <c r="A54" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>118</v>
+    <row r="54" ht="17.25" spans="1:10">
+      <c r="A54" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -1999,16 +2588,16 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999">
-      <c r="A55" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9" t="s">
-        <v>40</v>
+    <row r="55" ht="17.25" spans="1:10">
+      <c r="A55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2017,16 +2606,16 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="6" t="s">
-        <v>124</v>
+    <row r="56" ht="17.25" spans="1:10">
+      <c r="A56" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2035,16 +2624,16 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999">
+    <row r="57" ht="17.25" spans="1:10">
       <c r="A57" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="6" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2053,16 +2642,16 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" ht="17.399999999999999">
+    <row r="58" ht="17.25" spans="1:10">
       <c r="A58" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="6" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2071,16 +2660,16 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" ht="17.399999999999999">
+    <row r="59" ht="17.25" spans="1:10">
       <c r="A59" s="5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="6" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2089,74 +2678,70 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" ht="17.399999999999999">
+    <row r="60" ht="17.25" spans="1:10">
       <c r="A60" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="17.399999999999999">
-      <c r="A61" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="7"/>
+    <row r="61" ht="17.25" spans="1:10">
+      <c r="A61" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" ht="17.399999999999999">
-      <c r="A62" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="4"/>
+    <row r="62" ht="17.25" spans="1:10">
+      <c r="A62" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="7"/>
       <c r="D62" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="E62" s="6"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="17.399999999999999">
-      <c r="A63" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9" t="s">
-        <v>30</v>
+    <row r="63" ht="17.25" spans="1:10">
+      <c r="A63" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2165,16 +2750,16 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" ht="17.399999999999999">
+    <row r="64" ht="17.25" spans="1:10">
       <c r="A64" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="6" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2183,16 +2768,16 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" ht="17.399999999999999">
+    <row r="65" ht="17.25" spans="1:10">
       <c r="A65" s="5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2201,11 +2786,17 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" ht="17.399999999999999">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
+    <row r="66" ht="17.25" spans="1:10">
+      <c r="A66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s">
+        <v>152</v>
+      </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -2213,11 +2804,17 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" ht="17.399999999999999">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
+    <row r="67" ht="17.25" spans="1:10">
+      <c r="A67" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s">
+        <v>154</v>
+      </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -2225,7 +2822,7 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" ht="17.399999999999999">
+    <row r="68" ht="17.25" spans="1:10">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
@@ -2237,7 +2834,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" ht="17.399999999999999">
+    <row r="69" ht="17.25" spans="1:10">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
@@ -2249,7 +2846,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" ht="17.399999999999999">
+    <row r="70" ht="17.25" spans="1:10">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
@@ -2261,7 +2858,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" ht="17.399999999999999">
+    <row r="71" ht="17.25" spans="1:10">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
@@ -2273,7 +2870,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" ht="17.399999999999999">
+    <row r="72" ht="17.25" spans="1:10">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
@@ -2285,7 +2882,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" ht="17.399999999999999">
+    <row r="73" ht="17.25" spans="1:10">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
@@ -2297,7 +2894,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" ht="17.399999999999999">
+    <row r="74" ht="17.25" spans="1:10">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
@@ -2309,7 +2906,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" ht="17.399999999999999">
+    <row r="75" ht="17.25" spans="1:10">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="4"/>
@@ -2321,7 +2918,7 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" ht="17.399999999999999">
+    <row r="76" ht="17.25" spans="1:10">
       <c r="A76" s="13"/>
       <c r="B76" s="15"/>
       <c r="C76" s="7"/>
@@ -2333,7 +2930,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" ht="17.399999999999999">
+    <row r="77" ht="17.25" spans="1:10">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -2345,7 +2942,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" ht="17.399999999999999">
+    <row r="78" ht="17.25" spans="1:10">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
@@ -2357,7 +2954,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" ht="17.399999999999999">
+    <row r="79" ht="17.25" spans="1:10">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -2369,7 +2966,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" ht="17.399999999999999">
+    <row r="80" ht="17.25" spans="1:10">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -2381,7 +2978,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" ht="17.399999999999999">
+    <row r="81" ht="17.25" spans="1:10">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
@@ -2393,7 +2990,7 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" ht="17.399999999999999">
+    <row r="82" ht="17.25" spans="1:10">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
@@ -2405,7 +3002,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10" ht="17.399999999999999">
+    <row r="83" ht="17.25" spans="1:10">
       <c r="A83" s="13"/>
       <c r="B83" s="15"/>
       <c r="C83" s="7"/>
@@ -2417,7 +3014,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" ht="17.399999999999999">
+    <row r="84" ht="17.25" spans="1:10">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
@@ -2429,7 +3026,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" ht="17.399999999999999">
+    <row r="85" ht="17.25" spans="1:10">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -2441,7 +3038,7 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" ht="17.399999999999999">
+    <row r="86" ht="17.25" spans="1:10">
       <c r="A86" s="13"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
@@ -2453,7 +3050,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" ht="17.399999999999999">
+    <row r="87" ht="17.25" spans="1:10">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
@@ -2465,7 +3062,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" ht="17.399999999999999">
+    <row r="88" ht="17.25" spans="1:10">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
@@ -2477,7 +3074,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="17.399999999999999">
+    <row r="89" ht="17.25" spans="1:10">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
@@ -2489,7 +3086,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" ht="17.399999999999999">
+    <row r="90" ht="17.25" spans="1:10">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
@@ -2501,7 +3098,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:10" ht="17.399999999999999">
+    <row r="91" ht="17.25" spans="1:10">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
@@ -2513,7 +3110,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:10" ht="17.399999999999999">
+    <row r="92" ht="17.25" spans="1:10">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
@@ -2525,7 +3122,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" ht="17.399999999999999">
+    <row r="93" ht="17.25" spans="1:10">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
@@ -2537,7 +3134,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:10" ht="17.399999999999999">
+    <row r="94" ht="17.25" spans="1:10">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -2549,7 +3146,7 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" ht="17.399999999999999">
+    <row r="95" ht="17.25" spans="1:10">
       <c r="A95" s="13"/>
       <c r="B95" s="15"/>
       <c r="C95" s="7"/>
@@ -2561,7 +3158,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" ht="17.399999999999999">
+    <row r="96" ht="17.25" spans="1:10">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
@@ -2573,7 +3170,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" ht="17.399999999999999">
+    <row r="97" ht="17.25" spans="1:10">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
@@ -2585,7 +3182,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" ht="17.399999999999999">
+    <row r="98" ht="17.25" spans="1:10">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
@@ -2597,7 +3194,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" ht="17.399999999999999">
+    <row r="99" ht="17.25" spans="1:10">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
@@ -2609,7 +3206,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" ht="17.399999999999999">
+    <row r="100" ht="17.25" spans="1:10">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
@@ -2621,7 +3218,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="1:10" ht="17.399999999999999">
+    <row r="101" ht="17.25" spans="1:10">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
@@ -2633,7 +3230,7 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="1:10" ht="17.399999999999999">
+    <row r="102" ht="17.25" spans="1:10">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
@@ -2645,7 +3242,7 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" ht="17.399999999999999">
+    <row r="103" ht="17.25" spans="1:10">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
@@ -2657,7 +3254,7 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" ht="17.399999999999999">
+    <row r="104" ht="17.25" spans="1:10">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
@@ -2669,7 +3266,7 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" ht="17.399999999999999">
+    <row r="105" ht="17.25" spans="1:10">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
@@ -2681,7 +3278,7 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:10" ht="17.399999999999999">
+    <row r="106" ht="17.25" spans="1:10">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -2693,7 +3290,7 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" ht="17.399999999999999">
+    <row r="107" ht="17.25" spans="1:10">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
@@ -2705,7 +3302,7 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" ht="17.399999999999999">
+    <row r="108" ht="17.25" spans="1:10">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
@@ -2717,7 +3314,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="1:10" ht="17.399999999999999">
+    <row r="109" ht="17.25" spans="1:10">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
@@ -2729,7 +3326,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" ht="17.399999999999999">
+    <row r="110" ht="17.25" spans="1:10">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
@@ -2741,7 +3338,7 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" ht="17.399999999999999">
+    <row r="111" ht="17.25" spans="1:10">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4"/>
@@ -2753,7 +3350,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" ht="17.399999999999999">
+    <row r="112" ht="17.25" spans="1:10">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
@@ -2765,7 +3362,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" ht="17.399999999999999">
+    <row r="113" ht="17.25" spans="1:10">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
@@ -2777,7 +3374,7 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" ht="19.2">
+    <row r="114" ht="18.75" spans="1:10">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="21"/>
@@ -2789,7 +3386,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" ht="17.399999999999999">
+    <row r="115" ht="17.25" spans="1:10">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
@@ -2801,7 +3398,7 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" ht="17.399999999999999">
+    <row r="116" ht="17.25" spans="1:10">
       <c r="A116" s="13"/>
       <c r="B116" s="15"/>
       <c r="C116" s="7"/>
@@ -2813,7 +3410,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" ht="17.399999999999999">
+    <row r="117" ht="17.25" spans="1:10">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -2825,7 +3422,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" ht="17.399999999999999">
+    <row r="118" ht="17.25" spans="1:10">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
@@ -2837,7 +3434,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" ht="17.399999999999999">
+    <row r="119" ht="17.25" spans="1:10">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
@@ -2849,7 +3446,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" ht="17.399999999999999">
+    <row r="120" ht="17.25" spans="1:10">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
@@ -2861,7 +3458,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" ht="17.399999999999999">
+    <row r="121" ht="17.25" spans="1:10">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
@@ -2873,7 +3470,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="1:10" ht="17.399999999999999">
+    <row r="122" ht="17.25" spans="1:10">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
@@ -2885,7 +3482,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" ht="17.399999999999999">
+    <row r="123" ht="17.25" spans="1:10">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
@@ -2897,7 +3494,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" ht="17.399999999999999">
+    <row r="124" ht="17.25" spans="1:10">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4"/>
@@ -2909,7 +3506,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" ht="17.399999999999999">
+    <row r="125" ht="17.25" spans="1:10">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4"/>
@@ -2921,7 +3518,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" ht="17.399999999999999">
+    <row r="126" ht="17.25" spans="1:10">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4"/>
@@ -2933,7 +3530,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="1:10" ht="17.399999999999999">
+    <row r="127" ht="17.25" spans="1:10">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="4"/>
@@ -2945,7 +3542,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" ht="17.399999999999999">
+    <row r="128" ht="17.25" spans="1:10">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="4"/>
@@ -2957,7 +3554,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="1:10" ht="17.399999999999999">
+    <row r="129" ht="17.25" spans="1:10">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -2969,7 +3566,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" ht="17.399999999999999">
+    <row r="130" ht="17.25" spans="1:10">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="4"/>
@@ -2981,7 +3578,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" ht="17.399999999999999">
+    <row r="131" ht="17.25" spans="1:10">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="4"/>
@@ -2993,7 +3590,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" ht="17.399999999999999">
+    <row r="132" ht="17.25" spans="1:10">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4"/>
@@ -3005,7 +3602,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" ht="17.399999999999999">
+    <row r="133" ht="17.25" spans="1:10">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4"/>
@@ -3017,7 +3614,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" ht="17.399999999999999">
+    <row r="134" ht="17.25" spans="1:10">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
@@ -3029,7 +3626,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" ht="17.399999999999999">
+    <row r="135" ht="17.25" spans="1:10">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -3041,7 +3638,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" ht="17.399999999999999">
+    <row r="136" ht="17.25" spans="1:10">
       <c r="A136" s="13"/>
       <c r="B136" s="15"/>
       <c r="C136" s="7"/>
@@ -3053,7 +3650,7 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" ht="17.399999999999999">
+    <row r="137" ht="17.25" spans="1:10">
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -3065,7 +3662,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" ht="17.399999999999999">
+    <row r="138" ht="17.25" spans="1:10">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="4"/>
@@ -3077,7 +3674,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" ht="17.399999999999999">
+    <row r="139" ht="17.25" spans="1:10">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="4"/>
@@ -3089,7 +3686,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" ht="17.399999999999999">
+    <row r="140" ht="17.25" spans="1:10">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="4"/>
@@ -3101,7 +3698,7 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" ht="17.399999999999999">
+    <row r="141" ht="17.25" spans="1:10">
       <c r="A141" s="13"/>
       <c r="B141" s="15"/>
       <c r="C141" s="14"/>
@@ -3113,7 +3710,7 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" ht="17.399999999999999">
+    <row r="142" ht="17.25" spans="1:10">
       <c r="A142" s="13"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -3125,7 +3722,7 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" ht="17.399999999999999">
+    <row r="143" ht="17.25" spans="1:10">
       <c r="A143" s="5"/>
       <c r="B143" s="2"/>
       <c r="C143" s="4"/>
@@ -3137,7 +3734,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" ht="17.399999999999999">
+    <row r="144" ht="17.25" spans="1:10">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="4"/>
@@ -3149,7 +3746,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="1:10" ht="17.399999999999999">
+    <row r="145" ht="17.25" spans="1:10">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4"/>
@@ -3161,7 +3758,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="1:10" ht="17.399999999999999">
+    <row r="146" ht="17.25" spans="1:10">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4"/>
@@ -3173,7 +3770,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10" ht="17.399999999999999">
+    <row r="147" ht="17.25" spans="1:10">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4"/>
@@ -3185,7 +3782,7 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10" ht="17.399999999999999">
+    <row r="148" ht="17.25" spans="1:10">
       <c r="A148" s="5"/>
       <c r="B148" s="22"/>
       <c r="C148" s="4"/>
@@ -3197,7 +3794,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" ht="17.399999999999999">
+    <row r="149" ht="17.25" spans="1:10">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4"/>
@@ -3209,7 +3806,7 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="1:10" ht="17.399999999999999">
+    <row r="150" ht="17.25" spans="1:10">
       <c r="A150" s="13"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
@@ -3221,7 +3818,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="1:10" ht="17.399999999999999">
+    <row r="151" ht="17.25" spans="1:10">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
@@ -3233,7 +3830,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" ht="17.399999999999999">
+    <row r="152" ht="17.25" spans="1:10">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="4"/>
@@ -3245,7 +3842,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="1:10" ht="17.399999999999999">
+    <row r="153" ht="17.25" spans="1:10">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="4"/>
@@ -3257,7 +3854,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="1:10" ht="17.399999999999999">
+    <row r="154" ht="17.25" spans="1:10">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4"/>
@@ -3269,7 +3866,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10" ht="17.399999999999999">
+    <row r="155" ht="17.25" spans="1:10">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
@@ -3281,7 +3878,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="1:10" ht="17.399999999999999">
+    <row r="156" ht="17.25" spans="1:10">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
@@ -3293,7 +3890,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="1:10" ht="17.399999999999999">
+    <row r="157" ht="17.25" spans="1:10">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
@@ -3305,7 +3902,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="1:10" ht="17.399999999999999">
+    <row r="158" ht="17.25" spans="1:10">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
@@ -3317,7 +3914,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="1:10" ht="17.399999999999999">
+    <row r="159" ht="17.25" spans="1:10">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
@@ -3329,7 +3926,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" ht="17.399999999999999">
+    <row r="160" ht="17.25" spans="1:10">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
@@ -3341,7 +3938,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" ht="17.399999999999999">
+    <row r="161" ht="17.25" spans="1:10">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
@@ -3353,7 +3950,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" ht="17.399999999999999">
+    <row r="162" ht="17.25" spans="1:10">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
@@ -3365,7 +3962,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" ht="17.399999999999999">
+    <row r="163" ht="17.25" spans="1:10">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
@@ -3377,7 +3974,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" ht="17.399999999999999">
+    <row r="164" ht="17.25" spans="1:10">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
@@ -3389,7 +3986,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" ht="17.399999999999999">
+    <row r="165" ht="17.25" spans="1:10">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
@@ -3401,7 +3998,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" ht="17.399999999999999">
+    <row r="166" ht="17.25" spans="1:10">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
@@ -3413,7 +4010,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" ht="17.399999999999999">
+    <row r="167" ht="17.25" spans="1:10">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
@@ -3425,7 +4022,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" ht="17.399999999999999">
+    <row r="168" ht="17.25" spans="1:10">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
@@ -3437,7 +4034,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" ht="17.399999999999999">
+    <row r="169" ht="17.25" spans="1:10">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
@@ -3449,7 +4046,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" ht="17.399999999999999">
+    <row r="170" ht="17.25" spans="1:10">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
@@ -3461,7 +4058,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" ht="17.399999999999999">
+    <row r="171" ht="17.25" spans="1:10">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
@@ -3473,7 +4070,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" ht="17.399999999999999">
+    <row r="172" ht="17.25" spans="1:10">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
@@ -3485,7 +4082,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" ht="17.399999999999999">
+    <row r="173" ht="17.25" spans="1:10">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
@@ -3497,7 +4094,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" ht="17.399999999999999">
+    <row r="174" ht="17.25" spans="1:10">
       <c r="A174" s="13"/>
       <c r="B174" s="15"/>
       <c r="C174" s="7"/>
@@ -3509,7 +4106,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" ht="17.399999999999999">
+    <row r="175" ht="17.25" spans="1:10">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
@@ -3521,7 +4118,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" ht="17.399999999999999">
+    <row r="176" ht="17.25" spans="1:10">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -3533,7 +4130,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" ht="17.399999999999999">
+    <row r="177" ht="17.25" spans="1:10">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -3545,7 +4142,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="1:10" ht="17.399999999999999">
+    <row r="178" ht="17.25" spans="1:10">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
@@ -3557,7 +4154,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="1:10" ht="17.399999999999999">
+    <row r="179" ht="17.25" spans="1:10">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
@@ -3569,7 +4166,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="1:10" ht="17.399999999999999">
+    <row r="180" ht="17.25" spans="1:10">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -3581,7 +4178,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="1:10" ht="17.399999999999999">
+    <row r="181" ht="17.25" spans="1:10">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
@@ -3593,7 +4190,7 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="1:10" ht="17.399999999999999">
+    <row r="182" ht="17.25" spans="1:10">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
@@ -3605,7 +4202,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="1:10" ht="17.399999999999999">
+    <row r="183" ht="17.25" spans="1:10">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
@@ -3617,7 +4214,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="1:10" ht="17.399999999999999">
+    <row r="184" ht="17.25" spans="1:10">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -3629,7 +4226,7 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="1:10" ht="17.399999999999999">
+    <row r="185" ht="17.25" spans="1:10">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -3641,7 +4238,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" spans="1:10" ht="17.399999999999999">
+    <row r="186" ht="17.25" spans="1:10">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -3653,7 +4250,7 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" spans="1:10" ht="17.399999999999999">
+    <row r="187" ht="17.25" spans="1:10">
       <c r="A187" s="13"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4"/>
@@ -3665,7 +4262,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" spans="1:10" ht="17.399999999999999">
+    <row r="188" ht="17.25" spans="1:10">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4"/>
@@ -3677,7 +4274,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" spans="1:10" ht="17.399999999999999">
+    <row r="189" ht="17.25" spans="1:10">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4"/>
@@ -3689,7 +4286,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" spans="1:10" ht="17.399999999999999">
+    <row r="190" ht="17.25" spans="1:10">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="4"/>
@@ -3701,7 +4298,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" spans="1:10" ht="17.399999999999999">
+    <row r="191" ht="17.25" spans="1:10">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="4"/>
@@ -3713,7 +4310,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="1:10" ht="17.399999999999999">
+    <row r="192" ht="17.25" spans="1:10">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4"/>
@@ -3725,7 +4322,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="1:10" ht="17.399999999999999">
+    <row r="193" ht="17.25" spans="1:10">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4"/>
@@ -3737,7 +4334,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" spans="1:10" ht="17.399999999999999">
+    <row r="194" ht="17.25" spans="1:10">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4"/>
@@ -3749,7 +4346,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" spans="1:10" ht="17.399999999999999">
+    <row r="195" ht="17.25" spans="1:10">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4"/>
@@ -3761,7 +4358,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="1:10" ht="17.399999999999999">
+    <row r="196" ht="17.25" spans="1:10">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -3773,7 +4370,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="1:10" ht="17.399999999999999">
+    <row r="197" ht="17.25" spans="1:10">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4"/>
@@ -3785,7 +4382,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="1:10" ht="17.399999999999999">
+    <row r="198" ht="17.25" spans="1:10">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="4"/>
@@ -3797,7 +4394,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="1:10" ht="17.399999999999999">
+    <row r="199" ht="17.25" spans="1:10">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="4"/>
@@ -3809,7 +4406,7 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="1:10" ht="17.399999999999999">
+    <row r="200" ht="17.25" spans="1:10">
       <c r="A200" s="13"/>
       <c r="B200" s="15"/>
       <c r="C200" s="7"/>
@@ -3821,7 +4418,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="1:10" ht="17.399999999999999">
+    <row r="201" ht="17.25" spans="1:10">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="4"/>
@@ -3833,7 +4430,7 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" spans="1:10" ht="17.399999999999999">
+    <row r="202" ht="17.25" spans="1:10">
       <c r="A202" s="13"/>
       <c r="B202" s="15"/>
       <c r="C202" s="7"/>
@@ -3845,7 +4442,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" spans="1:10" ht="17.399999999999999">
+    <row r="203" ht="17.25" spans="1:10">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4"/>
@@ -3857,7 +4454,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="1:10" ht="17.399999999999999">
+    <row r="204" ht="17.25" spans="1:10">
       <c r="A204" s="5"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4"/>
@@ -3869,7 +4466,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="1:10" ht="17.399999999999999">
+    <row r="205" ht="17.25" spans="1:10">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4"/>
@@ -3881,7 +4478,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="1:10" ht="17.399999999999999">
+    <row r="206" ht="17.25" spans="1:10">
       <c r="A206" s="5"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
@@ -3893,7 +4490,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="1:10" ht="17.399999999999999">
+    <row r="207" ht="17.25" spans="1:10">
       <c r="A207" s="5"/>
       <c r="B207" s="2"/>
       <c r="C207" s="7"/>
@@ -3905,7 +4502,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="1:10" ht="17.399999999999999">
+    <row r="208" ht="17.25" spans="1:10">
       <c r="A208" s="5"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4"/>
@@ -3917,7 +4514,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="1:10" ht="17.399999999999999">
+    <row r="209" ht="17.25" spans="1:10">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4"/>
@@ -3929,7 +4526,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" spans="1:10" ht="17.399999999999999">
+    <row r="210" ht="17.25" spans="1:10">
       <c r="A210" s="5"/>
       <c r="B210" s="22"/>
       <c r="C210" s="7"/>
@@ -3941,7 +4538,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" spans="1:10" ht="17.399999999999999">
+    <row r="211" ht="17.25" spans="1:10">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
       <c r="C211" s="4"/>
@@ -3953,7 +4550,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="1:10" ht="17.399999999999999">
+    <row r="212" ht="17.25" spans="1:10">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
       <c r="C212" s="4"/>
@@ -3965,7 +4562,7 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="1:10" ht="17.399999999999999">
+    <row r="213" ht="17.25" spans="1:10">
       <c r="A213" s="13"/>
       <c r="B213" s="23"/>
       <c r="C213" s="7"/>
@@ -3977,7 +4574,7 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="1:10" ht="17.399999999999999">
+    <row r="214" ht="17.25" spans="1:10">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="4"/>
@@ -3989,7 +4586,7 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="1:10" ht="17.399999999999999">
+    <row r="215" ht="17.25" spans="1:10">
       <c r="A215" s="13"/>
       <c r="B215" s="15"/>
       <c r="C215" s="7"/>
@@ -4001,7 +4598,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="1:10" ht="17.399999999999999">
+    <row r="216" ht="17.25" spans="1:10">
       <c r="A216" s="5"/>
       <c r="B216" s="6"/>
       <c r="C216" s="4"/>
@@ -4013,7 +4610,7 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" spans="1:10" ht="17.399999999999999">
+    <row r="217" ht="17.25" spans="1:10">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
       <c r="C217" s="4"/>
@@ -4025,7 +4622,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" spans="1:10" ht="17.399999999999999">
+    <row r="218" ht="17.25" spans="1:10">
       <c r="A218" s="5"/>
       <c r="B218" s="6"/>
       <c r="C218" s="4"/>
@@ -4037,7 +4634,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" spans="1:10" ht="17.399999999999999">
+    <row r="219" ht="17.25" spans="1:10">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
@@ -4049,7 +4646,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="1:10" ht="17.399999999999999">
+    <row r="220" ht="17.25" spans="1:10">
       <c r="A220" s="5"/>
       <c r="B220" s="6"/>
       <c r="C220" s="4"/>
@@ -4061,7 +4658,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="1:10" ht="17.399999999999999">
+    <row r="221" ht="17.25" spans="1:10">
       <c r="A221" s="5"/>
       <c r="B221" s="6"/>
       <c r="C221" s="4"/>
@@ -4073,7 +4670,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="1:10" ht="17.399999999999999">
+    <row r="222" ht="17.25" spans="1:10">
       <c r="A222" s="5"/>
       <c r="B222" s="6"/>
       <c r="C222" s="4"/>
@@ -4085,7 +4682,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="1:10" ht="17.399999999999999">
+    <row r="223" ht="17.25" spans="1:10">
       <c r="A223" s="5"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
@@ -4097,7 +4694,7 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="1:10" ht="17.399999999999999">
+    <row r="224" ht="17.25" spans="1:10">
       <c r="A224" s="5"/>
       <c r="B224" s="6"/>
       <c r="C224" s="4"/>
@@ -4109,7 +4706,7 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" spans="1:10" ht="17.399999999999999">
+    <row r="225" ht="17.25" spans="1:10">
       <c r="A225" s="13"/>
       <c r="B225" s="15"/>
       <c r="C225" s="7"/>
@@ -4121,7 +4718,7 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" spans="1:10" ht="17.399999999999999">
+    <row r="226" ht="17.25" spans="1:10">
       <c r="A226" s="5"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
@@ -4133,7 +4730,7 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" spans="1:10" ht="17.399999999999999">
+    <row r="227" ht="17.25" spans="1:10">
       <c r="A227" s="5"/>
       <c r="B227" s="6"/>
       <c r="C227" s="4"/>
@@ -4145,7 +4742,7 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" spans="1:10" ht="17.399999999999999">
+    <row r="228" ht="17.25" spans="1:10">
       <c r="A228" s="5"/>
       <c r="B228" s="6"/>
       <c r="C228" s="4"/>
@@ -4157,7 +4754,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" spans="1:10" ht="17.399999999999999">
+    <row r="229" ht="17.25" spans="1:10">
       <c r="A229" s="5"/>
       <c r="B229" s="6"/>
       <c r="C229" s="4"/>
@@ -4169,7 +4766,7 @@
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" spans="1:10" ht="17.399999999999999">
+    <row r="230" ht="17.25" spans="1:10">
       <c r="A230" s="5"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
@@ -4181,7 +4778,7 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" spans="1:10" ht="17.399999999999999">
+    <row r="231" ht="17.25" spans="1:10">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -4193,7 +4790,7 @@
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="1:10" ht="17.399999999999999">
+    <row r="232" ht="17.25" spans="1:10">
       <c r="A232" s="5"/>
       <c r="B232" s="6"/>
       <c r="C232" s="4"/>
@@ -4205,7 +4802,7 @@
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" spans="1:10" ht="17.399999999999999">
+    <row r="233" ht="17.25" spans="1:10">
       <c r="A233" s="5"/>
       <c r="B233" s="6"/>
       <c r="C233" s="4"/>
@@ -4217,7 +4814,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" spans="1:10" ht="17.399999999999999">
+    <row r="234" ht="17.25" spans="1:10">
       <c r="A234" s="5"/>
       <c r="B234" s="6"/>
       <c r="C234" s="4"/>
@@ -4229,7 +4826,7 @@
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" spans="1:10" ht="17.399999999999999">
+    <row r="235" ht="17.25" spans="1:10">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
@@ -4241,7 +4838,7 @@
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="1:10" ht="17.399999999999999">
+    <row r="236" ht="17.25" spans="1:10">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="4"/>
@@ -4253,7 +4850,7 @@
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="1:10" ht="17.399999999999999">
+    <row r="237" ht="17.25" spans="1:10">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="4"/>
@@ -4265,7 +4862,7 @@
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="1:10" ht="17.399999999999999">
+    <row r="238" ht="17.25" spans="1:10">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="4"/>
@@ -4277,7 +4874,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="1:10" ht="17.399999999999999">
+    <row r="239" ht="17.25" spans="1:10">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="4"/>
@@ -4289,7 +4886,7 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="1:10" ht="17.399999999999999">
+    <row r="240" ht="17.25" spans="1:10">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="4"/>
@@ -4301,7 +4898,7 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" spans="1:10" ht="17.399999999999999">
+    <row r="241" ht="17.25" spans="1:10">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="4"/>
@@ -4313,7 +4910,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" spans="1:10" ht="17.399999999999999">
+    <row r="242" ht="17.25" spans="1:10">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="4"/>
@@ -4325,7 +4922,7 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" spans="1:10" ht="17.399999999999999">
+    <row r="243" ht="17.25" spans="1:10">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="4"/>
@@ -4337,7 +4934,7 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" spans="1:10" ht="17.399999999999999">
+    <row r="244" ht="17.25" spans="1:10">
       <c r="A244" s="13"/>
       <c r="B244" s="15"/>
       <c r="C244" s="7"/>
@@ -4349,7 +4946,7 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" spans="1:10" ht="17.399999999999999">
+    <row r="245" ht="17.25" spans="1:10">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="4"/>
@@ -4361,7 +4958,7 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" spans="1:10" ht="17.399999999999999">
+    <row r="246" ht="17.25" spans="1:10">
       <c r="A246" s="1"/>
       <c r="B246" s="3"/>
       <c r="C246" s="4"/>
@@ -4373,7 +4970,7 @@
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" spans="1:10" ht="17.399999999999999">
+    <row r="247" ht="17.25" spans="1:10">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="4"/>
@@ -4385,7 +4982,7 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" spans="1:10" ht="17.399999999999999">
+    <row r="248" ht="17.25" spans="1:10">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="4"/>
@@ -4397,7 +4994,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" spans="1:10" ht="17.399999999999999">
+    <row r="249" ht="17.25" spans="1:10">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="4"/>
@@ -4409,7 +5006,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" spans="1:10" ht="17.399999999999999">
+    <row r="250" ht="17.25" spans="1:10">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="4"/>
@@ -4421,7 +5018,7 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" spans="1:10" ht="17.399999999999999">
+    <row r="251" ht="17.25" spans="1:10">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="4"/>
@@ -4433,7 +5030,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" spans="1:10" ht="17.399999999999999">
+    <row r="252" ht="17.25" spans="1:10">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="4"/>
@@ -4445,7 +5042,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" spans="1:10" ht="17.399999999999999">
+    <row r="253" ht="17.25" spans="1:10">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
@@ -4457,7 +5054,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" spans="1:10" ht="17.399999999999999">
+    <row r="254" ht="17.25" spans="1:10">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="4"/>
@@ -4469,7 +5066,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" spans="1:10" ht="17.399999999999999">
+    <row r="255" ht="17.25" spans="1:10">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="4"/>
@@ -4481,7 +5078,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" spans="1:10" ht="17.399999999999999">
+    <row r="256" ht="17.25" spans="1:10">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="4"/>
@@ -4493,7 +5090,7 @@
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" spans="1:10" ht="17.399999999999999">
+    <row r="257" ht="17.25" spans="1:10">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
@@ -4505,7 +5102,7 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" spans="1:10" ht="17.399999999999999">
+    <row r="258" ht="17.25" spans="1:10">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="4"/>
@@ -4517,7 +5114,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" spans="1:10" ht="17.399999999999999">
+    <row r="259" ht="17.25" spans="1:10">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="4"/>
@@ -4529,7 +5126,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" spans="1:10" ht="17.399999999999999">
+    <row r="260" ht="17.25" spans="1:10">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="4"/>
@@ -4541,7 +5138,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" spans="1:10" ht="17.399999999999999">
+    <row r="261" ht="17.25" spans="1:10">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="4"/>
@@ -4553,7 +5150,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" spans="1:10" ht="17.399999999999999">
+    <row r="262" ht="17.25" spans="1:10">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="4"/>
@@ -4565,7 +5162,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" spans="1:10" ht="17.399999999999999">
+    <row r="263" ht="17.25" spans="1:10">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="4"/>
@@ -4577,7 +5174,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" spans="1:10" ht="17.399999999999999">
+    <row r="264" ht="17.25" spans="1:10">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="4"/>
@@ -4589,7 +5186,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" spans="1:10" ht="17.399999999999999">
+    <row r="265" ht="17.25" spans="1:10">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="4"/>
@@ -4601,7 +5198,7 @@
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266" spans="1:10" ht="17.399999999999999">
+    <row r="266" ht="17.25" spans="1:10">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
@@ -4613,7 +5210,7 @@
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267" spans="1:10" ht="17.399999999999999">
+    <row r="267" ht="17.25" spans="1:10">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="4"/>
@@ -4625,7 +5222,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268" spans="1:10" ht="17.399999999999999">
+    <row r="268" ht="17.25" spans="1:10">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="4"/>
@@ -4637,7 +5234,7 @@
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269" spans="1:10" ht="17.399999999999999">
+    <row r="269" ht="17.25" spans="1:10">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="4"/>
@@ -4649,7 +5246,7 @@
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270" spans="1:10" ht="17.399999999999999">
+    <row r="270" ht="17.25" spans="1:10">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="4"/>
@@ -4661,7 +5258,7 @@
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271" spans="1:10" ht="17.399999999999999">
+    <row r="271" ht="17.25" spans="1:10">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="4"/>
@@ -4673,7 +5270,7 @@
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272" spans="1:10" ht="17.399999999999999">
+    <row r="272" ht="17.25" spans="1:10">
       <c r="A272" s="13"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
@@ -4685,7 +5282,7 @@
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273" spans="1:10" ht="17.399999999999999">
+    <row r="273" ht="17.25" spans="1:10">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="4"/>
@@ -4697,7 +5294,7 @@
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274" spans="1:10" ht="17.399999999999999">
+    <row r="274" ht="17.25" spans="1:10">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="4"/>
@@ -4709,7 +5306,7 @@
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275" spans="1:10" ht="17.399999999999999">
+    <row r="275" ht="17.25" spans="1:10">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="4"/>
@@ -4721,7 +5318,7 @@
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
     </row>
-    <row r="276" spans="1:10" ht="17.399999999999999">
+    <row r="276" ht="17.25" spans="1:10">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="4"/>
@@ -4733,7 +5330,7 @@
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" spans="1:10" ht="17.399999999999999">
+    <row r="277" ht="17.25" spans="1:10">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="4"/>
@@ -4745,7 +5342,7 @@
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278" spans="1:10" ht="17.399999999999999">
+    <row r="278" ht="17.25" spans="1:10">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="4"/>
@@ -4757,7 +5354,7 @@
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" spans="1:10" ht="17.399999999999999">
+    <row r="279" ht="17.25" spans="1:10">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="4"/>
@@ -4769,7 +5366,7 @@
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280" spans="1:10" ht="17.399999999999999">
+    <row r="280" ht="17.25" spans="1:10">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="4"/>
@@ -4781,7 +5378,7 @@
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281" spans="1:10" ht="17.399999999999999">
+    <row r="281" ht="17.25" spans="1:10">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="4"/>
@@ -4793,7 +5390,7 @@
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282" spans="1:10" ht="17.399999999999999">
+    <row r="282" ht="17.25" spans="1:10">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="4"/>
@@ -4805,7 +5402,7 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283" spans="1:10" ht="17.399999999999999">
+    <row r="283" ht="17.25" spans="1:10">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="4"/>
@@ -4817,7 +5414,7 @@
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" spans="1:10" ht="17.399999999999999">
+    <row r="284" ht="17.25" spans="1:10">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="4"/>
@@ -4829,7 +5426,7 @@
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" spans="1:10" ht="17.399999999999999">
+    <row r="285" ht="17.25" spans="1:10">
       <c r="A285" s="13"/>
       <c r="B285" s="6"/>
       <c r="C285" s="4"/>
@@ -4841,7 +5438,7 @@
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" spans="1:10" ht="17.399999999999999">
+    <row r="286" ht="17.25" spans="1:10">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="4"/>
@@ -4853,7 +5450,7 @@
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" spans="1:10" ht="17.399999999999999">
+    <row r="287" ht="17.25" spans="1:10">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="4"/>
@@ -4865,7 +5462,7 @@
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" spans="1:10" ht="17.399999999999999">
+    <row r="288" ht="17.25" spans="1:10">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="4"/>
@@ -4877,7 +5474,7 @@
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" spans="1:10" ht="17.399999999999999">
+    <row r="289" ht="17.25" spans="1:10">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="4"/>
@@ -4889,7 +5486,7 @@
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" spans="1:10" ht="17.399999999999999">
+    <row r="290" ht="17.25" spans="1:10">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="4"/>
@@ -4901,7 +5498,7 @@
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291" spans="1:10" ht="17.399999999999999">
+    <row r="291" ht="17.25" spans="1:10">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="4"/>
@@ -4913,7 +5510,7 @@
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" spans="1:10" ht="17.399999999999999">
+    <row r="292" ht="17.25" spans="1:10">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="4"/>
@@ -4925,7 +5522,7 @@
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" spans="1:10" ht="17.399999999999999">
+    <row r="293" ht="17.25" spans="1:10">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="4"/>
@@ -4937,7 +5534,7 @@
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" ht="17.399999999999999">
+    <row r="294" ht="17.25" spans="1:10">
       <c r="A294" s="13"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
@@ -4949,7 +5546,7 @@
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" ht="17.399999999999999">
+    <row r="295" ht="17.25" spans="1:10">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="4"/>
@@ -4961,7 +5558,7 @@
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" ht="17.399999999999999">
+    <row r="296" ht="17.25" spans="1:10">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="4"/>
@@ -4973,7 +5570,7 @@
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" ht="17.399999999999999">
+    <row r="297" ht="17.25" spans="1:10">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="4"/>
@@ -4985,7 +5582,7 @@
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" ht="17.399999999999999">
+    <row r="298" ht="17.25" spans="1:10">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="4"/>
@@ -4997,7 +5594,7 @@
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
     </row>
-    <row r="299" spans="1:10" ht="17.399999999999999">
+    <row r="299" ht="17.25" spans="1:10">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="4"/>
@@ -5009,7 +5606,7 @@
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" ht="17.399999999999999">
+    <row r="300" ht="17.25" spans="1:10">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="4"/>
@@ -5021,7 +5618,7 @@
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="1:10" ht="17.399999999999999">
+    <row r="301" ht="17.25" spans="1:10">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="4"/>
@@ -5033,7 +5630,7 @@
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" ht="17.399999999999999">
+    <row r="302" ht="17.25" spans="1:10">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="4"/>
@@ -5045,7 +5642,7 @@
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" ht="17.399999999999999">
+    <row r="303" ht="17.25" spans="1:10">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="4"/>
@@ -5057,7 +5654,7 @@
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" ht="17.399999999999999">
+    <row r="304" ht="17.25" spans="1:10">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="4"/>
@@ -5069,7 +5666,7 @@
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" ht="17.399999999999999">
+    <row r="305" ht="17.25" spans="1:10">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="4"/>
@@ -5081,7 +5678,7 @@
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" ht="17.399999999999999">
+    <row r="306" ht="17.25" spans="1:10">
       <c r="A306" s="13"/>
       <c r="B306" s="15"/>
       <c r="C306" s="14"/>
@@ -5093,7 +5690,7 @@
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" ht="17.399999999999999">
+    <row r="307" ht="17.25" spans="1:10">
       <c r="A307" s="13"/>
       <c r="B307" s="6"/>
       <c r="C307" s="4"/>
@@ -5105,7 +5702,7 @@
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
     </row>
-    <row r="308" spans="1:10" ht="17.399999999999999">
+    <row r="308" ht="17.25" spans="1:10">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="4"/>
@@ -5117,7 +5714,7 @@
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="1:10" ht="17.399999999999999">
+    <row r="309" ht="17.25" spans="1:10">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
@@ -5129,7 +5726,7 @@
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" ht="17.399999999999999">
+    <row r="310" ht="17.25" spans="1:10">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="4"/>
@@ -5141,7 +5738,7 @@
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" ht="17.399999999999999">
+    <row r="311" ht="17.25" spans="1:10">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="4"/>
@@ -5153,7 +5750,7 @@
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
     </row>
-    <row r="312" spans="1:10" ht="17.399999999999999">
+    <row r="312" ht="17.25" spans="1:10">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="4"/>
@@ -5165,7 +5762,7 @@
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="1:10" ht="17.399999999999999">
+    <row r="313" ht="17.25" spans="1:10">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="4"/>
@@ -5177,7 +5774,7 @@
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="1:10" ht="17.399999999999999">
+    <row r="314" ht="17.25" spans="1:10">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="4"/>
@@ -5189,7 +5786,7 @@
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="1:10" ht="17.399999999999999">
+    <row r="315" ht="17.25" spans="1:10">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="4"/>
@@ -5201,7 +5798,7 @@
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" ht="17.399999999999999">
+    <row r="316" ht="17.25" spans="1:10">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="4"/>
@@ -5213,7 +5810,7 @@
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="1:10" ht="17.399999999999999">
+    <row r="317" ht="17.25" spans="1:10">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="4"/>
@@ -5225,7 +5822,7 @@
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="1:10" ht="17.399999999999999">
+    <row r="318" ht="17.25" spans="1:10">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="4"/>
@@ -5237,7 +5834,7 @@
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="1:10" ht="17.399999999999999">
+    <row r="319" ht="17.25" spans="1:10">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="4"/>
@@ -5249,7 +5846,7 @@
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="1:10" ht="17.399999999999999">
+    <row r="320" ht="17.25" spans="1:10">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="4"/>
@@ -5261,7 +5858,7 @@
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="1:10" ht="17.399999999999999">
+    <row r="321" ht="17.25" spans="1:10">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="4"/>
@@ -5273,7 +5870,7 @@
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="1:10" ht="17.399999999999999">
+    <row r="322" ht="17.25" spans="1:10">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="4"/>
@@ -5285,7 +5882,7 @@
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" ht="17.399999999999999">
+    <row r="323" ht="17.25" spans="1:10">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="4"/>
@@ -5297,7 +5894,7 @@
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" ht="17.399999999999999">
+    <row r="324" ht="17.25" spans="1:10">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="4"/>
@@ -5309,7 +5906,7 @@
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" ht="17.399999999999999">
+    <row r="325" ht="17.25" spans="1:10">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="4"/>
@@ -5321,7 +5918,7 @@
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" ht="17.399999999999999">
+    <row r="326" ht="17.25" spans="1:10">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="4"/>
@@ -5333,7 +5930,7 @@
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327" spans="1:10" ht="17.399999999999999">
+    <row r="327" ht="17.25" spans="1:10">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="4"/>
@@ -5345,7 +5942,7 @@
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" ht="17.399999999999999">
+    <row r="328" ht="17.25" spans="1:10">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="4"/>
@@ -5357,7 +5954,7 @@
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" ht="17.399999999999999">
+    <row r="329" ht="17.25" spans="1:10">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="4"/>
@@ -5369,7 +5966,7 @@
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" ht="17.399999999999999">
+    <row r="330" ht="17.25" spans="1:10">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="4"/>
@@ -5381,7 +5978,7 @@
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="1:10" ht="17.399999999999999">
+    <row r="331" ht="17.25" spans="1:10">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="4"/>
@@ -5393,7 +5990,7 @@
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="1:10" ht="17.399999999999999">
+    <row r="332" ht="17.25" spans="1:10">
       <c r="A332" s="13"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
@@ -5405,7 +6002,7 @@
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" ht="17.399999999999999">
+    <row r="333" ht="17.25" spans="1:10">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="4"/>
@@ -5417,7 +6014,7 @@
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" ht="17.399999999999999">
+    <row r="334" ht="17.25" spans="1:10">
       <c r="A334" s="13"/>
       <c r="B334" s="6"/>
       <c r="C334" s="4"/>
@@ -5429,7 +6026,7 @@
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" ht="17.399999999999999">
+    <row r="335" ht="17.25" spans="1:10">
       <c r="A335" s="13"/>
       <c r="B335" s="23"/>
       <c r="C335" s="7"/>
@@ -5441,7 +6038,7 @@
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" ht="17.399999999999999">
+    <row r="336" ht="17.25" spans="1:10">
       <c r="A336" s="13"/>
       <c r="B336" s="6"/>
       <c r="C336" s="4"/>
@@ -5453,7 +6050,7 @@
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" ht="17.399999999999999">
+    <row r="337" ht="17.25" spans="1:10">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="4"/>
@@ -5465,7 +6062,7 @@
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" ht="17.399999999999999">
+    <row r="338" ht="17.25" spans="1:10">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="4"/>
@@ -5477,7 +6074,7 @@
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" ht="17.399999999999999">
+    <row r="339" ht="17.25" spans="1:10">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="4"/>
@@ -5489,7 +6086,7 @@
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" ht="17.399999999999999">
+    <row r="340" ht="17.25" spans="1:10">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="4"/>
@@ -5501,7 +6098,7 @@
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" ht="17.399999999999999">
+    <row r="341" ht="17.25" spans="1:10">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="4"/>
@@ -5513,7 +6110,7 @@
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342" spans="1:10" ht="17.399999999999999">
+    <row r="342" ht="17.25" spans="1:10">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="4"/>
@@ -5525,7 +6122,7 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343" spans="1:10" ht="17.399999999999999">
+    <row r="343" ht="17.25" spans="1:10">
       <c r="A343" s="13"/>
       <c r="B343" s="15"/>
       <c r="C343" s="14"/>
@@ -5537,7 +6134,7 @@
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344" spans="1:10" ht="17.399999999999999">
+    <row r="344" ht="17.25" spans="1:10">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="4"/>
@@ -5549,7 +6146,7 @@
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345" spans="1:10" ht="17.399999999999999">
+    <row r="345" ht="17.25" spans="1:10">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="4"/>
@@ -5561,7 +6158,7 @@
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346" spans="1:10" ht="17.399999999999999">
+    <row r="346" ht="17.25" spans="1:10">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="4"/>
@@ -5573,7 +6170,7 @@
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347" spans="1:10" ht="17.399999999999999">
+    <row r="347" ht="17.25" spans="1:10">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="4"/>
@@ -5585,7 +6182,7 @@
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348" spans="1:10" ht="17.399999999999999">
+    <row r="348" ht="17.25" spans="1:10">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="4"/>
@@ -5597,7 +6194,7 @@
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349" spans="1:10" ht="17.399999999999999">
+    <row r="349" ht="17.25" spans="1:10">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="4"/>
@@ -5609,7 +6206,7 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350" spans="1:10" ht="17.399999999999999">
+    <row r="350" ht="17.25" spans="1:10">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="4"/>
@@ -5621,7 +6218,7 @@
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351" spans="1:10" ht="17.399999999999999">
+    <row r="351" ht="17.25" spans="1:10">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="4"/>
@@ -5633,7 +6230,7 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352" spans="1:10" ht="17.399999999999999">
+    <row r="352" ht="17.25" spans="1:10">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="4"/>
@@ -5645,7 +6242,7 @@
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353" spans="1:10" ht="17.399999999999999">
+    <row r="353" ht="17.25" spans="1:10">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="4"/>
@@ -5657,7 +6254,7 @@
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354" spans="1:10" ht="17.399999999999999">
+    <row r="354" ht="17.25" spans="1:10">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="4"/>
@@ -5669,7 +6266,7 @@
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355" spans="1:10" ht="17.399999999999999">
+    <row r="355" ht="17.25" spans="1:10">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="4"/>
@@ -5681,7 +6278,7 @@
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" spans="1:10" ht="17.399999999999999">
+    <row r="356" ht="17.25" spans="1:10">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="4"/>
@@ -5693,7 +6290,7 @@
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357" spans="1:10" ht="17.399999999999999">
+    <row r="357" ht="17.25" spans="1:10">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="4"/>
@@ -5705,7 +6302,7 @@
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358" spans="1:10" ht="17.399999999999999">
+    <row r="358" ht="17.25" spans="1:10">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="4"/>
@@ -5717,7 +6314,7 @@
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359" spans="1:10" ht="17.399999999999999">
+    <row r="359" ht="17.25" spans="1:10">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="4"/>
@@ -5729,7 +6326,7 @@
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" spans="1:10" ht="17.399999999999999">
+    <row r="360" ht="17.25" spans="1:10">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="4"/>
@@ -5741,7 +6338,7 @@
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361" spans="1:10" ht="17.399999999999999">
+    <row r="361" ht="17.25" spans="1:10">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="4"/>
@@ -5753,7 +6350,7 @@
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362" spans="1:10" ht="17.399999999999999">
+    <row r="362" ht="17.25" spans="1:10">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="4"/>
@@ -5765,7 +6362,7 @@
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363" spans="1:10" ht="17.399999999999999">
+    <row r="363" ht="17.25" spans="1:10">
       <c r="A363" s="1"/>
       <c r="B363" s="6"/>
       <c r="C363" s="4"/>
@@ -5777,7 +6374,7 @@
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364" spans="1:10" ht="17.399999999999999">
+    <row r="364" ht="17.25" spans="1:10">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="4"/>
@@ -5789,7 +6386,7 @@
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365" spans="1:10" ht="17.399999999999999">
+    <row r="365" ht="17.25" spans="1:10">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="4"/>
@@ -5801,7 +6398,7 @@
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366" spans="1:10" ht="17.399999999999999">
+    <row r="366" ht="17.25" spans="1:10">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="4"/>
@@ -5813,7 +6410,7 @@
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367" spans="1:10" ht="17.399999999999999">
+    <row r="367" ht="17.25" spans="1:10">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="4"/>
@@ -5825,7 +6422,7 @@
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368" spans="1:10" ht="17.399999999999999">
+    <row r="368" ht="17.25" spans="1:10">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="4"/>
@@ -5837,7 +6434,7 @@
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369" spans="1:10" ht="17.399999999999999">
+    <row r="369" ht="17.25" spans="1:10">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="4"/>
@@ -5849,7 +6446,7 @@
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370" spans="1:10" ht="17.399999999999999">
+    <row r="370" ht="17.25" spans="1:10">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="4"/>
@@ -5861,7 +6458,7 @@
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371" spans="1:10" ht="17.399999999999999">
+    <row r="371" ht="17.25" spans="1:10">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="4"/>
@@ -5873,7 +6470,7 @@
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372" spans="1:10" ht="17.399999999999999">
+    <row r="372" ht="17.25" spans="1:10">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="4"/>
@@ -5885,7 +6482,7 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373" spans="1:10" ht="17.399999999999999">
+    <row r="373" ht="17.25" spans="1:10">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="4"/>
@@ -5897,7 +6494,7 @@
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374" spans="1:10" ht="17.399999999999999">
+    <row r="374" ht="17.25" spans="1:10">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="4"/>
@@ -5909,7 +6506,7 @@
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
     </row>
-    <row r="375" spans="1:10" ht="17.399999999999999">
+    <row r="375" ht="17.25" spans="1:10">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="4"/>
@@ -5921,7 +6518,7 @@
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
     </row>
-    <row r="376" spans="1:10" ht="17.399999999999999">
+    <row r="376" ht="17.25" spans="1:10">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="4"/>
@@ -5933,7 +6530,7 @@
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
     </row>
-    <row r="377" spans="1:10" ht="17.399999999999999">
+    <row r="377" ht="17.25" spans="1:10">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="4"/>
@@ -5945,7 +6542,7 @@
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
     </row>
-    <row r="378" spans="1:10" ht="17.399999999999999">
+    <row r="378" ht="17.25" spans="1:10">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="4"/>
@@ -5957,7 +6554,7 @@
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
     </row>
-    <row r="379" spans="1:10" ht="17.399999999999999">
+    <row r="379" ht="17.25" spans="1:10">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
@@ -5969,7 +6566,7 @@
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
     </row>
-    <row r="380" spans="1:10" ht="17.399999999999999">
+    <row r="380" ht="17.25" spans="1:10">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="4"/>
@@ -5981,7 +6578,7 @@
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
     </row>
-    <row r="381" spans="1:10" ht="17.399999999999999">
+    <row r="381" ht="17.25" spans="1:10">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="4"/>
@@ -5993,7 +6590,7 @@
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
     </row>
-    <row r="382" spans="1:10" ht="17.399999999999999">
+    <row r="382" ht="17.25" spans="1:10">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="4"/>
@@ -6005,7 +6602,7 @@
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
     </row>
-    <row r="383" spans="1:10" ht="17.399999999999999">
+    <row r="383" ht="17.25" spans="1:10">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="4"/>
@@ -6017,7 +6614,7 @@
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
     </row>
-    <row r="384" spans="1:10" ht="17.399999999999999">
+    <row r="384" ht="17.25" spans="1:10">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="4"/>
@@ -6029,7 +6626,7 @@
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
     </row>
-    <row r="385" spans="1:10" ht="17.399999999999999">
+    <row r="385" ht="17.25" spans="1:10">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="4"/>
@@ -6041,7 +6638,7 @@
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
     </row>
-    <row r="386" spans="1:10" ht="17.399999999999999">
+    <row r="386" ht="17.25" spans="1:10">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="4"/>
@@ -6053,7 +6650,7 @@
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
     </row>
-    <row r="387" spans="1:10" ht="17.399999999999999">
+    <row r="387" ht="17.25" spans="1:10">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="4"/>
@@ -6065,7 +6662,7 @@
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
     </row>
-    <row r="388" spans="1:10" ht="17.399999999999999">
+    <row r="388" ht="17.25" spans="1:10">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
@@ -6077,7 +6674,7 @@
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
     </row>
-    <row r="389" spans="1:10" ht="17.399999999999999">
+    <row r="389" ht="17.25" spans="1:10">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="4"/>
@@ -6089,7 +6686,7 @@
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
     </row>
-    <row r="390" spans="1:10" ht="17.399999999999999">
+    <row r="390" ht="17.25" spans="1:10">
       <c r="A390" s="13"/>
       <c r="B390" s="15"/>
       <c r="C390" s="14"/>
@@ -6101,7 +6698,7 @@
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
     </row>
-    <row r="391" spans="1:10" ht="17.399999999999999">
+    <row r="391" ht="17.25" spans="1:10">
       <c r="A391" s="13"/>
       <c r="B391" s="23"/>
       <c r="C391" s="14"/>
@@ -6113,7 +6710,7 @@
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
     </row>
-    <row r="392" spans="1:10" ht="17.399999999999999">
+    <row r="392" ht="17.25" spans="1:10">
       <c r="A392" s="13"/>
       <c r="B392" s="23"/>
       <c r="C392" s="14"/>
@@ -6125,7 +6722,7 @@
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
     </row>
-    <row r="393" spans="1:10" ht="17.399999999999999">
+    <row r="393" ht="17.25" spans="1:10">
       <c r="A393" s="13"/>
       <c r="B393" s="23"/>
       <c r="C393" s="14"/>
@@ -6137,7 +6734,7 @@
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
     </row>
-    <row r="394" spans="1:10" ht="17.399999999999999">
+    <row r="394" ht="17.25" spans="1:10">
       <c r="A394" s="13"/>
       <c r="B394" s="23"/>
       <c r="C394" s="14"/>
@@ -6150,20 +6747,18 @@
       <c r="J394" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
-      <sortCondition ref="A1:A65"/>
+  <autoFilter ref="A1:E390">
+    <sortState ref="A1:E390">
+      <sortCondition ref="A1:A390"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
-    <sortCondition descending="1" ref="F2:F65"/>
-  </sortState>
-  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C13" r:id="rId1" display="https://www.bilibili.com/video/BV1PY411u7sg"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://www.bilibili.com/video/BV1dL411p75E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\internet\chat\tencent\qqsave\1824390830\filerecv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F9BFE-25BE-4A5A-8C24-1F81CA99286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$390</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t>歌名</t>
   </si>
@@ -34,6 +40,9 @@
     <t>备注（不显示,仅用作搜索）</t>
   </si>
   <si>
+    <t>是否新歌</t>
+  </si>
+  <si>
     <t>Say So -Japanese Version</t>
   </si>
   <si>
@@ -43,6 +52,24 @@
     <t>日语</t>
   </si>
   <si>
+    <t>Sentimental Crisis</t>
+  </si>
+  <si>
+    <t>Hanser</t>
+  </si>
+  <si>
+    <t>国语</t>
+  </si>
+  <si>
+    <t>Upupu</t>
+  </si>
+  <si>
+    <t>皮皮爱习题</t>
+  </si>
+  <si>
+    <t>国语，可爱</t>
+  </si>
+  <si>
     <t>Will save us</t>
   </si>
   <si>
@@ -73,12 +100,6 @@
     <t>百变奶精</t>
   </si>
   <si>
-    <t>Hanser</t>
-  </si>
-  <si>
-    <t>国语，可爱</t>
-  </si>
-  <si>
     <t>彼女は旅に出る</t>
   </si>
   <si>
@@ -112,6 +133,12 @@
     <t>国语,流行</t>
   </si>
   <si>
+    <t>大吉</t>
+  </si>
+  <si>
+    <t>Akie秋绘</t>
+  </si>
+  <si>
     <t>大喜</t>
   </si>
   <si>
@@ -139,9 +166,6 @@
     <t>https://www.bilibili.com/video/BV1PY411u7sg</t>
   </si>
   <si>
-    <t>国语</t>
-  </si>
-  <si>
     <t>盗将行</t>
   </si>
   <si>
@@ -151,6 +175,12 @@
     <t>国语，古风</t>
   </si>
   <si>
+    <t>非花</t>
+  </si>
+  <si>
+    <t>锦零</t>
+  </si>
+  <si>
     <t>告白</t>
   </si>
   <si>
@@ -214,6 +244,12 @@
     <t>日语,流行</t>
   </si>
   <si>
+    <t>凉城</t>
+  </si>
+  <si>
+    <t>任然</t>
+  </si>
+  <si>
     <t>绿色</t>
   </si>
   <si>
@@ -265,6 +301,9 @@
     <t>阿肆</t>
   </si>
   <si>
+    <t>https://www.bilibili.com/video/BV19B4y1N7Et</t>
+  </si>
+  <si>
     <t>神的随波逐流</t>
   </si>
   <si>
@@ -307,6 +346,9 @@
     <t>acane_madder</t>
   </si>
   <si>
+    <t>https://www.bilibili.com/video/BV1Kh411f7R7</t>
+  </si>
+  <si>
     <t>兔子先生</t>
   </si>
   <si>
@@ -337,9 +379,6 @@
     <t>我们的回忆还很长</t>
   </si>
   <si>
-    <t>Akie秋绘</t>
-  </si>
-  <si>
     <t>下山</t>
   </si>
   <si>
@@ -412,6 +451,18 @@
     <t>日语,动画,《BEASTARS》</t>
   </si>
   <si>
+    <t>月无眠</t>
+  </si>
+  <si>
+    <t>酒禾</t>
+  </si>
+  <si>
+    <t>越权访问-崩坏：星穹铁道</t>
+  </si>
+  <si>
+    <t>国语，星穹铁道，游戏</t>
+  </si>
+  <si>
     <t>云烟成雨</t>
   </si>
   <si>
@@ -434,42 +485,6 @@
   </si>
   <si>
     <t>追</t>
-  </si>
-  <si>
-    <t>非花</t>
-  </si>
-  <si>
-    <t>锦零</t>
-  </si>
-  <si>
-    <t>月无眠</t>
-  </si>
-  <si>
-    <t>酒禾</t>
-  </si>
-  <si>
-    <t>Upupu</t>
-  </si>
-  <si>
-    <t>皮皮爱习题</t>
-  </si>
-  <si>
-    <t>越权访问-崩坏：星穹铁道</t>
-  </si>
-  <si>
-    <t>国语，星穹铁道，游戏</t>
-  </si>
-  <si>
-    <t>Sentimental Crisis</t>
-  </si>
-  <si>
-    <t>凉城</t>
-  </si>
-  <si>
-    <t>任然</t>
-  </si>
-  <si>
-    <t>大吉</t>
   </si>
   <si>
     <t>玛德琳娜电塔</t>
@@ -487,14 +502,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -543,6 +552,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -576,375 +591,48 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
       <name val="-apple-system"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF18191C"/>
       <name val="-apple-system"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -952,377 +640,79 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1580,31 +970,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="63" customWidth="1"/>
-    <col min="6" max="10" width="11" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:10">
+    <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,22 +1010,24 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" ht="17.25" spans="1:10">
+    <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1644,70 +1036,74 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" ht="17.25" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
+    <row r="3" spans="1:10" ht="17.399999999999999">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" ht="17.25" spans="1:10">
+    <row r="4" spans="1:10" ht="17.399999999999999">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" ht="17.25" spans="1:10">
+    <row r="5" spans="1:10" ht="17.399999999999999">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" ht="17.25" spans="1:10">
+    <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1716,34 +1112,34 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" ht="17.25" spans="1:10">
+    <row r="7" spans="1:10" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" ht="17.25" spans="1:10">
+    <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1752,7 +1148,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" ht="17.25" spans="1:10">
+    <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1157,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1770,16 +1166,16 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" ht="17.25" spans="1:10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:10" ht="17.399999999999999">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1788,16 +1184,16 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" ht="17.25" spans="1:10">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:10" ht="17.399999999999999">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1806,16 +1202,16 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" ht="17.25" spans="1:10">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:10" ht="17.399999999999999">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1824,36 +1220,36 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" ht="17.25" spans="1:10">
+    <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" ht="17.25" spans="1:10">
+    <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1862,18 +1258,16 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" ht="17.25" spans="1:10">
-      <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
+    <row r="15" spans="1:10" ht="17.399999999999999">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1882,16 +1276,18 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" ht="17.25" spans="1:10">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:10" ht="17.399999999999999">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9" t="s">
-        <v>24</v>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1900,70 +1296,74 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" ht="17.25" spans="1:10">
+    <row r="17" spans="1:10" ht="17.399999999999999">
       <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" ht="17.25" spans="1:10">
+    <row r="18" spans="1:10" ht="17.399999999999999">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" ht="17.25" spans="1:10">
+    <row r="19" spans="1:10" ht="17.399999999999999">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" ht="17.25" spans="1:10">
+    <row r="20" spans="1:10" ht="17.399999999999999">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1972,16 +1372,16 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" ht="17.25" spans="1:10">
-      <c r="A21" s="13" t="s">
-        <v>55</v>
+    <row r="21" spans="1:10" ht="17.399999999999999">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
@@ -1990,16 +1390,16 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" ht="17.25" spans="1:10">
+    <row r="22" spans="1:10" ht="17.399999999999999">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2008,7 +1408,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" ht="17.25" spans="1:10">
+    <row r="23" spans="1:10" ht="17.399999999999999">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -2016,26 +1416,26 @@
         <v>60</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" ht="17.25" spans="1:10">
+    <row r="24" spans="1:10" ht="17.399999999999999">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2044,34 +1444,34 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" ht="17.25" spans="1:10">
-      <c r="A25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:10" ht="17.399999999999999">
+      <c r="A25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" ht="17.25" spans="1:10">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:10" ht="17.399999999999999">
+      <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2080,7 +1480,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" ht="17.25" spans="1:10">
+    <row r="27" spans="1:10" ht="17.399999999999999">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
@@ -2089,7 +1489,7 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2098,16 +1498,16 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" ht="17.25" spans="1:10">
+    <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2116,54 +1516,54 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" ht="17.25" spans="1:10">
-      <c r="A29" s="13" t="s">
-        <v>72</v>
+    <row r="29" spans="1:10" ht="17.399999999999999">
+      <c r="A29" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" ht="17.25" spans="1:10">
+    <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" ht="17.25" spans="1:10">
-      <c r="A31" s="5" t="s">
-        <v>74</v>
+    <row r="31" spans="1:10" ht="17.399999999999999">
+      <c r="A31" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C31" s="11"/>
       <c r="D31" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2172,7 +1572,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" ht="17.25" spans="1:10">
+    <row r="32" spans="1:10" ht="17.399999999999999">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2181,7 +1581,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2190,16 +1590,16 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" ht="17.25" spans="1:10">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:10" ht="17.399999999999999">
+      <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="14"/>
+      <c r="B33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2208,54 +1608,54 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" ht="17.25" spans="1:10">
-      <c r="A34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="4"/>
+    <row r="34" spans="1:10" ht="17.399999999999999">
+      <c r="A34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" ht="17.25" spans="1:10">
-      <c r="A35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="9" t="s">
+    <row r="35" spans="1:10" ht="17.399999999999999">
+      <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="B35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" ht="17.25" spans="1:10">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:10" ht="17.399999999999999">
+      <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="9" t="s">
-        <v>40</v>
+      <c r="C36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2264,52 +1664,54 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" ht="17.25" spans="1:10">
-      <c r="A37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:10" ht="17.399999999999999">
+      <c r="A37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" ht="17.25" spans="1:10">
-      <c r="A38" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="15" t="s">
+    <row r="38" spans="1:10" ht="17.399999999999999">
+      <c r="A38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="11"/>
       <c r="D38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" ht="17.25" spans="1:10">
+    <row r="39" spans="1:10" ht="17.399999999999999">
       <c r="A39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="4"/>
       <c r="D39" s="6" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2318,34 +1720,36 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" ht="17.25" spans="1:10">
+    <row r="40" spans="1:10" ht="17.399999999999999">
       <c r="A40" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" ht="17.25" spans="1:10">
+    <row r="41" spans="1:10" ht="17.399999999999999">
       <c r="A41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2354,16 +1758,16 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" ht="17.25" spans="1:10">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:10" ht="17.399999999999999">
+      <c r="A42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="16" t="s">
-        <v>100</v>
+      <c r="C42" s="4"/>
+      <c r="D42" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="4"/>
@@ -2372,34 +1776,34 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" ht="17.25" spans="1:10">
-      <c r="A43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>102</v>
+    <row r="43" spans="1:10" ht="17.399999999999999">
+      <c r="A43" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" ht="17.25" spans="1:10">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:10" ht="17.399999999999999">
+      <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2408,16 +1812,18 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" ht="17.25" spans="1:10">
+    <row r="45" spans="1:10" ht="17.399999999999999">
       <c r="A45" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D45" s="6" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2426,16 +1832,16 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" ht="17.25" spans="1:10">
+    <row r="46" spans="1:10" ht="17.399999999999999">
       <c r="A46" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2444,34 +1850,34 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" ht="17.25" spans="1:10">
-      <c r="A47" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="1:10" ht="17.399999999999999">
+      <c r="A47" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" ht="17.25" spans="1:10">
+    <row r="48" spans="1:10" ht="17.399999999999999">
       <c r="A48" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2480,16 +1886,16 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" ht="17.25" spans="1:10">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:10" ht="17.399999999999999">
+      <c r="A49" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2498,16 +1904,16 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" ht="17.25" spans="1:10">
-      <c r="A50" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9" t="s">
-        <v>40</v>
+    <row r="50" spans="1:10" ht="17.399999999999999">
+      <c r="A50" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2516,16 +1922,16 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" ht="17.25" spans="1:10">
+    <row r="51" spans="1:10" ht="17.399999999999999">
       <c r="A51" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2534,16 +1940,16 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" ht="17.25" spans="1:10">
+    <row r="52" spans="1:10" ht="17.399999999999999">
       <c r="A52" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2552,16 +1958,16 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" ht="17.25" spans="1:10">
+    <row r="53" spans="1:10" ht="17.399999999999999">
       <c r="A53" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2570,16 +1976,16 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" ht="17.25" spans="1:10">
-      <c r="A54" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>129</v>
+    <row r="54" spans="1:10" ht="17.399999999999999">
+      <c r="A54" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2588,16 +1994,16 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" ht="17.25" spans="1:10">
+    <row r="55" spans="1:10" ht="17.399999999999999">
       <c r="A55" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2606,16 +2012,16 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" ht="17.25" spans="1:10">
-      <c r="A56" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9" t="s">
-        <v>30</v>
+    <row r="56" spans="1:10" ht="17.399999999999999">
+      <c r="A56" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2624,16 +2030,16 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" ht="17.25" spans="1:10">
+    <row r="57" spans="1:10" ht="17.399999999999999">
       <c r="A57" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="6" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2642,16 +2048,16 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" ht="17.25" spans="1:10">
+    <row r="58" spans="1:10" ht="17.399999999999999">
       <c r="A58" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2660,16 +2066,16 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" ht="17.25" spans="1:10">
+    <row r="59" spans="1:10" ht="17.399999999999999">
       <c r="A59" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2678,70 +2084,74 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" ht="17.25" spans="1:10">
+    <row r="60" spans="1:10" ht="17.399999999999999">
       <c r="A60" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" ht="17.25" spans="1:10">
-      <c r="A61" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="1:10" ht="17.399999999999999">
+      <c r="A61" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="B61" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" ht="17.25" spans="1:10">
-      <c r="A62" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="7"/>
+    <row r="62" spans="1:10" ht="17.399999999999999">
+      <c r="A62" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" ht="17.25" spans="1:10">
-      <c r="A63" s="19" t="s">
-        <v>147</v>
+    <row r="63" spans="1:10" ht="17.399999999999999">
+      <c r="A63" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2750,16 +2160,16 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" ht="17.25" spans="1:10">
-      <c r="A64" s="5" t="s">
-        <v>148</v>
+    <row r="64" spans="1:10" ht="17.399999999999999">
+      <c r="A64" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="6" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2768,16 +2178,16 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" ht="17.25" spans="1:10">
-      <c r="A65" s="5" t="s">
-        <v>150</v>
+    <row r="65" spans="1:10" ht="17.399999999999999">
+      <c r="A65" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2786,43 +2196,47 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" ht="17.25" spans="1:10">
-      <c r="A66" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" t="s">
-        <v>152</v>
+    <row r="66" spans="1:10" ht="17.399999999999999">
+      <c r="A66" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" ht="17.25" spans="1:10">
-      <c r="A67" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" t="s">
-        <v>154</v>
+    <row r="67" spans="1:10" ht="17.399999999999999">
+      <c r="A67" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" ht="17.25" spans="1:10">
+    <row r="68" spans="1:10" ht="17.399999999999999">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
@@ -2834,7 +2248,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" ht="17.25" spans="1:10">
+    <row r="69" spans="1:10" ht="17.399999999999999">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
@@ -2846,7 +2260,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" ht="17.25" spans="1:10">
+    <row r="70" spans="1:10" ht="17.399999999999999">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
@@ -2858,7 +2272,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" ht="17.25" spans="1:10">
+    <row r="71" spans="1:10" ht="17.399999999999999">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
@@ -2870,7 +2284,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" ht="17.25" spans="1:10">
+    <row r="72" spans="1:10" ht="17.399999999999999">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
@@ -2882,7 +2296,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" ht="17.25" spans="1:10">
+    <row r="73" spans="1:10" ht="17.399999999999999">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
@@ -2894,7 +2308,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" ht="17.25" spans="1:10">
+    <row r="74" spans="1:10" ht="17.399999999999999">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
@@ -2906,7 +2320,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" ht="17.25" spans="1:10">
+    <row r="75" spans="1:10" ht="17.399999999999999">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="4"/>
@@ -2918,9 +2332,9 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" ht="17.25" spans="1:10">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
+    <row r="76" spans="1:10" ht="17.399999999999999">
+      <c r="A76" s="10"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="7"/>
       <c r="D76" s="6"/>
       <c r="E76" s="4"/>
@@ -2930,7 +2344,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" ht="17.25" spans="1:10">
+    <row r="77" spans="1:10" ht="17.399999999999999">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -2942,7 +2356,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" ht="17.25" spans="1:10">
+    <row r="78" spans="1:10" ht="17.399999999999999">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
@@ -2954,7 +2368,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" ht="17.25" spans="1:10">
+    <row r="79" spans="1:10" ht="17.399999999999999">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -2966,7 +2380,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" ht="17.25" spans="1:10">
+    <row r="80" spans="1:10" ht="17.399999999999999">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -2978,7 +2392,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" ht="17.25" spans="1:10">
+    <row r="81" spans="1:10" ht="17.399999999999999">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
@@ -2990,7 +2404,7 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" ht="17.25" spans="1:10">
+    <row r="82" spans="1:10" ht="17.399999999999999">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
@@ -3002,9 +2416,9 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" ht="17.25" spans="1:10">
-      <c r="A83" s="13"/>
-      <c r="B83" s="15"/>
+    <row r="83" spans="1:10" ht="17.399999999999999">
+      <c r="A83" s="10"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -3014,7 +2428,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" ht="17.25" spans="1:10">
+    <row r="84" spans="1:10" ht="17.399999999999999">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
@@ -3026,7 +2440,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" ht="17.25" spans="1:10">
+    <row r="85" spans="1:10" ht="17.399999999999999">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -3038,8 +2452,8 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" ht="17.25" spans="1:10">
-      <c r="A86" s="13"/>
+    <row r="86" spans="1:10" ht="17.399999999999999">
+      <c r="A86" s="10"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3050,7 +2464,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" ht="17.25" spans="1:10">
+    <row r="87" spans="1:10" ht="17.399999999999999">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
@@ -3062,11 +2476,11 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" ht="17.25" spans="1:10">
+    <row r="88" spans="1:10" ht="17.399999999999999">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="20"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -3074,7 +2488,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" ht="17.25" spans="1:10">
+    <row r="89" spans="1:10" ht="17.399999999999999">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
@@ -3086,7 +2500,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" ht="17.25" spans="1:10">
+    <row r="90" spans="1:10" ht="17.399999999999999">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
@@ -3098,7 +2512,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" ht="17.25" spans="1:10">
+    <row r="91" spans="1:10" ht="17.399999999999999">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
@@ -3110,7 +2524,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" ht="17.25" spans="1:10">
+    <row r="92" spans="1:10" ht="17.399999999999999">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
@@ -3122,7 +2536,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" ht="17.25" spans="1:10">
+    <row r="93" spans="1:10" ht="17.399999999999999">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
@@ -3134,7 +2548,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" ht="17.25" spans="1:10">
+    <row r="94" spans="1:10" ht="17.399999999999999">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -3146,9 +2560,9 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" ht="17.25" spans="1:10">
-      <c r="A95" s="13"/>
-      <c r="B95" s="15"/>
+    <row r="95" spans="1:10" ht="17.399999999999999">
+      <c r="A95" s="10"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="7"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -3158,7 +2572,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" ht="17.25" spans="1:10">
+    <row r="96" spans="1:10" ht="17.399999999999999">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
@@ -3170,7 +2584,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" ht="17.25" spans="1:10">
+    <row r="97" spans="1:10" ht="17.399999999999999">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
@@ -3182,7 +2596,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" ht="17.25" spans="1:10">
+    <row r="98" spans="1:10" ht="17.399999999999999">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
@@ -3194,7 +2608,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" ht="17.25" spans="1:10">
+    <row r="99" spans="1:10" ht="17.399999999999999">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
@@ -3206,7 +2620,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" ht="17.25" spans="1:10">
+    <row r="100" spans="1:10" ht="17.399999999999999">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
@@ -3218,7 +2632,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" ht="17.25" spans="1:10">
+    <row r="101" spans="1:10" ht="17.399999999999999">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
@@ -3230,7 +2644,7 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" ht="17.25" spans="1:10">
+    <row r="102" spans="1:10" ht="17.399999999999999">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
@@ -3242,7 +2656,7 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" ht="17.25" spans="1:10">
+    <row r="103" spans="1:10" ht="17.399999999999999">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
@@ -3254,7 +2668,7 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" ht="17.25" spans="1:10">
+    <row r="104" spans="1:10" ht="17.399999999999999">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
@@ -3266,7 +2680,7 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" ht="17.25" spans="1:10">
+    <row r="105" spans="1:10" ht="17.399999999999999">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
@@ -3278,7 +2692,7 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" ht="17.25" spans="1:10">
+    <row r="106" spans="1:10" ht="17.399999999999999">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -3290,7 +2704,7 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" ht="17.25" spans="1:10">
+    <row r="107" spans="1:10" ht="17.399999999999999">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
@@ -3302,7 +2716,7 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" ht="17.25" spans="1:10">
+    <row r="108" spans="1:10" ht="17.399999999999999">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
@@ -3314,7 +2728,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" ht="17.25" spans="1:10">
+    <row r="109" spans="1:10" ht="17.399999999999999">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
@@ -3326,7 +2740,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" ht="17.25" spans="1:10">
+    <row r="110" spans="1:10" ht="17.399999999999999">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
@@ -3338,7 +2752,7 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" ht="17.25" spans="1:10">
+    <row r="111" spans="1:10" ht="17.399999999999999">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4"/>
@@ -3350,7 +2764,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" ht="17.25" spans="1:10">
+    <row r="112" spans="1:10" ht="17.399999999999999">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
@@ -3362,11 +2776,11 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" ht="17.25" spans="1:10">
+    <row r="113" spans="1:10" ht="17.399999999999999">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="20"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -3374,10 +2788,10 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" ht="18.75" spans="1:10">
+    <row r="114" spans="1:10" ht="19.2">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="21"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="6"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -3386,7 +2800,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" ht="17.25" spans="1:10">
+    <row r="115" spans="1:10" ht="17.399999999999999">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
@@ -3398,9 +2812,9 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" ht="17.25" spans="1:10">
-      <c r="A116" s="13"/>
-      <c r="B116" s="15"/>
+    <row r="116" spans="1:10" ht="17.399999999999999">
+      <c r="A116" s="10"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="7"/>
       <c r="D116" s="6"/>
       <c r="E116" s="4"/>
@@ -3410,7 +2824,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" ht="17.25" spans="1:10">
+    <row r="117" spans="1:10" ht="17.399999999999999">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -3422,7 +2836,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" ht="17.25" spans="1:10">
+    <row r="118" spans="1:10" ht="17.399999999999999">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
@@ -3434,7 +2848,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" ht="17.25" spans="1:10">
+    <row r="119" spans="1:10" ht="17.399999999999999">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
@@ -3446,7 +2860,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" ht="17.25" spans="1:10">
+    <row r="120" spans="1:10" ht="17.399999999999999">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
@@ -3458,7 +2872,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" ht="17.25" spans="1:10">
+    <row r="121" spans="1:10" ht="17.399999999999999">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
@@ -3470,7 +2884,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" ht="17.25" spans="1:10">
+    <row r="122" spans="1:10" ht="17.399999999999999">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
@@ -3482,7 +2896,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" ht="17.25" spans="1:10">
+    <row r="123" spans="1:10" ht="17.399999999999999">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
@@ -3494,7 +2908,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" ht="17.25" spans="1:10">
+    <row r="124" spans="1:10" ht="17.399999999999999">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4"/>
@@ -3506,7 +2920,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" ht="17.25" spans="1:10">
+    <row r="125" spans="1:10" ht="17.399999999999999">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4"/>
@@ -3518,7 +2932,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" ht="17.25" spans="1:10">
+    <row r="126" spans="1:10" ht="17.399999999999999">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4"/>
@@ -3530,7 +2944,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" ht="17.25" spans="1:10">
+    <row r="127" spans="1:10" ht="17.399999999999999">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="4"/>
@@ -3542,7 +2956,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" ht="17.25" spans="1:10">
+    <row r="128" spans="1:10" ht="17.399999999999999">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="4"/>
@@ -3554,7 +2968,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" ht="17.25" spans="1:10">
+    <row r="129" spans="1:10" ht="17.399999999999999">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -3566,7 +2980,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" ht="17.25" spans="1:10">
+    <row r="130" spans="1:10" ht="17.399999999999999">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="4"/>
@@ -3578,7 +2992,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" ht="17.25" spans="1:10">
+    <row r="131" spans="1:10" ht="17.399999999999999">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="4"/>
@@ -3590,7 +3004,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" ht="17.25" spans="1:10">
+    <row r="132" spans="1:10" ht="17.399999999999999">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4"/>
@@ -3602,7 +3016,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" ht="17.25" spans="1:10">
+    <row r="133" spans="1:10" ht="17.399999999999999">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4"/>
@@ -3614,7 +3028,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" ht="17.25" spans="1:10">
+    <row r="134" spans="1:10" ht="17.399999999999999">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
@@ -3626,7 +3040,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" ht="17.25" spans="1:10">
+    <row r="135" spans="1:10" ht="17.399999999999999">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -3638,9 +3052,9 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" ht="17.25" spans="1:10">
-      <c r="A136" s="13"/>
-      <c r="B136" s="15"/>
+    <row r="136" spans="1:10" ht="17.399999999999999">
+      <c r="A136" s="10"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
       <c r="E136" s="4"/>
@@ -3650,8 +3064,8 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" ht="17.25" spans="1:10">
-      <c r="A137" s="13"/>
+    <row r="137" spans="1:10" ht="17.399999999999999">
+      <c r="A137" s="10"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="6"/>
@@ -3662,7 +3076,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" ht="17.25" spans="1:10">
+    <row r="138" spans="1:10" ht="17.399999999999999">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="4"/>
@@ -3674,7 +3088,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" ht="17.25" spans="1:10">
+    <row r="139" spans="1:10" ht="17.399999999999999">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="4"/>
@@ -3686,7 +3100,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" ht="17.25" spans="1:10">
+    <row r="140" spans="1:10" ht="17.399999999999999">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="4"/>
@@ -3698,10 +3112,10 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" ht="17.25" spans="1:10">
-      <c r="A141" s="13"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="14"/>
+    <row r="141" spans="1:10" ht="17.399999999999999">
+      <c r="A141" s="10"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="6"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -3710,8 +3124,8 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" ht="17.25" spans="1:10">
-      <c r="A142" s="13"/>
+    <row r="142" spans="1:10" ht="17.399999999999999">
+      <c r="A142" s="10"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
@@ -3722,7 +3136,7 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" ht="17.25" spans="1:10">
+    <row r="143" spans="1:10" ht="17.399999999999999">
       <c r="A143" s="5"/>
       <c r="B143" s="2"/>
       <c r="C143" s="4"/>
@@ -3734,7 +3148,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" ht="17.25" spans="1:10">
+    <row r="144" spans="1:10" ht="17.399999999999999">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="4"/>
@@ -3746,7 +3160,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" ht="17.25" spans="1:10">
+    <row r="145" spans="1:10" ht="17.399999999999999">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4"/>
@@ -3758,7 +3172,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" ht="17.25" spans="1:10">
+    <row r="146" spans="1:10" ht="17.399999999999999">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4"/>
@@ -3770,7 +3184,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" ht="17.25" spans="1:10">
+    <row r="147" spans="1:10" ht="17.399999999999999">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4"/>
@@ -3782,9 +3196,9 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" ht="17.25" spans="1:10">
+    <row r="148" spans="1:10" ht="17.399999999999999">
       <c r="A148" s="5"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="4"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -3794,7 +3208,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" ht="17.25" spans="1:10">
+    <row r="149" spans="1:10" ht="17.399999999999999">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4"/>
@@ -3806,8 +3220,8 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" ht="17.25" spans="1:10">
-      <c r="A150" s="13"/>
+    <row r="150" spans="1:10" ht="17.399999999999999">
+      <c r="A150" s="10"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
       <c r="D150" s="6"/>
@@ -3818,7 +3232,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" ht="17.25" spans="1:10">
+    <row r="151" spans="1:10" ht="17.399999999999999">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
@@ -3830,7 +3244,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" ht="17.25" spans="1:10">
+    <row r="152" spans="1:10" ht="17.399999999999999">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="4"/>
@@ -3842,7 +3256,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" ht="17.25" spans="1:10">
+    <row r="153" spans="1:10" ht="17.399999999999999">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="4"/>
@@ -3854,7 +3268,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" ht="17.25" spans="1:10">
+    <row r="154" spans="1:10" ht="17.399999999999999">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4"/>
@@ -3866,7 +3280,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" ht="17.25" spans="1:10">
+    <row r="155" spans="1:10" ht="17.399999999999999">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
@@ -3878,7 +3292,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" ht="17.25" spans="1:10">
+    <row r="156" spans="1:10" ht="17.399999999999999">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
@@ -3890,7 +3304,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" ht="17.25" spans="1:10">
+    <row r="157" spans="1:10" ht="17.399999999999999">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
@@ -3902,7 +3316,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" ht="17.25" spans="1:10">
+    <row r="158" spans="1:10" ht="17.399999999999999">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
@@ -3914,7 +3328,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" ht="17.25" spans="1:10">
+    <row r="159" spans="1:10" ht="17.399999999999999">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
@@ -3926,7 +3340,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" ht="17.25" spans="1:10">
+    <row r="160" spans="1:10" ht="17.399999999999999">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
@@ -3938,7 +3352,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" ht="17.25" spans="1:10">
+    <row r="161" spans="1:10" ht="17.399999999999999">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
@@ -3950,7 +3364,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" ht="17.25" spans="1:10">
+    <row r="162" spans="1:10" ht="17.399999999999999">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
@@ -3962,7 +3376,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" ht="17.25" spans="1:10">
+    <row r="163" spans="1:10" ht="17.399999999999999">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
@@ -3974,7 +3388,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" ht="17.25" spans="1:10">
+    <row r="164" spans="1:10" ht="17.399999999999999">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
@@ -3986,7 +3400,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" ht="17.25" spans="1:10">
+    <row r="165" spans="1:10" ht="17.399999999999999">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
@@ -3998,7 +3412,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" ht="17.25" spans="1:10">
+    <row r="166" spans="1:10" ht="17.399999999999999">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
@@ -4010,7 +3424,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" ht="17.25" spans="1:10">
+    <row r="167" spans="1:10" ht="17.399999999999999">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
@@ -4022,7 +3436,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" ht="17.25" spans="1:10">
+    <row r="168" spans="1:10" ht="17.399999999999999">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
@@ -4034,7 +3448,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" ht="17.25" spans="1:10">
+    <row r="169" spans="1:10" ht="17.399999999999999">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
@@ -4046,7 +3460,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" ht="17.25" spans="1:10">
+    <row r="170" spans="1:10" ht="17.399999999999999">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
@@ -4058,7 +3472,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" ht="17.25" spans="1:10">
+    <row r="171" spans="1:10" ht="17.399999999999999">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
@@ -4070,7 +3484,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" ht="17.25" spans="1:10">
+    <row r="172" spans="1:10" ht="17.399999999999999">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
@@ -4082,7 +3496,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" ht="17.25" spans="1:10">
+    <row r="173" spans="1:10" ht="17.399999999999999">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
@@ -4094,9 +3508,9 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" ht="17.25" spans="1:10">
-      <c r="A174" s="13"/>
-      <c r="B174" s="15"/>
+    <row r="174" spans="1:10" ht="17.399999999999999">
+      <c r="A174" s="10"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="7"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
@@ -4106,7 +3520,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" ht="17.25" spans="1:10">
+    <row r="175" spans="1:10" ht="17.399999999999999">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
@@ -4118,7 +3532,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" ht="17.25" spans="1:10">
+    <row r="176" spans="1:10" ht="17.399999999999999">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -4130,7 +3544,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" ht="17.25" spans="1:10">
+    <row r="177" spans="1:10" ht="17.399999999999999">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -4142,7 +3556,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" ht="17.25" spans="1:10">
+    <row r="178" spans="1:10" ht="17.399999999999999">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
@@ -4154,7 +3568,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" ht="17.25" spans="1:10">
+    <row r="179" spans="1:10" ht="17.399999999999999">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
@@ -4166,7 +3580,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" ht="17.25" spans="1:10">
+    <row r="180" spans="1:10" ht="17.399999999999999">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -4178,7 +3592,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" ht="17.25" spans="1:10">
+    <row r="181" spans="1:10" ht="17.399999999999999">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
@@ -4190,11 +3604,11 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" ht="17.25" spans="1:10">
+    <row r="182" spans="1:10" ht="17.399999999999999">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="20"/>
+      <c r="D182" s="14"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
@@ -4202,7 +3616,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" ht="17.25" spans="1:10">
+    <row r="183" spans="1:10" ht="17.399999999999999">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
@@ -4214,7 +3628,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" ht="17.25" spans="1:10">
+    <row r="184" spans="1:10" ht="17.399999999999999">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -4226,7 +3640,7 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" ht="17.25" spans="1:10">
+    <row r="185" spans="1:10" ht="17.399999999999999">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -4238,7 +3652,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" ht="17.25" spans="1:10">
+    <row r="186" spans="1:10" ht="17.399999999999999">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -4250,8 +3664,8 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" ht="17.25" spans="1:10">
-      <c r="A187" s="13"/>
+    <row r="187" spans="1:10" ht="17.399999999999999">
+      <c r="A187" s="10"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4"/>
       <c r="D187" s="6"/>
@@ -4262,7 +3676,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" ht="17.25" spans="1:10">
+    <row r="188" spans="1:10" ht="17.399999999999999">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4"/>
@@ -4274,7 +3688,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" ht="17.25" spans="1:10">
+    <row r="189" spans="1:10" ht="17.399999999999999">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4"/>
@@ -4286,7 +3700,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" ht="17.25" spans="1:10">
+    <row r="190" spans="1:10" ht="17.399999999999999">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="4"/>
@@ -4298,7 +3712,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" ht="17.25" spans="1:10">
+    <row r="191" spans="1:10" ht="17.399999999999999">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="4"/>
@@ -4310,7 +3724,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" ht="17.25" spans="1:10">
+    <row r="192" spans="1:10" ht="17.399999999999999">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4"/>
@@ -4322,7 +3736,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" ht="17.25" spans="1:10">
+    <row r="193" spans="1:10" ht="17.399999999999999">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4"/>
@@ -4334,7 +3748,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" ht="17.25" spans="1:10">
+    <row r="194" spans="1:10" ht="17.399999999999999">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4"/>
@@ -4346,7 +3760,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" ht="17.25" spans="1:10">
+    <row r="195" spans="1:10" ht="17.399999999999999">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4"/>
@@ -4358,7 +3772,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" ht="17.25" spans="1:10">
+    <row r="196" spans="1:10" ht="17.399999999999999">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -4370,7 +3784,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" ht="17.25" spans="1:10">
+    <row r="197" spans="1:10" ht="17.399999999999999">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4"/>
@@ -4382,7 +3796,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" ht="17.25" spans="1:10">
+    <row r="198" spans="1:10" ht="17.399999999999999">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="4"/>
@@ -4394,7 +3808,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" ht="17.25" spans="1:10">
+    <row r="199" spans="1:10" ht="17.399999999999999">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="4"/>
@@ -4406,9 +3820,9 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" ht="17.25" spans="1:10">
-      <c r="A200" s="13"/>
-      <c r="B200" s="15"/>
+    <row r="200" spans="1:10" ht="17.399999999999999">
+      <c r="A200" s="10"/>
+      <c r="B200" s="12"/>
       <c r="C200" s="7"/>
       <c r="D200" s="6"/>
       <c r="E200" s="4"/>
@@ -4418,7 +3832,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" ht="17.25" spans="1:10">
+    <row r="201" spans="1:10" ht="17.399999999999999">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="4"/>
@@ -4430,9 +3844,9 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" ht="17.25" spans="1:10">
-      <c r="A202" s="13"/>
-      <c r="B202" s="15"/>
+    <row r="202" spans="1:10" ht="17.399999999999999">
+      <c r="A202" s="10"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="7"/>
       <c r="D202" s="6"/>
       <c r="E202" s="4"/>
@@ -4442,7 +3856,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" ht="17.25" spans="1:10">
+    <row r="203" spans="1:10" ht="17.399999999999999">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4"/>
@@ -4454,7 +3868,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" ht="17.25" spans="1:10">
+    <row r="204" spans="1:10" ht="17.399999999999999">
       <c r="A204" s="5"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4"/>
@@ -4466,7 +3880,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" ht="17.25" spans="1:10">
+    <row r="205" spans="1:10" ht="17.399999999999999">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4"/>
@@ -4478,7 +3892,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" ht="17.25" spans="1:10">
+    <row r="206" spans="1:10" ht="17.399999999999999">
       <c r="A206" s="5"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
@@ -4490,7 +3904,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" ht="17.25" spans="1:10">
+    <row r="207" spans="1:10" ht="17.399999999999999">
       <c r="A207" s="5"/>
       <c r="B207" s="2"/>
       <c r="C207" s="7"/>
@@ -4502,7 +3916,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" ht="17.25" spans="1:10">
+    <row r="208" spans="1:10" ht="17.399999999999999">
       <c r="A208" s="5"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4"/>
@@ -4514,7 +3928,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" ht="17.25" spans="1:10">
+    <row r="209" spans="1:10" ht="17.399999999999999">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4"/>
@@ -4526,9 +3940,9 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" ht="17.25" spans="1:10">
+    <row r="210" spans="1:10" ht="17.399999999999999">
       <c r="A210" s="5"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="7"/>
       <c r="D210" s="6"/>
       <c r="E210" s="4"/>
@@ -4538,7 +3952,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" ht="17.25" spans="1:10">
+    <row r="211" spans="1:10" ht="17.399999999999999">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
       <c r="C211" s="4"/>
@@ -4550,7 +3964,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" ht="17.25" spans="1:10">
+    <row r="212" spans="1:10" ht="17.399999999999999">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
       <c r="C212" s="4"/>
@@ -4562,9 +3976,9 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" ht="17.25" spans="1:10">
-      <c r="A213" s="13"/>
-      <c r="B213" s="23"/>
+    <row r="213" spans="1:10" ht="17.399999999999999">
+      <c r="A213" s="10"/>
+      <c r="B213" s="17"/>
       <c r="C213" s="7"/>
       <c r="D213" s="6"/>
       <c r="E213" s="4"/>
@@ -4574,7 +3988,7 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" ht="17.25" spans="1:10">
+    <row r="214" spans="1:10" ht="17.399999999999999">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="4"/>
@@ -4586,9 +4000,9 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" ht="17.25" spans="1:10">
-      <c r="A215" s="13"/>
-      <c r="B215" s="15"/>
+    <row r="215" spans="1:10" ht="17.399999999999999">
+      <c r="A215" s="10"/>
+      <c r="B215" s="12"/>
       <c r="C215" s="7"/>
       <c r="D215" s="6"/>
       <c r="E215" s="4"/>
@@ -4598,7 +4012,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" ht="17.25" spans="1:10">
+    <row r="216" spans="1:10" ht="17.399999999999999">
       <c r="A216" s="5"/>
       <c r="B216" s="6"/>
       <c r="C216" s="4"/>
@@ -4610,7 +4024,7 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" ht="17.25" spans="1:10">
+    <row r="217" spans="1:10" ht="17.399999999999999">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
       <c r="C217" s="4"/>
@@ -4622,7 +4036,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" ht="17.25" spans="1:10">
+    <row r="218" spans="1:10" ht="17.399999999999999">
       <c r="A218" s="5"/>
       <c r="B218" s="6"/>
       <c r="C218" s="4"/>
@@ -4634,7 +4048,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" ht="17.25" spans="1:10">
+    <row r="219" spans="1:10" ht="17.399999999999999">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
@@ -4646,7 +4060,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" ht="17.25" spans="1:10">
+    <row r="220" spans="1:10" ht="17.399999999999999">
       <c r="A220" s="5"/>
       <c r="B220" s="6"/>
       <c r="C220" s="4"/>
@@ -4658,7 +4072,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" ht="17.25" spans="1:10">
+    <row r="221" spans="1:10" ht="17.399999999999999">
       <c r="A221" s="5"/>
       <c r="B221" s="6"/>
       <c r="C221" s="4"/>
@@ -4670,7 +4084,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" ht="17.25" spans="1:10">
+    <row r="222" spans="1:10" ht="17.399999999999999">
       <c r="A222" s="5"/>
       <c r="B222" s="6"/>
       <c r="C222" s="4"/>
@@ -4682,7 +4096,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" ht="17.25" spans="1:10">
+    <row r="223" spans="1:10" ht="17.399999999999999">
       <c r="A223" s="5"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
@@ -4694,7 +4108,7 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" ht="17.25" spans="1:10">
+    <row r="224" spans="1:10" ht="17.399999999999999">
       <c r="A224" s="5"/>
       <c r="B224" s="6"/>
       <c r="C224" s="4"/>
@@ -4706,9 +4120,9 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" ht="17.25" spans="1:10">
-      <c r="A225" s="13"/>
-      <c r="B225" s="15"/>
+    <row r="225" spans="1:10" ht="17.399999999999999">
+      <c r="A225" s="10"/>
+      <c r="B225" s="12"/>
       <c r="C225" s="7"/>
       <c r="D225" s="6"/>
       <c r="E225" s="4"/>
@@ -4718,7 +4132,7 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" ht="17.25" spans="1:10">
+    <row r="226" spans="1:10" ht="17.399999999999999">
       <c r="A226" s="5"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
@@ -4730,7 +4144,7 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" ht="17.25" spans="1:10">
+    <row r="227" spans="1:10" ht="17.399999999999999">
       <c r="A227" s="5"/>
       <c r="B227" s="6"/>
       <c r="C227" s="4"/>
@@ -4742,7 +4156,7 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" ht="17.25" spans="1:10">
+    <row r="228" spans="1:10" ht="17.399999999999999">
       <c r="A228" s="5"/>
       <c r="B228" s="6"/>
       <c r="C228" s="4"/>
@@ -4754,7 +4168,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" ht="17.25" spans="1:10">
+    <row r="229" spans="1:10" ht="17.399999999999999">
       <c r="A229" s="5"/>
       <c r="B229" s="6"/>
       <c r="C229" s="4"/>
@@ -4766,7 +4180,7 @@
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" ht="17.25" spans="1:10">
+    <row r="230" spans="1:10" ht="17.399999999999999">
       <c r="A230" s="5"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
@@ -4778,7 +4192,7 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" ht="17.25" spans="1:10">
+    <row r="231" spans="1:10" ht="17.399999999999999">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -4790,7 +4204,7 @@
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" ht="17.25" spans="1:10">
+    <row r="232" spans="1:10" ht="17.399999999999999">
       <c r="A232" s="5"/>
       <c r="B232" s="6"/>
       <c r="C232" s="4"/>
@@ -4802,7 +4216,7 @@
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" ht="17.25" spans="1:10">
+    <row r="233" spans="1:10" ht="17.399999999999999">
       <c r="A233" s="5"/>
       <c r="B233" s="6"/>
       <c r="C233" s="4"/>
@@ -4814,7 +4228,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" ht="17.25" spans="1:10">
+    <row r="234" spans="1:10" ht="17.399999999999999">
       <c r="A234" s="5"/>
       <c r="B234" s="6"/>
       <c r="C234" s="4"/>
@@ -4826,7 +4240,7 @@
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" ht="17.25" spans="1:10">
+    <row r="235" spans="1:10" ht="17.399999999999999">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
@@ -4838,7 +4252,7 @@
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" ht="17.25" spans="1:10">
+    <row r="236" spans="1:10" ht="17.399999999999999">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="4"/>
@@ -4850,7 +4264,7 @@
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" ht="17.25" spans="1:10">
+    <row r="237" spans="1:10" ht="17.399999999999999">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="4"/>
@@ -4862,7 +4276,7 @@
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" ht="17.25" spans="1:10">
+    <row r="238" spans="1:10" ht="17.399999999999999">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="4"/>
@@ -4874,7 +4288,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" ht="17.25" spans="1:10">
+    <row r="239" spans="1:10" ht="17.399999999999999">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="4"/>
@@ -4886,7 +4300,7 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" ht="17.25" spans="1:10">
+    <row r="240" spans="1:10" ht="17.399999999999999">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="4"/>
@@ -4898,7 +4312,7 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" ht="17.25" spans="1:10">
+    <row r="241" spans="1:10" ht="17.399999999999999">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="4"/>
@@ -4910,7 +4324,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" ht="17.25" spans="1:10">
+    <row r="242" spans="1:10" ht="17.399999999999999">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="4"/>
@@ -4922,7 +4336,7 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" ht="17.25" spans="1:10">
+    <row r="243" spans="1:10" ht="17.399999999999999">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="4"/>
@@ -4934,9 +4348,9 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" ht="17.25" spans="1:10">
-      <c r="A244" s="13"/>
-      <c r="B244" s="15"/>
+    <row r="244" spans="1:10" ht="17.399999999999999">
+      <c r="A244" s="10"/>
+      <c r="B244" s="12"/>
       <c r="C244" s="7"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
@@ -4946,7 +4360,7 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" ht="17.25" spans="1:10">
+    <row r="245" spans="1:10" ht="17.399999999999999">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="4"/>
@@ -4958,7 +4372,7 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" ht="17.25" spans="1:10">
+    <row r="246" spans="1:10" ht="17.399999999999999">
       <c r="A246" s="1"/>
       <c r="B246" s="3"/>
       <c r="C246" s="4"/>
@@ -4970,7 +4384,7 @@
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" ht="17.25" spans="1:10">
+    <row r="247" spans="1:10" ht="17.399999999999999">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="4"/>
@@ -4982,7 +4396,7 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" ht="17.25" spans="1:10">
+    <row r="248" spans="1:10" ht="17.399999999999999">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="4"/>
@@ -4994,7 +4408,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" ht="17.25" spans="1:10">
+    <row r="249" spans="1:10" ht="17.399999999999999">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="4"/>
@@ -5006,7 +4420,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" ht="17.25" spans="1:10">
+    <row r="250" spans="1:10" ht="17.399999999999999">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="4"/>
@@ -5018,7 +4432,7 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" ht="17.25" spans="1:10">
+    <row r="251" spans="1:10" ht="17.399999999999999">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="4"/>
@@ -5030,7 +4444,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" ht="17.25" spans="1:10">
+    <row r="252" spans="1:10" ht="17.399999999999999">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="4"/>
@@ -5042,7 +4456,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" ht="17.25" spans="1:10">
+    <row r="253" spans="1:10" ht="17.399999999999999">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
@@ -5054,7 +4468,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" ht="17.25" spans="1:10">
+    <row r="254" spans="1:10" ht="17.399999999999999">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="4"/>
@@ -5066,7 +4480,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" ht="17.25" spans="1:10">
+    <row r="255" spans="1:10" ht="17.399999999999999">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="4"/>
@@ -5078,7 +4492,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" ht="17.25" spans="1:10">
+    <row r="256" spans="1:10" ht="17.399999999999999">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="4"/>
@@ -5090,7 +4504,7 @@
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" ht="17.25" spans="1:10">
+    <row r="257" spans="1:10" ht="17.399999999999999">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
@@ -5102,7 +4516,7 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" ht="17.25" spans="1:10">
+    <row r="258" spans="1:10" ht="17.399999999999999">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="4"/>
@@ -5114,7 +4528,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" ht="17.25" spans="1:10">
+    <row r="259" spans="1:10" ht="17.399999999999999">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="4"/>
@@ -5126,7 +4540,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" ht="17.25" spans="1:10">
+    <row r="260" spans="1:10" ht="17.399999999999999">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="4"/>
@@ -5138,7 +4552,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" ht="17.25" spans="1:10">
+    <row r="261" spans="1:10" ht="17.399999999999999">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="4"/>
@@ -5150,7 +4564,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" ht="17.25" spans="1:10">
+    <row r="262" spans="1:10" ht="17.399999999999999">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="4"/>
@@ -5162,7 +4576,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" ht="17.25" spans="1:10">
+    <row r="263" spans="1:10" ht="17.399999999999999">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="4"/>
@@ -5174,7 +4588,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" ht="17.25" spans="1:10">
+    <row r="264" spans="1:10" ht="17.399999999999999">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="4"/>
@@ -5186,7 +4600,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" ht="17.25" spans="1:10">
+    <row r="265" spans="1:10" ht="17.399999999999999">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="4"/>
@@ -5198,7 +4612,7 @@
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266" ht="17.25" spans="1:10">
+    <row r="266" spans="1:10" ht="17.399999999999999">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
@@ -5210,7 +4624,7 @@
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267" ht="17.25" spans="1:10">
+    <row r="267" spans="1:10" ht="17.399999999999999">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="4"/>
@@ -5222,7 +4636,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268" ht="17.25" spans="1:10">
+    <row r="268" spans="1:10" ht="17.399999999999999">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="4"/>
@@ -5234,7 +4648,7 @@
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269" ht="17.25" spans="1:10">
+    <row r="269" spans="1:10" ht="17.399999999999999">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="4"/>
@@ -5246,7 +4660,7 @@
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270" ht="17.25" spans="1:10">
+    <row r="270" spans="1:10" ht="17.399999999999999">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="4"/>
@@ -5258,11 +4672,11 @@
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271" ht="17.25" spans="1:10">
+    <row r="271" spans="1:10" ht="17.399999999999999">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="20"/>
+      <c r="D271" s="14"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -5270,8 +4684,8 @@
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272" ht="17.25" spans="1:10">
-      <c r="A272" s="13"/>
+    <row r="272" spans="1:10" ht="17.399999999999999">
+      <c r="A272" s="10"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
       <c r="D272" s="4"/>
@@ -5282,7 +4696,7 @@
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273" ht="17.25" spans="1:10">
+    <row r="273" spans="1:10" ht="17.399999999999999">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="4"/>
@@ -5294,7 +4708,7 @@
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274" ht="17.25" spans="1:10">
+    <row r="274" spans="1:10" ht="17.399999999999999">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="4"/>
@@ -5306,7 +4720,7 @@
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275" ht="17.25" spans="1:10">
+    <row r="275" spans="1:10" ht="17.399999999999999">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="4"/>
@@ -5318,7 +4732,7 @@
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
     </row>
-    <row r="276" ht="17.25" spans="1:10">
+    <row r="276" spans="1:10" ht="17.399999999999999">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="4"/>
@@ -5330,7 +4744,7 @@
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" ht="17.25" spans="1:10">
+    <row r="277" spans="1:10" ht="17.399999999999999">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="4"/>
@@ -5342,7 +4756,7 @@
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278" ht="17.25" spans="1:10">
+    <row r="278" spans="1:10" ht="17.399999999999999">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="4"/>
@@ -5354,7 +4768,7 @@
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" ht="17.25" spans="1:10">
+    <row r="279" spans="1:10" ht="17.399999999999999">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="4"/>
@@ -5366,7 +4780,7 @@
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280" ht="17.25" spans="1:10">
+    <row r="280" spans="1:10" ht="17.399999999999999">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="4"/>
@@ -5378,7 +4792,7 @@
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281" ht="17.25" spans="1:10">
+    <row r="281" spans="1:10" ht="17.399999999999999">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="4"/>
@@ -5390,7 +4804,7 @@
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282" ht="17.25" spans="1:10">
+    <row r="282" spans="1:10" ht="17.399999999999999">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="4"/>
@@ -5402,7 +4816,7 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283" ht="17.25" spans="1:10">
+    <row r="283" spans="1:10" ht="17.399999999999999">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="4"/>
@@ -5414,7 +4828,7 @@
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" ht="17.25" spans="1:10">
+    <row r="284" spans="1:10" ht="17.399999999999999">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="4"/>
@@ -5426,8 +4840,8 @@
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" ht="17.25" spans="1:10">
-      <c r="A285" s="13"/>
+    <row r="285" spans="1:10" ht="17.399999999999999">
+      <c r="A285" s="10"/>
       <c r="B285" s="6"/>
       <c r="C285" s="4"/>
       <c r="D285" s="6"/>
@@ -5438,7 +4852,7 @@
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" ht="17.25" spans="1:10">
+    <row r="286" spans="1:10" ht="17.399999999999999">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="4"/>
@@ -5450,7 +4864,7 @@
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" ht="17.25" spans="1:10">
+    <row r="287" spans="1:10" ht="17.399999999999999">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="4"/>
@@ -5462,7 +4876,7 @@
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" ht="17.25" spans="1:10">
+    <row r="288" spans="1:10" ht="17.399999999999999">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="4"/>
@@ -5474,7 +4888,7 @@
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" ht="17.25" spans="1:10">
+    <row r="289" spans="1:10" ht="17.399999999999999">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="4"/>
@@ -5486,7 +4900,7 @@
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" ht="17.25" spans="1:10">
+    <row r="290" spans="1:10" ht="17.399999999999999">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="4"/>
@@ -5498,7 +4912,7 @@
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291" ht="17.25" spans="1:10">
+    <row r="291" spans="1:10" ht="17.399999999999999">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="4"/>
@@ -5510,7 +4924,7 @@
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" ht="17.25" spans="1:10">
+    <row r="292" spans="1:10" ht="17.399999999999999">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="4"/>
@@ -5522,7 +4936,7 @@
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" ht="17.25" spans="1:10">
+    <row r="293" spans="1:10" ht="17.399999999999999">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="4"/>
@@ -5534,8 +4948,8 @@
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" ht="17.25" spans="1:10">
-      <c r="A294" s="13"/>
+    <row r="294" spans="1:10" ht="17.399999999999999">
+      <c r="A294" s="10"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
       <c r="D294" s="6"/>
@@ -5546,7 +4960,7 @@
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" ht="17.25" spans="1:10">
+    <row r="295" spans="1:10" ht="17.399999999999999">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="4"/>
@@ -5558,7 +4972,7 @@
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" ht="17.25" spans="1:10">
+    <row r="296" spans="1:10" ht="17.399999999999999">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="4"/>
@@ -5570,7 +4984,7 @@
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" ht="17.25" spans="1:10">
+    <row r="297" spans="1:10" ht="17.399999999999999">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="4"/>
@@ -5582,7 +4996,7 @@
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" ht="17.25" spans="1:10">
+    <row r="298" spans="1:10" ht="17.399999999999999">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="4"/>
@@ -5594,7 +5008,7 @@
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
     </row>
-    <row r="299" ht="17.25" spans="1:10">
+    <row r="299" spans="1:10" ht="17.399999999999999">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="4"/>
@@ -5606,7 +5020,7 @@
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" ht="17.25" spans="1:10">
+    <row r="300" spans="1:10" ht="17.399999999999999">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="4"/>
@@ -5618,7 +5032,7 @@
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" ht="17.25" spans="1:10">
+    <row r="301" spans="1:10" ht="17.399999999999999">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="4"/>
@@ -5630,7 +5044,7 @@
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" ht="17.25" spans="1:10">
+    <row r="302" spans="1:10" ht="17.399999999999999">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="4"/>
@@ -5642,7 +5056,7 @@
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" ht="17.25" spans="1:10">
+    <row r="303" spans="1:10" ht="17.399999999999999">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="4"/>
@@ -5654,7 +5068,7 @@
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" ht="17.25" spans="1:10">
+    <row r="304" spans="1:10" ht="17.399999999999999">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="4"/>
@@ -5666,7 +5080,7 @@
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" ht="17.25" spans="1:10">
+    <row r="305" spans="1:10" ht="17.399999999999999">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="4"/>
@@ -5678,10 +5092,10 @@
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" ht="17.25" spans="1:10">
-      <c r="A306" s="13"/>
-      <c r="B306" s="15"/>
-      <c r="C306" s="14"/>
+    <row r="306" spans="1:10" ht="17.399999999999999">
+      <c r="A306" s="10"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="11"/>
       <c r="D306" s="6"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
@@ -5690,8 +5104,8 @@
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" ht="17.25" spans="1:10">
-      <c r="A307" s="13"/>
+    <row r="307" spans="1:10" ht="17.399999999999999">
+      <c r="A307" s="10"/>
       <c r="B307" s="6"/>
       <c r="C307" s="4"/>
       <c r="D307" s="6"/>
@@ -5702,7 +5116,7 @@
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
     </row>
-    <row r="308" ht="17.25" spans="1:10">
+    <row r="308" spans="1:10" ht="17.399999999999999">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="4"/>
@@ -5714,7 +5128,7 @@
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" ht="17.25" spans="1:10">
+    <row r="309" spans="1:10" ht="17.399999999999999">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
@@ -5726,7 +5140,7 @@
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" ht="17.25" spans="1:10">
+    <row r="310" spans="1:10" ht="17.399999999999999">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="4"/>
@@ -5738,7 +5152,7 @@
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" ht="17.25" spans="1:10">
+    <row r="311" spans="1:10" ht="17.399999999999999">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="4"/>
@@ -5750,7 +5164,7 @@
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
     </row>
-    <row r="312" ht="17.25" spans="1:10">
+    <row r="312" spans="1:10" ht="17.399999999999999">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="4"/>
@@ -5762,7 +5176,7 @@
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" ht="17.25" spans="1:10">
+    <row r="313" spans="1:10" ht="17.399999999999999">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="4"/>
@@ -5774,7 +5188,7 @@
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" ht="17.25" spans="1:10">
+    <row r="314" spans="1:10" ht="17.399999999999999">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="4"/>
@@ -5786,7 +5200,7 @@
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" ht="17.25" spans="1:10">
+    <row r="315" spans="1:10" ht="17.399999999999999">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="4"/>
@@ -5798,7 +5212,7 @@
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" ht="17.25" spans="1:10">
+    <row r="316" spans="1:10" ht="17.399999999999999">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="4"/>
@@ -5810,7 +5224,7 @@
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" ht="17.25" spans="1:10">
+    <row r="317" spans="1:10" ht="17.399999999999999">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="4"/>
@@ -5822,7 +5236,7 @@
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" ht="17.25" spans="1:10">
+    <row r="318" spans="1:10" ht="17.399999999999999">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="4"/>
@@ -5834,7 +5248,7 @@
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" ht="17.25" spans="1:10">
+    <row r="319" spans="1:10" ht="17.399999999999999">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="4"/>
@@ -5846,7 +5260,7 @@
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" ht="17.25" spans="1:10">
+    <row r="320" spans="1:10" ht="17.399999999999999">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="4"/>
@@ -5858,7 +5272,7 @@
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" ht="17.25" spans="1:10">
+    <row r="321" spans="1:10" ht="17.399999999999999">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="4"/>
@@ -5870,7 +5284,7 @@
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" ht="17.25" spans="1:10">
+    <row r="322" spans="1:10" ht="17.399999999999999">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="4"/>
@@ -5882,7 +5296,7 @@
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" ht="17.25" spans="1:10">
+    <row r="323" spans="1:10" ht="17.399999999999999">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="4"/>
@@ -5894,7 +5308,7 @@
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" ht="17.25" spans="1:10">
+    <row r="324" spans="1:10" ht="17.399999999999999">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="4"/>
@@ -5906,7 +5320,7 @@
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" ht="17.25" spans="1:10">
+    <row r="325" spans="1:10" ht="17.399999999999999">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="4"/>
@@ -5918,7 +5332,7 @@
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" ht="17.25" spans="1:10">
+    <row r="326" spans="1:10" ht="17.399999999999999">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="4"/>
@@ -5930,7 +5344,7 @@
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327" ht="17.25" spans="1:10">
+    <row r="327" spans="1:10" ht="17.399999999999999">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="4"/>
@@ -5942,7 +5356,7 @@
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" ht="17.25" spans="1:10">
+    <row r="328" spans="1:10" ht="17.399999999999999">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="4"/>
@@ -5954,7 +5368,7 @@
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" ht="17.25" spans="1:10">
+    <row r="329" spans="1:10" ht="17.399999999999999">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="4"/>
@@ -5966,7 +5380,7 @@
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" ht="17.25" spans="1:10">
+    <row r="330" spans="1:10" ht="17.399999999999999">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="4"/>
@@ -5978,7 +5392,7 @@
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" ht="17.25" spans="1:10">
+    <row r="331" spans="1:10" ht="17.399999999999999">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="4"/>
@@ -5990,8 +5404,8 @@
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" ht="17.25" spans="1:10">
-      <c r="A332" s="13"/>
+    <row r="332" spans="1:10" ht="17.399999999999999">
+      <c r="A332" s="10"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
       <c r="D332" s="6"/>
@@ -6002,7 +5416,7 @@
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" ht="17.25" spans="1:10">
+    <row r="333" spans="1:10" ht="17.399999999999999">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="4"/>
@@ -6014,8 +5428,8 @@
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" ht="17.25" spans="1:10">
-      <c r="A334" s="13"/>
+    <row r="334" spans="1:10" ht="17.399999999999999">
+      <c r="A334" s="10"/>
       <c r="B334" s="6"/>
       <c r="C334" s="4"/>
       <c r="D334" s="6"/>
@@ -6026,9 +5440,9 @@
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" ht="17.25" spans="1:10">
-      <c r="A335" s="13"/>
-      <c r="B335" s="23"/>
+    <row r="335" spans="1:10" ht="17.399999999999999">
+      <c r="A335" s="10"/>
+      <c r="B335" s="17"/>
       <c r="C335" s="7"/>
       <c r="D335" s="6"/>
       <c r="E335" s="4"/>
@@ -6038,8 +5452,8 @@
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" ht="17.25" spans="1:10">
-      <c r="A336" s="13"/>
+    <row r="336" spans="1:10" ht="17.399999999999999">
+      <c r="A336" s="10"/>
       <c r="B336" s="6"/>
       <c r="C336" s="4"/>
       <c r="D336" s="6"/>
@@ -6050,7 +5464,7 @@
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" ht="17.25" spans="1:10">
+    <row r="337" spans="1:10" ht="17.399999999999999">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="4"/>
@@ -6062,7 +5476,7 @@
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" ht="17.25" spans="1:10">
+    <row r="338" spans="1:10" ht="17.399999999999999">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="4"/>
@@ -6074,7 +5488,7 @@
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" ht="17.25" spans="1:10">
+    <row r="339" spans="1:10" ht="17.399999999999999">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="4"/>
@@ -6086,7 +5500,7 @@
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" ht="17.25" spans="1:10">
+    <row r="340" spans="1:10" ht="17.399999999999999">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="4"/>
@@ -6098,7 +5512,7 @@
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" ht="17.25" spans="1:10">
+    <row r="341" spans="1:10" ht="17.399999999999999">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="4"/>
@@ -6110,7 +5524,7 @@
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342" ht="17.25" spans="1:10">
+    <row r="342" spans="1:10" ht="17.399999999999999">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="4"/>
@@ -6122,10 +5536,10 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343" ht="17.25" spans="1:10">
-      <c r="A343" s="13"/>
-      <c r="B343" s="15"/>
-      <c r="C343" s="14"/>
+    <row r="343" spans="1:10" ht="17.399999999999999">
+      <c r="A343" s="10"/>
+      <c r="B343" s="12"/>
+      <c r="C343" s="11"/>
       <c r="D343" s="6"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
@@ -6134,7 +5548,7 @@
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344" ht="17.25" spans="1:10">
+    <row r="344" spans="1:10" ht="17.399999999999999">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="4"/>
@@ -6146,7 +5560,7 @@
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345" ht="17.25" spans="1:10">
+    <row r="345" spans="1:10" ht="17.399999999999999">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="4"/>
@@ -6158,7 +5572,7 @@
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346" ht="17.25" spans="1:10">
+    <row r="346" spans="1:10" ht="17.399999999999999">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="4"/>
@@ -6170,7 +5584,7 @@
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347" ht="17.25" spans="1:10">
+    <row r="347" spans="1:10" ht="17.399999999999999">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="4"/>
@@ -6182,7 +5596,7 @@
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348" ht="17.25" spans="1:10">
+    <row r="348" spans="1:10" ht="17.399999999999999">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="4"/>
@@ -6194,7 +5608,7 @@
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349" ht="17.25" spans="1:10">
+    <row r="349" spans="1:10" ht="17.399999999999999">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="4"/>
@@ -6206,7 +5620,7 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350" ht="17.25" spans="1:10">
+    <row r="350" spans="1:10" ht="17.399999999999999">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="4"/>
@@ -6218,7 +5632,7 @@
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351" ht="17.25" spans="1:10">
+    <row r="351" spans="1:10" ht="17.399999999999999">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="4"/>
@@ -6230,11 +5644,11 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352" ht="17.25" spans="1:10">
+    <row r="352" spans="1:10" ht="17.399999999999999">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="20"/>
+      <c r="D352" s="14"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
@@ -6242,7 +5656,7 @@
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353" ht="17.25" spans="1:10">
+    <row r="353" spans="1:10" ht="17.399999999999999">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="4"/>
@@ -6254,7 +5668,7 @@
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354" ht="17.25" spans="1:10">
+    <row r="354" spans="1:10" ht="17.399999999999999">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="4"/>
@@ -6266,7 +5680,7 @@
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355" ht="17.25" spans="1:10">
+    <row r="355" spans="1:10" ht="17.399999999999999">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="4"/>
@@ -6278,7 +5692,7 @@
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" ht="17.25" spans="1:10">
+    <row r="356" spans="1:10" ht="17.399999999999999">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="4"/>
@@ -6290,7 +5704,7 @@
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357" ht="17.25" spans="1:10">
+    <row r="357" spans="1:10" ht="17.399999999999999">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="4"/>
@@ -6302,7 +5716,7 @@
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358" ht="17.25" spans="1:10">
+    <row r="358" spans="1:10" ht="17.399999999999999">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="4"/>
@@ -6314,7 +5728,7 @@
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359" ht="17.25" spans="1:10">
+    <row r="359" spans="1:10" ht="17.399999999999999">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="4"/>
@@ -6326,7 +5740,7 @@
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" ht="17.25" spans="1:10">
+    <row r="360" spans="1:10" ht="17.399999999999999">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="4"/>
@@ -6338,7 +5752,7 @@
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361" ht="17.25" spans="1:10">
+    <row r="361" spans="1:10" ht="17.399999999999999">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="4"/>
@@ -6350,7 +5764,7 @@
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362" ht="17.25" spans="1:10">
+    <row r="362" spans="1:10" ht="17.399999999999999">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="4"/>
@@ -6362,7 +5776,7 @@
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363" ht="17.25" spans="1:10">
+    <row r="363" spans="1:10" ht="17.399999999999999">
       <c r="A363" s="1"/>
       <c r="B363" s="6"/>
       <c r="C363" s="4"/>
@@ -6374,7 +5788,7 @@
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364" ht="17.25" spans="1:10">
+    <row r="364" spans="1:10" ht="17.399999999999999">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="4"/>
@@ -6386,7 +5800,7 @@
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365" ht="17.25" spans="1:10">
+    <row r="365" spans="1:10" ht="17.399999999999999">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="4"/>
@@ -6398,7 +5812,7 @@
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366" ht="17.25" spans="1:10">
+    <row r="366" spans="1:10" ht="17.399999999999999">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="4"/>
@@ -6410,7 +5824,7 @@
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367" ht="17.25" spans="1:10">
+    <row r="367" spans="1:10" ht="17.399999999999999">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="4"/>
@@ -6422,7 +5836,7 @@
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368" ht="17.25" spans="1:10">
+    <row r="368" spans="1:10" ht="17.399999999999999">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="4"/>
@@ -6434,7 +5848,7 @@
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369" ht="17.25" spans="1:10">
+    <row r="369" spans="1:10" ht="17.399999999999999">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="4"/>
@@ -6446,7 +5860,7 @@
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370" ht="17.25" spans="1:10">
+    <row r="370" spans="1:10" ht="17.399999999999999">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="4"/>
@@ -6458,7 +5872,7 @@
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371" ht="17.25" spans="1:10">
+    <row r="371" spans="1:10" ht="17.399999999999999">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="4"/>
@@ -6470,7 +5884,7 @@
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372" ht="17.25" spans="1:10">
+    <row r="372" spans="1:10" ht="17.399999999999999">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="4"/>
@@ -6482,7 +5896,7 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373" ht="17.25" spans="1:10">
+    <row r="373" spans="1:10" ht="17.399999999999999">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="4"/>
@@ -6494,7 +5908,7 @@
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374" ht="17.25" spans="1:10">
+    <row r="374" spans="1:10" ht="17.399999999999999">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="4"/>
@@ -6506,7 +5920,7 @@
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
     </row>
-    <row r="375" ht="17.25" spans="1:10">
+    <row r="375" spans="1:10" ht="17.399999999999999">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="4"/>
@@ -6518,7 +5932,7 @@
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
     </row>
-    <row r="376" ht="17.25" spans="1:10">
+    <row r="376" spans="1:10" ht="17.399999999999999">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="4"/>
@@ -6530,7 +5944,7 @@
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
     </row>
-    <row r="377" ht="17.25" spans="1:10">
+    <row r="377" spans="1:10" ht="17.399999999999999">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="4"/>
@@ -6542,7 +5956,7 @@
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
     </row>
-    <row r="378" ht="17.25" spans="1:10">
+    <row r="378" spans="1:10" ht="17.399999999999999">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="4"/>
@@ -6554,7 +5968,7 @@
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
     </row>
-    <row r="379" ht="17.25" spans="1:10">
+    <row r="379" spans="1:10" ht="17.399999999999999">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
@@ -6566,7 +5980,7 @@
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
     </row>
-    <row r="380" ht="17.25" spans="1:10">
+    <row r="380" spans="1:10" ht="17.399999999999999">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="4"/>
@@ -6578,7 +5992,7 @@
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
     </row>
-    <row r="381" ht="17.25" spans="1:10">
+    <row r="381" spans="1:10" ht="17.399999999999999">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="4"/>
@@ -6590,7 +6004,7 @@
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
     </row>
-    <row r="382" ht="17.25" spans="1:10">
+    <row r="382" spans="1:10" ht="17.399999999999999">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="4"/>
@@ -6602,7 +6016,7 @@
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
     </row>
-    <row r="383" ht="17.25" spans="1:10">
+    <row r="383" spans="1:10" ht="17.399999999999999">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="4"/>
@@ -6614,7 +6028,7 @@
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
     </row>
-    <row r="384" ht="17.25" spans="1:10">
+    <row r="384" spans="1:10" ht="17.399999999999999">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="4"/>
@@ -6626,7 +6040,7 @@
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
     </row>
-    <row r="385" ht="17.25" spans="1:10">
+    <row r="385" spans="1:10" ht="17.399999999999999">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="4"/>
@@ -6638,7 +6052,7 @@
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
     </row>
-    <row r="386" ht="17.25" spans="1:10">
+    <row r="386" spans="1:10" ht="17.399999999999999">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="4"/>
@@ -6650,7 +6064,7 @@
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
     </row>
-    <row r="387" ht="17.25" spans="1:10">
+    <row r="387" spans="1:10" ht="17.399999999999999">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="4"/>
@@ -6662,7 +6076,7 @@
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
     </row>
-    <row r="388" ht="17.25" spans="1:10">
+    <row r="388" spans="1:10" ht="17.399999999999999">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
@@ -6674,7 +6088,7 @@
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
     </row>
-    <row r="389" ht="17.25" spans="1:10">
+    <row r="389" spans="1:10" ht="17.399999999999999">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="4"/>
@@ -6686,10 +6100,10 @@
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
     </row>
-    <row r="390" ht="17.25" spans="1:10">
-      <c r="A390" s="13"/>
-      <c r="B390" s="15"/>
-      <c r="C390" s="14"/>
+    <row r="390" spans="1:10" ht="17.399999999999999">
+      <c r="A390" s="10"/>
+      <c r="B390" s="12"/>
+      <c r="C390" s="11"/>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="4"/>
@@ -6698,10 +6112,10 @@
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
     </row>
-    <row r="391" ht="17.25" spans="1:10">
-      <c r="A391" s="13"/>
-      <c r="B391" s="23"/>
-      <c r="C391" s="14"/>
+    <row r="391" spans="1:10" ht="17.399999999999999">
+      <c r="A391" s="10"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="11"/>
       <c r="D391" s="6"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
@@ -6710,10 +6124,10 @@
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
     </row>
-    <row r="392" ht="17.25" spans="1:10">
-      <c r="A392" s="13"/>
-      <c r="B392" s="23"/>
-      <c r="C392" s="14"/>
+    <row r="392" spans="1:10" ht="17.399999999999999">
+      <c r="A392" s="10"/>
+      <c r="B392" s="17"/>
+      <c r="C392" s="11"/>
       <c r="D392" s="6"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
@@ -6722,10 +6136,10 @@
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
     </row>
-    <row r="393" ht="17.25" spans="1:10">
-      <c r="A393" s="13"/>
-      <c r="B393" s="23"/>
-      <c r="C393" s="14"/>
+    <row r="393" spans="1:10" ht="17.399999999999999">
+      <c r="A393" s="10"/>
+      <c r="B393" s="17"/>
+      <c r="C393" s="11"/>
       <c r="D393" s="6"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
@@ -6734,10 +6148,10 @@
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
     </row>
-    <row r="394" ht="17.25" spans="1:10">
-      <c r="A394" s="13"/>
-      <c r="B394" s="23"/>
-      <c r="C394" s="14"/>
+    <row r="394" spans="1:10" ht="17.399999999999999">
+      <c r="A394" s="10"/>
+      <c r="B394" s="17"/>
+      <c r="C394" s="11"/>
       <c r="D394" s="6"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
@@ -6747,18 +6161,16 @@
       <c r="J394" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E390">
-    <sortState ref="A1:E390">
-      <sortCondition ref="A1:A390"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F67" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+    <sortCondition descending="1" ref="F2:F65"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="https://www.bilibili.com/video/BV1PY411u7sg"/>
-    <hyperlink ref="C15" r:id="rId2" display="https://www.bilibili.com/video/BV1dL411p75E"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\internet\chat\tencent\qqsave\1824390830\filerecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F9BFE-25BE-4A5A-8C24-1F81CA99286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2358AE6-01F6-40BA-BA8A-9A8BD4C68110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,9 +978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:A67"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1048,9 +1048,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1068,9 +1066,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1232,9 +1228,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1326,9 +1320,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>

--- a/鸽宝歌单整理.xlsx
+++ b/鸽宝歌单整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\hobby\code\js\aige_song_list_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2358AE6-01F6-40BA-BA8A-9A8BD4C68110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D6431-68BB-4883-9D44-8579E6C4431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -979,8 +979,8 @@
   <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2088,9 +2088,7 @@
         <v>49</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
